--- a/Översikt FALKENBERG.xlsx
+++ b/Översikt FALKENBERG.xlsx
@@ -575,7 +575,7 @@
         <v>44593</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -676,7 +676,7 @@
         <v>45723.3484375</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -763,7 +763,7 @@
         <v>44365</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -849,7 +849,7 @@
         <v>44592</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -940,7 +940,7 @@
         <v>44593</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1031,7 +1031,7 @@
         <v>45456.51078703703</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1121,7 +1121,7 @@
         <v>44460</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1206,7 +1206,7 @@
         <v>44435</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1291,7 +1291,7 @@
         <v>44517</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1376,7 +1376,7 @@
         <v>44946</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1461,7 +1461,7 @@
         <v>45600</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1546,7 +1546,7 @@
         <v>45914.41195601852</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1631,7 +1631,7 @@
         <v>45667</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1716,7 +1716,7 @@
         <v>45273</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1801,7 +1801,7 @@
         <v>45239</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1886,7 +1886,7 @@
         <v>45363</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1971,7 +1971,7 @@
         <v>45789.60172453704</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2056,7 +2056,7 @@
         <v>44806</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2113,7 +2113,7 @@
         <v>44250</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2175,7 +2175,7 @@
         <v>44278</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2232,7 +2232,7 @@
         <v>44574</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2289,7 +2289,7 @@
         <v>44476.37228009259</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2346,7 +2346,7 @@
         <v>44432.4594212963</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2403,7 +2403,7 @@
         <v>44607.63460648148</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2460,7 +2460,7 @@
         <v>44553</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2517,7 +2517,7 @@
         <v>44454</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2579,7 +2579,7 @@
         <v>44454</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2641,7 +2641,7 @@
         <v>44271.8378125</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2698,7 +2698,7 @@
         <v>44379</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2755,7 +2755,7 @@
         <v>44287.58824074074</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2812,7 +2812,7 @@
         <v>44539</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2869,7 +2869,7 @@
         <v>44314</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2926,7 +2926,7 @@
         <v>44381</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2983,7 +2983,7 @@
         <v>44381</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3040,7 +3040,7 @@
         <v>44868</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3097,7 +3097,7 @@
         <v>44467</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3154,7 +3154,7 @@
         <v>44461</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3211,7 +3211,7 @@
         <v>44335.28211805555</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3268,7 +3268,7 @@
         <v>44335.27913194444</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3325,7 +3325,7 @@
         <v>44335.28144675926</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3382,7 +3382,7 @@
         <v>44351.60125</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3439,7 +3439,7 @@
         <v>44343</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3496,7 +3496,7 @@
         <v>44867.36803240741</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3553,7 +3553,7 @@
         <v>44266</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3610,7 +3610,7 @@
         <v>44467.34239583334</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3667,7 +3667,7 @@
         <v>44466</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3724,7 +3724,7 @@
         <v>44448</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3781,7 +3781,7 @@
         <v>44680</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3838,7 +3838,7 @@
         <v>44600.5474537037</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3895,7 +3895,7 @@
         <v>44868.31677083333</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3952,7 +3952,7 @@
         <v>44432.46753472222</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4009,7 +4009,7 @@
         <v>44816.45646990741</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4066,7 +4066,7 @@
         <v>44613.58173611111</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4123,7 +4123,7 @@
         <v>44430</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4180,7 +4180,7 @@
         <v>44424.72109953704</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4237,7 +4237,7 @@
         <v>44689</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4294,7 +4294,7 @@
         <v>44616.59969907408</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4356,7 +4356,7 @@
         <v>44866</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4413,7 +4413,7 @@
         <v>44836</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4470,7 +4470,7 @@
         <v>44616.54832175926</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4532,7 +4532,7 @@
         <v>44357</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4594,7 +4594,7 @@
         <v>44617.43591435185</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4651,7 +4651,7 @@
         <v>44257</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4708,7 +4708,7 @@
         <v>44237</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4770,7 +4770,7 @@
         <v>44432.45711805556</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4827,7 +4827,7 @@
         <v>44377</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4884,7 +4884,7 @@
         <v>44400</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4941,7 +4941,7 @@
         <v>44379.33618055555</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4998,7 +4998,7 @@
         <v>44547</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5055,7 +5055,7 @@
         <v>44599.64387731482</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5112,7 +5112,7 @@
         <v>44287</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5174,7 +5174,7 @@
         <v>44267</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5231,7 +5231,7 @@
         <v>44711.5750462963</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5288,7 +5288,7 @@
         <v>44879.4912962963</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5345,7 +5345,7 @@
         <v>44320</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5402,7 +5402,7 @@
         <v>44544</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5459,7 +5459,7 @@
         <v>44600.5519212963</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5516,7 +5516,7 @@
         <v>44424</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5573,7 +5573,7 @@
         <v>44295.61899305556</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5630,7 +5630,7 @@
         <v>44692</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5687,7 +5687,7 @@
         <v>44692</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5744,7 +5744,7 @@
         <v>44600.38675925926</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5801,7 +5801,7 @@
         <v>44539</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5858,7 +5858,7 @@
         <v>44539</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5915,7 +5915,7 @@
         <v>44424</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5972,7 +5972,7 @@
         <v>44747</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6029,7 +6029,7 @@
         <v>44813.48675925926</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6086,7 +6086,7 @@
         <v>44841.57885416667</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6143,7 +6143,7 @@
         <v>44545.7980787037</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6200,7 +6200,7 @@
         <v>44446.46020833333</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6257,7 +6257,7 @@
         <v>44574.57268518519</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6314,7 +6314,7 @@
         <v>44407</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6371,7 +6371,7 @@
         <v>44747.85928240741</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6428,7 +6428,7 @@
         <v>44719.59836805556</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6485,7 +6485,7 @@
         <v>44866</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6542,7 +6542,7 @@
         <v>44881</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6599,7 +6599,7 @@
         <v>44425</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6656,7 +6656,7 @@
         <v>44593</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6718,7 +6718,7 @@
         <v>44467.3453125</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6775,7 +6775,7 @@
         <v>44467.34431712963</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6832,7 +6832,7 @@
         <v>44467.82064814815</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6889,7 +6889,7 @@
         <v>44803.57302083333</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6946,7 +6946,7 @@
         <v>44614</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7003,7 +7003,7 @@
         <v>44596.65662037037</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7060,7 +7060,7 @@
         <v>44685.31212962963</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7117,7 +7117,7 @@
         <v>44638.63767361111</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7174,7 +7174,7 @@
         <v>44309.50061342592</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7231,7 +7231,7 @@
         <v>44354.45418981482</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7288,7 +7288,7 @@
         <v>44267</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7345,7 +7345,7 @@
         <v>44466</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7402,7 +7402,7 @@
         <v>44537</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7464,7 +7464,7 @@
         <v>44539</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7521,7 +7521,7 @@
         <v>44628</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7583,7 +7583,7 @@
         <v>44454</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7645,7 +7645,7 @@
         <v>44237</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7707,7 +7707,7 @@
         <v>44481</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7764,7 +7764,7 @@
         <v>44543</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7821,7 +7821,7 @@
         <v>44539</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7878,7 +7878,7 @@
         <v>44407</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7935,7 +7935,7 @@
         <v>44438.49201388889</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7992,7 +7992,7 @@
         <v>44237</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8054,7 +8054,7 @@
         <v>44539</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8111,7 +8111,7 @@
         <v>45321</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8168,7 +8168,7 @@
         <v>44958</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8230,7 +8230,7 @@
         <v>45425</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8287,7 +8287,7 @@
         <v>44576.3878125</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8344,7 +8344,7 @@
         <v>45363</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8401,7 +8401,7 @@
         <v>44985.40803240741</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8458,7 +8458,7 @@
         <v>45635.46984953704</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8515,7 +8515,7 @@
         <v>45552</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8572,7 +8572,7 @@
         <v>45148</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8629,7 +8629,7 @@
         <v>45390.38009259259</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8686,7 +8686,7 @@
         <v>45546</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8743,7 +8743,7 @@
         <v>45635.44935185185</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8800,7 +8800,7 @@
         <v>45735.36537037037</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8857,7 +8857,7 @@
         <v>45205.48982638889</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8914,7 +8914,7 @@
         <v>44946</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8971,7 +8971,7 @@
         <v>44848.34385416667</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9028,7 +9028,7 @@
         <v>45736.60388888889</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9090,7 +9090,7 @@
         <v>45196</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9147,7 +9147,7 @@
         <v>45419.38927083334</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9204,7 +9204,7 @@
         <v>45751.45901620371</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9261,7 +9261,7 @@
         <v>45044</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9318,7 +9318,7 @@
         <v>45147</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9375,7 +9375,7 @@
         <v>44893</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9432,7 +9432,7 @@
         <v>44600.38467592592</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9489,7 +9489,7 @@
         <v>45019</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9546,7 +9546,7 @@
         <v>45714.87357638889</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9603,7 +9603,7 @@
         <v>45691</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9660,7 +9660,7 @@
         <v>45736.5667824074</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9717,7 +9717,7 @@
         <v>45600.37215277777</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9774,7 +9774,7 @@
         <v>44525.35303240741</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9831,7 +9831,7 @@
         <v>44903.63020833334</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9888,7 +9888,7 @@
         <v>45714.88813657407</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9945,7 +9945,7 @@
         <v>44999</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10002,7 +10002,7 @@
         <v>44986</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10059,7 +10059,7 @@
         <v>45772.3849537037</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10116,7 +10116,7 @@
         <v>45300.33005787037</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10173,7 +10173,7 @@
         <v>45201</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10235,7 +10235,7 @@
         <v>45769.76717592592</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10292,7 +10292,7 @@
         <v>45001</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10349,7 +10349,7 @@
         <v>45799.5099537037</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10406,7 +10406,7 @@
         <v>44545.35561342593</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10463,7 +10463,7 @@
         <v>45355.42181712963</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10520,7 +10520,7 @@
         <v>45152.60824074074</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10577,7 +10577,7 @@
         <v>44946</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10634,7 +10634,7 @@
         <v>44946</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10691,7 +10691,7 @@
         <v>45887.67622685185</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10748,7 +10748,7 @@
         <v>45800</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10805,7 +10805,7 @@
         <v>45799.79076388889</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10862,7 +10862,7 @@
         <v>45799.79210648148</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10919,7 +10919,7 @@
         <v>45799.79471064815</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10976,7 +10976,7 @@
         <v>44340</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11033,7 +11033,7 @@
         <v>45343.54475694444</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11090,7 +11090,7 @@
         <v>45441.43253472223</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11152,7 +11152,7 @@
         <v>44882</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11209,7 +11209,7 @@
         <v>45435.46104166667</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11266,7 +11266,7 @@
         <v>45782.57447916667</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11323,7 +11323,7 @@
         <v>45127</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11385,7 +11385,7 @@
         <v>45127</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11447,7 +11447,7 @@
         <v>45435.44475694445</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11504,7 +11504,7 @@
         <v>45582.42644675926</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11561,7 +11561,7 @@
         <v>45627.80547453704</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11618,7 +11618,7 @@
         <v>44986</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11675,7 +11675,7 @@
         <v>45795.47841435186</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11732,7 +11732,7 @@
         <v>45189.50260416666</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11789,7 +11789,7 @@
         <v>45811.49912037037</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11846,7 +11846,7 @@
         <v>45811.59423611111</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11903,7 +11903,7 @@
         <v>45889.43125</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11960,7 +11960,7 @@
         <v>45810.65826388889</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12017,7 +12017,7 @@
         <v>45888.59473379629</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12074,7 +12074,7 @@
         <v>45743.39162037037</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12131,7 +12131,7 @@
         <v>45091.65994212963</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12188,7 +12188,7 @@
         <v>45595.51690972222</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12245,7 +12245,7 @@
         <v>45182.69210648148</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12302,7 +12302,7 @@
         <v>45044</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12359,7 +12359,7 @@
         <v>45575.45410879629</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12416,7 +12416,7 @@
         <v>45329</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12473,7 +12473,7 @@
         <v>45812.54030092592</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12530,7 +12530,7 @@
         <v>45324</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12587,7 +12587,7 @@
         <v>45770.53210648148</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12644,7 +12644,7 @@
         <v>45548</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12701,7 +12701,7 @@
         <v>44689.48841435185</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12758,7 +12758,7 @@
         <v>44974.60203703704</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12815,7 +12815,7 @@
         <v>45817.44741898148</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12872,7 +12872,7 @@
         <v>45895</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12929,7 +12929,7 @@
         <v>45895</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12986,7 +12986,7 @@
         <v>45467.44800925926</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13043,7 +13043,7 @@
         <v>45188</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13100,7 +13100,7 @@
         <v>45188</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13157,7 +13157,7 @@
         <v>44984</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13214,7 +13214,7 @@
         <v>45901.47424768518</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13271,7 +13271,7 @@
         <v>45462.58004629629</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13328,7 +13328,7 @@
         <v>45889.5352662037</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13385,7 +13385,7 @@
         <v>45712.86837962963</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13442,7 +13442,7 @@
         <v>45901.46990740741</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13499,7 +13499,7 @@
         <v>45901.61994212963</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13556,7 +13556,7 @@
         <v>45901.3091087963</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13613,7 +13613,7 @@
         <v>45630.41225694444</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13670,7 +13670,7 @@
         <v>45615.53175925926</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13727,7 +13727,7 @@
         <v>45901</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13784,7 +13784,7 @@
         <v>45682.80640046296</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13841,7 +13841,7 @@
         <v>45682.8075</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13898,7 +13898,7 @@
         <v>44974.62332175926</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13955,7 +13955,7 @@
         <v>45821.60167824074</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14012,7 +14012,7 @@
         <v>45226</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14069,7 +14069,7 @@
         <v>45905.5284375</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14126,7 +14126,7 @@
         <v>45552</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14183,7 +14183,7 @@
         <v>45688.6674537037</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14240,7 +14240,7 @@
         <v>44313</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14297,7 +14297,7 @@
         <v>45670</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14354,7 +14354,7 @@
         <v>45252</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14411,7 +14411,7 @@
         <v>45743</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14473,7 +14473,7 @@
         <v>45481</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14530,7 +14530,7 @@
         <v>45908.33061342593</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14587,7 +14587,7 @@
         <v>44431</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14649,7 +14649,7 @@
         <v>45723</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14706,7 +14706,7 @@
         <v>45642.3908912037</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14763,7 +14763,7 @@
         <v>45435.45245370371</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14820,7 +14820,7 @@
         <v>45911</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14877,7 +14877,7 @@
         <v>45910.66509259259</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14934,7 +14934,7 @@
         <v>45700.36393518518</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14991,7 +14991,7 @@
         <v>45232.48390046296</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15048,7 +15048,7 @@
         <v>44903.63605324074</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15105,7 +15105,7 @@
         <v>45914</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15162,7 +15162,7 @@
         <v>45914</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15219,7 +15219,7 @@
         <v>45015</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15276,7 +15276,7 @@
         <v>45758.22861111111</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15333,7 +15333,7 @@
         <v>45917.67875</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15390,7 +15390,7 @@
         <v>44887</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15447,7 +15447,7 @@
         <v>45561.49186342592</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15504,7 +15504,7 @@
         <v>45769</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15561,7 +15561,7 @@
         <v>45635.41049768519</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15618,7 +15618,7 @@
         <v>45923</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15675,7 +15675,7 @@
         <v>45923.40399305556</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15732,7 +15732,7 @@
         <v>45923.62894675926</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15789,7 +15789,7 @@
         <v>45219.66456018519</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15846,7 +15846,7 @@
         <v>45923</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15903,7 +15903,7 @@
         <v>45923.29974537037</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15960,7 +15960,7 @@
         <v>44811.59471064815</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16017,7 +16017,7 @@
         <v>45923.40621527778</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16074,7 +16074,7 @@
         <v>45923.40828703704</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16131,7 +16131,7 @@
         <v>45923.42020833334</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16188,7 +16188,7 @@
         <v>45350.56215277778</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16245,7 +16245,7 @@
         <v>45924.32386574074</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16302,7 +16302,7 @@
         <v>45182.69283564815</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16359,7 +16359,7 @@
         <v>45924.41028935185</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16416,7 +16416,7 @@
         <v>45924.39601851852</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16473,7 +16473,7 @@
         <v>45924.40828703704</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16530,7 +16530,7 @@
         <v>45272.75372685185</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16587,7 +16587,7 @@
         <v>45243</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16644,7 +16644,7 @@
         <v>45926.49829861111</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16701,7 +16701,7 @@
         <v>45926.56120370371</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16758,7 +16758,7 @@
         <v>45926.56398148148</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16815,7 +16815,7 @@
         <v>45533.34621527778</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16872,7 +16872,7 @@
         <v>45834.38549768519</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16929,7 +16929,7 @@
         <v>45926.49947916667</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16986,7 +16986,7 @@
         <v>44910</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17043,7 +17043,7 @@
         <v>45834.39193287037</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17100,7 +17100,7 @@
         <v>45555.70491898148</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17157,7 +17157,7 @@
         <v>45966.298125</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17214,7 +17214,7 @@
         <v>45581.2815625</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17271,7 +17271,7 @@
         <v>45930.77993055555</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17328,7 +17328,7 @@
         <v>45770.5756712963</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17385,7 +17385,7 @@
         <v>45834.40207175926</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17442,7 +17442,7 @@
         <v>45681</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17499,7 +17499,7 @@
         <v>45839</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17556,7 +17556,7 @@
         <v>45673.90905092593</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17613,7 +17613,7 @@
         <v>45931.87085648148</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17670,7 +17670,7 @@
         <v>45931</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17727,7 +17727,7 @@
         <v>45933.47980324074</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17784,7 +17784,7 @@
         <v>45836.60414351852</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17841,7 +17841,7 @@
         <v>45931</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17898,7 +17898,7 @@
         <v>45838.24482638889</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17955,7 +17955,7 @@
         <v>45838.48069444444</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18012,7 +18012,7 @@
         <v>45838.48546296296</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18069,7 +18069,7 @@
         <v>45838.64795138889</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18126,7 +18126,7 @@
         <v>45838.65300925926</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18183,7 +18183,7 @@
         <v>45700.35894675926</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18240,7 +18240,7 @@
         <v>45838.24680555556</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18297,7 +18297,7 @@
         <v>45762.32988425926</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18354,7 +18354,7 @@
         <v>45896</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18411,7 +18411,7 @@
         <v>45896</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18468,7 +18468,7 @@
         <v>44642</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18525,7 +18525,7 @@
         <v>44687</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18582,7 +18582,7 @@
         <v>45937.6268287037</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18644,7 +18644,7 @@
         <v>45845</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18701,7 +18701,7 @@
         <v>45831.66783564815</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18758,7 +18758,7 @@
         <v>45524</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18815,7 +18815,7 @@
         <v>45940.34849537037</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18872,7 +18872,7 @@
         <v>44644.32097222222</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18929,7 +18929,7 @@
         <v>45552.60383101852</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18986,7 +18986,7 @@
         <v>44984</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19043,7 +19043,7 @@
         <v>45708.31506944444</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19100,7 +19100,7 @@
         <v>45280.615</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19157,7 +19157,7 @@
         <v>45842.41069444444</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19214,7 +19214,7 @@
         <v>45187</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19271,7 +19271,7 @@
         <v>45566.33518518518</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19328,7 +19328,7 @@
         <v>45246.57709490741</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19385,7 +19385,7 @@
         <v>45946.65030092592</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19442,7 +19442,7 @@
         <v>45946.65563657408</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19499,7 +19499,7 @@
         <v>44631.49099537037</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19556,7 +19556,7 @@
         <v>45947.33006944445</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19613,7 +19613,7 @@
         <v>45561.4961574074</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19670,7 +19670,7 @@
         <v>45848.90775462963</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19727,7 +19727,7 @@
         <v>45946.63799768518</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19784,7 +19784,7 @@
         <v>44584.75622685185</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19841,7 +19841,7 @@
         <v>45946.84219907408</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19898,7 +19898,7 @@
         <v>45848.92115740741</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19955,7 +19955,7 @@
         <v>45163.56980324074</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20012,7 +20012,7 @@
         <v>45350.34221064814</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20069,7 +20069,7 @@
         <v>45951.49594907407</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20126,7 +20126,7 @@
         <v>45951.58283564815</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20183,7 +20183,7 @@
         <v>45195</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20240,7 +20240,7 @@
         <v>45856.3171875</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20297,7 +20297,7 @@
         <v>45856.32516203704</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20354,7 +20354,7 @@
         <v>45856.32144675926</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20411,7 +20411,7 @@
         <v>45856.31383101852</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20468,7 +20468,7 @@
         <v>45950.69099537037</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20530,7 +20530,7 @@
         <v>45750.59855324074</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20587,7 +20587,7 @@
         <v>45861.49398148148</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20644,7 +20644,7 @@
         <v>45952.61923611111</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20701,7 +20701,7 @@
         <v>45952.62607638889</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20758,7 +20758,7 @@
         <v>45635.58111111111</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20815,7 +20815,7 @@
         <v>45953.36152777778</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20872,7 +20872,7 @@
         <v>45777.40299768518</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20929,7 +20929,7 @@
         <v>44946.59435185185</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20986,7 +20986,7 @@
         <v>45700.36592592593</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21043,7 +21043,7 @@
         <v>45800.37979166667</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21100,7 +21100,7 @@
         <v>45546</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21162,7 +21162,7 @@
         <v>45953.37833333333</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21219,7 +21219,7 @@
         <v>45952.57880787037</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21276,7 +21276,7 @@
         <v>45952.6142824074</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21333,7 +21333,7 @@
         <v>45952.30056712963</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21390,7 +21390,7 @@
         <v>45954.38357638889</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21447,7 +21447,7 @@
         <v>45184</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21504,7 +21504,7 @@
         <v>45184</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21561,7 +21561,7 @@
         <v>45337</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21618,7 +21618,7 @@
         <v>45249</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21675,7 +21675,7 @@
         <v>44846.67546296296</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21732,7 +21732,7 @@
         <v>44846.67788194444</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21789,7 +21789,7 @@
         <v>45954.70240740741</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21846,7 +21846,7 @@
         <v>45840.45260416667</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21908,7 +21908,7 @@
         <v>45826.34858796297</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21965,7 +21965,7 @@
         <v>45422.52491898148</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22027,7 +22027,7 @@
         <v>45184</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22084,7 +22084,7 @@
         <v>45013</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22141,7 +22141,7 @@
         <v>45273.68048611111</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22198,7 +22198,7 @@
         <v>45280</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22255,7 +22255,7 @@
         <v>45845</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22312,7 +22312,7 @@
         <v>44767.63206018518</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22369,7 +22369,7 @@
         <v>45079</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22426,7 +22426,7 @@
         <v>45817</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22483,7 +22483,7 @@
         <v>44693.61975694444</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22540,7 +22540,7 @@
         <v>45434.88734953704</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22597,7 +22597,7 @@
         <v>45013.60265046296</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22654,7 +22654,7 @@
         <v>44333.86267361111</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22711,7 +22711,7 @@
         <v>45691.47612268518</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22768,7 +22768,7 @@
         <v>45068</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22825,7 +22825,7 @@
         <v>45074</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22882,7 +22882,7 @@
         <v>44943.71445601852</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22944,7 +22944,7 @@
         <v>44943.7202662037</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23006,7 +23006,7 @@
         <v>44818</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23068,7 +23068,7 @@
         <v>45751.58140046296</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23125,7 +23125,7 @@
         <v>45751.58332175926</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23182,7 +23182,7 @@
         <v>44502.38731481481</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23239,7 +23239,7 @@
         <v>45215.65815972222</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23296,7 +23296,7 @@
         <v>44515.38197916667</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23353,7 +23353,7 @@
         <v>45337.4746875</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23410,7 +23410,7 @@
         <v>45735.5587037037</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23467,7 +23467,7 @@
         <v>45273</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23524,7 +23524,7 @@
         <v>45387.71712962963</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23581,7 +23581,7 @@
         <v>45761.50165509259</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23638,7 +23638,7 @@
         <v>44287</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23695,7 +23695,7 @@
         <v>45754.44550925926</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23752,7 +23752,7 @@
         <v>45068</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23809,7 +23809,7 @@
         <v>45681</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23866,7 +23866,7 @@
         <v>45713.42707175926</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23923,7 +23923,7 @@
         <v>44866.37664351852</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -23980,7 +23980,7 @@
         <v>45959.33420138889</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24037,7 +24037,7 @@
         <v>45959.33655092592</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24094,7 +24094,7 @@
         <v>45260.32136574074</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24151,7 +24151,7 @@
         <v>45422.56108796296</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24213,7 +24213,7 @@
         <v>45271</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24270,7 +24270,7 @@
         <v>44521</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24327,7 +24327,7 @@
         <v>45959.56813657407</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24384,7 +24384,7 @@
         <v>45249</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24441,7 +24441,7 @@
         <v>45243</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24498,7 +24498,7 @@
         <v>45250</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24555,7 +24555,7 @@
         <v>45248.66658564815</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24617,7 +24617,7 @@
         <v>45249</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24674,7 +24674,7 @@
         <v>45270</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24731,7 +24731,7 @@
         <v>44952.65891203703</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24788,7 +24788,7 @@
         <v>45422.54487268518</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24850,7 +24850,7 @@
         <v>45959.56633101852</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -24907,7 +24907,7 @@
         <v>45959.33313657407</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -24964,7 +24964,7 @@
         <v>45831.45151620371</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25021,7 +25021,7 @@
         <v>45229.90646990741</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25078,7 +25078,7 @@
         <v>45384</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25135,7 +25135,7 @@
         <v>45249</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25192,7 +25192,7 @@
         <v>44952.65233796297</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25249,7 +25249,7 @@
         <v>44952.65681712963</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25306,7 +25306,7 @@
         <v>45434.89296296296</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25363,7 +25363,7 @@
         <v>45146</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25420,7 +25420,7 @@
         <v>45068.31527777778</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25477,7 +25477,7 @@
         <v>45305.57886574074</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25534,7 +25534,7 @@
         <v>44952.65443287037</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25591,7 +25591,7 @@
         <v>45091</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25648,7 +25648,7 @@
         <v>44977.32987268519</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25710,7 +25710,7 @@
         <v>45667.43560185185</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25767,7 +25767,7 @@
         <v>44926</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25829,7 +25829,7 @@
         <v>45401.51612268519</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -25891,7 +25891,7 @@
         <v>45876.49126157408</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -25948,7 +25948,7 @@
         <v>45959.33488425926</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26005,7 +26005,7 @@
         <v>45959.57741898148</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26062,7 +26062,7 @@
         <v>45950.69850694444</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26124,7 +26124,7 @@
         <v>45709.38615740741</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26181,7 +26181,7 @@
         <v>45876</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26238,7 +26238,7 @@
         <v>45877</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26295,7 +26295,7 @@
         <v>45960</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26357,7 +26357,7 @@
         <v>45960</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26419,7 +26419,7 @@
         <v>45959.57440972222</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26476,7 +26476,7 @@
         <v>45960.42212962963</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26533,7 +26533,7 @@
         <v>45960.42365740741</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26590,7 +26590,7 @@
         <v>45960.66224537037</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26647,7 +26647,7 @@
         <v>45961.40752314815</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26704,7 +26704,7 @@
         <v>45959.76681712963</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26761,7 +26761,7 @@
         <v>45961.37354166667</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26818,7 +26818,7 @@
         <v>45153</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -26875,7 +26875,7 @@
         <v>45959.7678125</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -26932,7 +26932,7 @@
         <v>45961.37416666667</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -26989,7 +26989,7 @@
         <v>45960</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27046,7 +27046,7 @@
         <v>45965.40067129629</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27103,7 +27103,7 @@
         <v>45964.69548611111</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27165,7 +27165,7 @@
         <v>45965.49766203704</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27222,7 +27222,7 @@
         <v>45965.50377314815</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27279,7 +27279,7 @@
         <v>45202</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27336,7 +27336,7 @@
         <v>45964.46145833333</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27393,7 +27393,7 @@
         <v>45379.57900462963</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27450,7 +27450,7 @@
         <v>45965.50879629629</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27507,7 +27507,7 @@
         <v>45965.56266203704</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27564,7 +27564,7 @@
         <v>45965.70961805555</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27621,7 +27621,7 @@
         <v>45751.44987268518</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27678,7 +27678,7 @@
         <v>45965.71777777778</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27735,7 +27735,7 @@
         <v>44970.7156712963</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27792,7 +27792,7 @@
         <v>45965</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -27854,7 +27854,7 @@
         <v>44963.45574074074</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -27911,7 +27911,7 @@
         <v>44963.45646990741</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -27968,7 +27968,7 @@
         <v>45968.36759259259</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28025,7 +28025,7 @@
         <v>45971.63334490741</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28082,7 +28082,7 @@
         <v>45971.634375</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28139,7 +28139,7 @@
         <v>45971.63211805555</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28196,7 +28196,7 @@
         <v>45328</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28258,7 +28258,7 @@
         <v>45968</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28315,7 +28315,7 @@
         <v>45971.80481481482</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28372,7 +28372,7 @@
         <v>45973.46903935185</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28429,7 +28429,7 @@
         <v>45973.42508101852</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28491,7 +28491,7 @@
         <v>45975.50200231482</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28553,7 +28553,7 @@
         <v>45624</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28615,7 +28615,7 @@
         <v>45618.31188657408</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28672,7 +28672,7 @@
         <v>45975.48550925926</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28734,7 +28734,7 @@
         <v>45691</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -28791,7 +28791,7 @@
         <v>44908</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -28848,7 +28848,7 @@
         <v>45667.41243055555</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -28905,7 +28905,7 @@
         <v>44986.68592592593</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -28962,7 +28962,7 @@
         <v>45377.53855324074</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29019,7 +29019,7 @@
         <v>45580.22925925926</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29076,7 +29076,7 @@
         <v>45335</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29138,7 +29138,7 @@
         <v>45539.37892361111</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29195,7 +29195,7 @@
         <v>44957.50162037037</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29252,7 +29252,7 @@
         <v>45770.87644675926</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29309,7 +29309,7 @@
         <v>45706.46810185185</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29366,7 +29366,7 @@
         <v>44543.63011574074</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29423,7 +29423,7 @@
         <v>45084.5340625</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29480,7 +29480,7 @@
         <v>45547</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29537,7 +29537,7 @@
         <v>45978</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29594,7 +29594,7 @@
         <v>45744.66233796296</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29651,7 +29651,7 @@
         <v>45414.63642361111</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -29713,7 +29713,7 @@
         <v>45037.46315972223</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -29770,7 +29770,7 @@
         <v>45988</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -29832,7 +29832,7 @@
         <v>45988</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -29894,7 +29894,7 @@
         <v>46029</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -29951,7 +29951,7 @@
         <v>45989.64594907407</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30008,7 +30008,7 @@
         <v>44622.65902777778</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30065,7 +30065,7 @@
         <v>44622.6600925926</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30122,7 +30122,7 @@
         <v>45747.61678240741</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30179,7 +30179,7 @@
         <v>45747.61954861111</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30236,7 +30236,7 @@
         <v>45350.34746527778</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30293,7 +30293,7 @@
         <v>45635.42052083334</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30350,7 +30350,7 @@
         <v>45764</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30407,7 +30407,7 @@
         <v>44294.47487268518</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30464,7 +30464,7 @@
         <v>45566.33871527778</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -30521,7 +30521,7 @@
         <v>44554</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -30578,7 +30578,7 @@
         <v>45616.57489583334</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -30635,7 +30635,7 @@
         <v>45435.44834490741</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -30692,7 +30692,7 @@
         <v>46031</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -30749,7 +30749,7 @@
         <v>45644</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -30806,7 +30806,7 @@
         <v>44379.33965277778</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -30863,7 +30863,7 @@
         <v>45580.59590277778</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -30920,7 +30920,7 @@
         <v>45618.40414351852</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -30977,7 +30977,7 @@
         <v>45300.45178240741</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31034,7 +31034,7 @@
         <v>45456.62121527778</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31091,7 +31091,7 @@
         <v>45691</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31148,7 +31148,7 @@
         <v>45188</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31205,7 +31205,7 @@
         <v>46037.419375</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31262,7 +31262,7 @@
         <v>45667</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31319,7 +31319,7 @@
         <v>45705.5196875</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -31376,7 +31376,7 @@
         <v>44897.43934027778</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -31433,7 +31433,7 @@
         <v>45266.44556712963</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -31490,7 +31490,7 @@
         <v>45561.79056712963</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -31547,7 +31547,7 @@
         <v>45999.44724537037</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -31604,7 +31604,7 @@
         <v>45999.45033564815</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -31661,7 +31661,7 @@
         <v>45323.55540509259</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -31718,7 +31718,7 @@
         <v>44610</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -31775,7 +31775,7 @@
         <v>46041.47722222222</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -31832,7 +31832,7 @@
         <v>45757.40206018519</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -31889,7 +31889,7 @@
         <v>44740.56039351852</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -31946,7 +31946,7 @@
         <v>46037.61799768519</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -32008,7 +32008,7 @@
         <v>46035</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32065,7 +32065,7 @@
         <v>45628.60248842592</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32127,7 +32127,7 @@
         <v>46042.61578703704</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32184,7 +32184,7 @@
         <v>45048.47604166667</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32241,7 +32241,7 @@
         <v>45566.33701388889</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32298,7 +32298,7 @@
         <v>45566.55650462963</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -32355,7 +32355,7 @@
         <v>45566.55728009259</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -32412,7 +32412,7 @@
         <v>45036</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -32469,7 +32469,7 @@
         <v>44827</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -32526,7 +32526,7 @@
         <v>46003.68008101852</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -32583,7 +32583,7 @@
         <v>46045.5425</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -32640,7 +32640,7 @@
         <v>45561.36538194444</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -32697,7 +32697,7 @@
         <v>45770.63724537037</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -32759,7 +32759,7 @@
         <v>44831.32513888889</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -32816,7 +32816,7 @@
         <v>45138</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -32873,7 +32873,7 @@
         <v>45326.72686342592</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -32930,7 +32930,7 @@
         <v>46007.63671296297</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -32987,7 +32987,7 @@
         <v>45681</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -33044,7 +33044,7 @@
         <v>45751.44934027778</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -33101,7 +33101,7 @@
         <v>44538</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -33158,7 +33158,7 @@
         <v>44740.55403935185</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -33215,7 +33215,7 @@
         <v>45667.48493055555</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -33277,7 +33277,7 @@
         <v>45189.49376157407</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -33334,7 +33334,7 @@
         <v>44652</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -33391,7 +33391,7 @@
         <v>45686</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -33448,7 +33448,7 @@
         <v>46001.74296296296</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -33505,7 +33505,7 @@
         <v>46004.54127314815</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -33562,7 +33562,7 @@
         <v>46006.45133101852</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -33619,7 +33619,7 @@
         <v>46006.4656712963</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -33676,7 +33676,7 @@
         <v>46006.47361111111</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -33733,7 +33733,7 @@
         <v>46040.53792824074</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -33790,7 +33790,7 @@
         <v>45741.61895833333</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -33847,7 +33847,7 @@
         <v>44524</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -33904,7 +33904,7 @@
         <v>45678.66383101852</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -33961,7 +33961,7 @@
         <v>46007.76087962963</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -34018,7 +34018,7 @@
         <v>44900.61018518519</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -34075,7 +34075,7 @@
         <v>46042.61434027777</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -34132,7 +34132,7 @@
         <v>45601.67407407407</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -34189,7 +34189,7 @@
         <v>46049.46909722222</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -34246,7 +34246,7 @@
         <v>44986</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -34303,7 +34303,7 @@
         <v>45714.61877314815</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -34360,7 +34360,7 @@
         <v>45391.45446759259</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -34417,7 +34417,7 @@
         <v>45300.51297453704</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -34474,7 +34474,7 @@
         <v>45637</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -34531,7 +34531,7 @@
         <v>46055.45041666667</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -34588,7 +34588,7 @@
         <v>46052.56081018518</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -34645,7 +34645,7 @@
         <v>45841.6303125</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -34702,7 +34702,7 @@
         <v>45723</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -34759,7 +34759,7 @@
         <v>45953.54796296296</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -34816,7 +34816,7 @@
         <v>45068</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -34873,7 +34873,7 @@
         <v>45188</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -34930,7 +34930,7 @@
         <v>46057.4146875</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -34987,7 +34987,7 @@
         <v>46008</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -35044,7 +35044,7 @@
         <v>45349.30850694444</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -35101,7 +35101,7 @@
         <v>45174.48452546296</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -35158,7 +35158,7 @@
         <v>45624.64799768518</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -35215,7 +35215,7 @@
         <v>45401</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -35277,7 +35277,7 @@
         <v>45055</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -35334,7 +35334,7 @@
         <v>45055</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -35391,7 +35391,7 @@
         <v>46008</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -35448,7 +35448,7 @@
         <v>44656</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -35505,7 +35505,7 @@
         <v>44664</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -35562,7 +35562,7 @@
         <v>45729.4733449074</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -35619,7 +35619,7 @@
         <v>45274</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -35676,7 +35676,7 @@
         <v>44846</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -35733,7 +35733,7 @@
         <v>44539</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -35790,7 +35790,7 @@
         <v>44902</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -35847,7 +35847,7 @@
         <v>45643.62706018519</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -35909,7 +35909,7 @@
         <v>45345</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -35966,7 +35966,7 @@
         <v>45635.4615162037</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -36023,7 +36023,7 @@
         <v>45119</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -36080,7 +36080,7 @@
         <v>45266</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -36137,7 +36137,7 @@
         <v>45565.61508101852</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -36194,7 +36194,7 @@
         <v>44916</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -36251,7 +36251,7 @@
         <v>44326.40432870371</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -36308,7 +36308,7 @@
         <v>45474</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -36365,7 +36365,7 @@
         <v>45482.42009259259</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -36422,7 +36422,7 @@
         <v>44946</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -36479,7 +36479,7 @@
         <v>45058</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -36536,7 +36536,7 @@
         <v>44545.80523148148</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -36593,7 +36593,7 @@
         <v>45679.60821759259</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -36655,7 +36655,7 @@
         <v>45625.69050925926</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -36712,7 +36712,7 @@
         <v>45384.40712962963</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -36769,7 +36769,7 @@
         <v>44938</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -36826,7 +36826,7 @@
         <v>45187</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -36883,7 +36883,7 @@
         <v>45131</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -36940,7 +36940,7 @@
         <v>45105.56123842593</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -36997,7 +36997,7 @@
         <v>44806.35574074074</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -37054,7 +37054,7 @@
         <v>45211.74263888889</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -37111,7 +37111,7 @@
         <v>45554.53219907408</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -37168,7 +37168,7 @@
         <v>45377.53998842592</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -37225,7 +37225,7 @@
         <v>45400.73915509259</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -37282,7 +37282,7 @@
         <v>45342.38273148148</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -37339,7 +37339,7 @@
         <v>45239</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -37396,7 +37396,7 @@
         <v>45219.67774305555</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -37453,7 +37453,7 @@
         <v>45762</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -37510,7 +37510,7 @@
         <v>45244.78449074074</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -37567,7 +37567,7 @@
         <v>44692</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -37624,7 +37624,7 @@
         <v>44806.58133101852</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -37681,7 +37681,7 @@
         <v>45212</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -37738,7 +37738,7 @@
         <v>45212.55864583333</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -37795,7 +37795,7 @@
         <v>45426.48527777778</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -37852,7 +37852,7 @@
         <v>45569.38420138889</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -37909,7 +37909,7 @@
         <v>45174.48878472222</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -37966,7 +37966,7 @@
         <v>45351.38615740741</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -38023,7 +38023,7 @@
         <v>44467</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -38080,7 +38080,7 @@
         <v>45273</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -38137,7 +38137,7 @@
         <v>45580.23842592593</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -38194,7 +38194,7 @@
         <v>44972</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -38251,7 +38251,7 @@
         <v>44602</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -38308,7 +38308,7 @@
         <v>45756.74784722222</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -38365,7 +38365,7 @@
         <v>45575.45504629629</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -38422,7 +38422,7 @@
         <v>45627.81162037037</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -38479,7 +38479,7 @@
         <v>45474</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -38536,7 +38536,7 @@
         <v>45181.45777777778</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -38593,7 +38593,7 @@
         <v>45079.46327546296</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -38650,7 +38650,7 @@
         <v>45118</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -38707,7 +38707,7 @@
         <v>45247.65420138889</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -38764,7 +38764,7 @@
         <v>45769</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -38821,7 +38821,7 @@
         <v>45601.69266203704</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -38878,7 +38878,7 @@
         <v>45300.44137731481</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -38935,7 +38935,7 @@
         <v>45300</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -38992,7 +38992,7 @@
         <v>45245.59447916667</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -39049,7 +39049,7 @@
         <v>44785.3725</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -39106,7 +39106,7 @@
         <v>45729.46829861111</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -39163,7 +39163,7 @@
         <v>45182.51840277778</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -39220,7 +39220,7 @@
         <v>45702.46620370371</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -39277,7 +39277,7 @@
         <v>45252</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -39334,7 +39334,7 @@
         <v>45629.85086805555</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -39391,7 +39391,7 @@
         <v>45239</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -39448,7 +39448,7 @@
         <v>45272.74862268518</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -39505,7 +39505,7 @@
         <v>44469</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -39562,7 +39562,7 @@
         <v>45029.44950231481</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -39619,7 +39619,7 @@
         <v>45680.67472222223</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -39676,7 +39676,7 @@
         <v>45190</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -39733,7 +39733,7 @@
         <v>45369.67252314815</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -39790,7 +39790,7 @@
         <v>44966.37291666667</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -39847,7 +39847,7 @@
         <v>45238</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -39904,7 +39904,7 @@
         <v>45597.51122685185</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -39966,7 +39966,7 @@
         <v>45560.69458333333</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -40023,7 +40023,7 @@
         <v>45357.31717592593</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -40080,7 +40080,7 @@
         <v>45323.538125</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -40137,7 +40137,7 @@
         <v>45706.57119212963</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -40194,7 +40194,7 @@
         <v>44327</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -40251,7 +40251,7 @@
         <v>45381.65381944444</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -40308,7 +40308,7 @@
         <v>45127.545</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -40370,7 +40370,7 @@
         <v>45229</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -40427,7 +40427,7 @@
         <v>45282.45675925926</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -40484,7 +40484,7 @@
         <v>45142</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -40541,7 +40541,7 @@
         <v>45035</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -40598,7 +40598,7 @@
         <v>44938</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -40655,7 +40655,7 @@
         <v>45120.64333333333</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -40712,7 +40712,7 @@
         <v>45664</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -40769,7 +40769,7 @@
         <v>44627.37189814815</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -40826,7 +40826,7 @@
         <v>45001</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -40883,7 +40883,7 @@
         <v>44910.46140046296</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -40940,7 +40940,7 @@
         <v>44957</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -40997,7 +40997,7 @@
         <v>45246</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -41054,7 +41054,7 @@
         <v>44616.55402777778</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -41116,7 +41116,7 @@
         <v>44827</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -41173,7 +41173,7 @@
         <v>45435.45399305555</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -41230,7 +41230,7 @@
         <v>45342.53665509259</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -41292,7 +41292,7 @@
         <v>45714.89290509259</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -41349,7 +41349,7 @@
         <v>45719</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -41406,7 +41406,7 @@
         <v>44453.87826388889</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -41463,7 +41463,7 @@
         <v>45618.40553240741</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -41520,7 +41520,7 @@
         <v>44694</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -41577,7 +41577,7 @@
         <v>45588.46105324074</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -41634,7 +41634,7 @@
         <v>45076</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -41691,7 +41691,7 @@
         <v>45681</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -41748,7 +41748,7 @@
         <v>44517.79155092593</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -41805,7 +41805,7 @@
         <v>44852.35644675926</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -41862,7 +41862,7 @@
         <v>45131</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -41919,7 +41919,7 @@
         <v>45357.35319444445</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -41976,7 +41976,7 @@
         <v>44627.37414351852</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -42033,7 +42033,7 @@
         <v>45357.34284722222</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -42090,7 +42090,7 @@
         <v>45226.34151620371</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -42147,7 +42147,7 @@
         <v>44974</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -42204,7 +42204,7 @@
         <v>44964.45504629629</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -42261,7 +42261,7 @@
         <v>45569.38923611111</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -42318,7 +42318,7 @@
         <v>45355</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -42375,7 +42375,7 @@
         <v>45609.72777777778</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -42432,7 +42432,7 @@
         <v>45117</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -42489,7 +42489,7 @@
         <v>44946</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -42546,7 +42546,7 @@
         <v>45439.66193287037</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -42603,7 +42603,7 @@
         <v>45677.30263888889</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -42660,7 +42660,7 @@
         <v>45175</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -42717,7 +42717,7 @@
         <v>45174</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -42774,7 +42774,7 @@
         <v>45174.49258101852</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -42831,7 +42831,7 @@
         <v>45328</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -42893,7 +42893,7 @@
         <v>45600.37516203704</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -42950,7 +42950,7 @@
         <v>45735.44180555556</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -43007,7 +43007,7 @@
         <v>45735.44604166667</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -43064,7 +43064,7 @@
         <v>45035</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -43121,7 +43121,7 @@
         <v>45582.48378472222</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -43178,7 +43178,7 @@
         <v>45071</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -43235,7 +43235,7 @@
         <v>45777.40581018518</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -43292,7 +43292,7 @@
         <v>45782.62927083333</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -43349,7 +43349,7 @@
         <v>45278.48586805556</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -43406,7 +43406,7 @@
         <v>45785</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -43463,7 +43463,7 @@
         <v>45785</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -43520,7 +43520,7 @@
         <v>45785</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -43577,7 +43577,7 @@
         <v>45789.60424768519</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -43634,7 +43634,7 @@
         <v>45741.62740740741</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -43691,7 +43691,7 @@
         <v>45562.28989583333</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -43748,7 +43748,7 @@
         <v>45443</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -43805,7 +43805,7 @@
         <v>45582.63019675926</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -43862,7 +43862,7 @@
         <v>45616.58701388889</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -43919,7 +43919,7 @@
         <v>45790</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -43976,7 +43976,7 @@
         <v>45792.36009259259</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -44033,7 +44033,7 @@
         <v>45748</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -44090,7 +44090,7 @@
         <v>45686</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -44147,7 +44147,7 @@
         <v>45666.3237962963</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>

--- a/Översikt FALKENBERG.xlsx
+++ b/Översikt FALKENBERG.xlsx
@@ -575,7 +575,7 @@
         <v>44593</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -676,7 +676,7 @@
         <v>45723.3484375</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -763,7 +763,7 @@
         <v>44365</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -849,7 +849,7 @@
         <v>44592</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -940,7 +940,7 @@
         <v>44593</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1031,7 +1031,7 @@
         <v>45456.51078703703</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1121,7 +1121,7 @@
         <v>44460</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1206,7 +1206,7 @@
         <v>44435</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1291,7 +1291,7 @@
         <v>44517</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1376,7 +1376,7 @@
         <v>44946</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1461,7 +1461,7 @@
         <v>45600</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1546,7 +1546,7 @@
         <v>45914.41195601852</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1631,7 +1631,7 @@
         <v>45667</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1716,7 +1716,7 @@
         <v>45273</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1801,7 +1801,7 @@
         <v>45239</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1886,7 +1886,7 @@
         <v>45363</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1971,7 +1971,7 @@
         <v>45789.60172453704</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2056,7 +2056,7 @@
         <v>44806</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2113,7 +2113,7 @@
         <v>44250</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2175,7 +2175,7 @@
         <v>44278</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2232,7 +2232,7 @@
         <v>44574</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2289,7 +2289,7 @@
         <v>44476.37228009259</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2346,7 +2346,7 @@
         <v>44432.4594212963</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2403,7 +2403,7 @@
         <v>44607.63460648148</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2460,7 +2460,7 @@
         <v>44553</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2517,7 +2517,7 @@
         <v>44454</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2579,7 +2579,7 @@
         <v>44454</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2641,7 +2641,7 @@
         <v>44271.8378125</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2698,7 +2698,7 @@
         <v>44379</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2755,7 +2755,7 @@
         <v>44287.58824074074</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2812,7 +2812,7 @@
         <v>44539</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2869,7 +2869,7 @@
         <v>44314</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2926,7 +2926,7 @@
         <v>44381</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2983,7 +2983,7 @@
         <v>44381</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3040,7 +3040,7 @@
         <v>44868</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3097,7 +3097,7 @@
         <v>44467</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3154,7 +3154,7 @@
         <v>44461</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3211,7 +3211,7 @@
         <v>44335.28211805555</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3268,7 +3268,7 @@
         <v>44335.27913194444</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3325,7 +3325,7 @@
         <v>44335.28144675926</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3382,7 +3382,7 @@
         <v>44351.60125</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3439,7 +3439,7 @@
         <v>44343</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3496,7 +3496,7 @@
         <v>44867.36803240741</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3553,7 +3553,7 @@
         <v>44266</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3610,7 +3610,7 @@
         <v>44467.34239583334</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3667,7 +3667,7 @@
         <v>44466</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3724,7 +3724,7 @@
         <v>44448</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3781,7 +3781,7 @@
         <v>44680</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3838,7 +3838,7 @@
         <v>44600.5474537037</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3895,7 +3895,7 @@
         <v>44868.31677083333</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3952,7 +3952,7 @@
         <v>44432.46753472222</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4009,7 +4009,7 @@
         <v>44816.45646990741</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4066,7 +4066,7 @@
         <v>44613.58173611111</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4123,7 +4123,7 @@
         <v>44430</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4180,7 +4180,7 @@
         <v>44424.72109953704</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4237,7 +4237,7 @@
         <v>44689</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4294,7 +4294,7 @@
         <v>44616.59969907408</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4356,7 +4356,7 @@
         <v>44866</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4413,7 +4413,7 @@
         <v>44836</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4470,7 +4470,7 @@
         <v>44616.54832175926</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4532,7 +4532,7 @@
         <v>44357</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4594,7 +4594,7 @@
         <v>44617.43591435185</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4651,7 +4651,7 @@
         <v>44257</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4708,7 +4708,7 @@
         <v>44237</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4770,7 +4770,7 @@
         <v>44432.45711805556</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4827,7 +4827,7 @@
         <v>44377</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4884,7 +4884,7 @@
         <v>44400</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4941,7 +4941,7 @@
         <v>44379.33618055555</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4998,7 +4998,7 @@
         <v>44547</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5055,7 +5055,7 @@
         <v>44599.64387731482</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5112,7 +5112,7 @@
         <v>44287</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5174,7 +5174,7 @@
         <v>44267</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5231,7 +5231,7 @@
         <v>44711.5750462963</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5288,7 +5288,7 @@
         <v>44879.4912962963</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5345,7 +5345,7 @@
         <v>44320</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5402,7 +5402,7 @@
         <v>44544</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5459,7 +5459,7 @@
         <v>44600.5519212963</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5516,7 +5516,7 @@
         <v>44424</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5573,7 +5573,7 @@
         <v>44295.61899305556</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5630,7 +5630,7 @@
         <v>44692</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5687,7 +5687,7 @@
         <v>44692</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5744,7 +5744,7 @@
         <v>44600.38675925926</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5801,7 +5801,7 @@
         <v>44539</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5858,7 +5858,7 @@
         <v>44539</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5915,7 +5915,7 @@
         <v>44424</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5972,7 +5972,7 @@
         <v>44747</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6029,7 +6029,7 @@
         <v>44813.48675925926</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6086,7 +6086,7 @@
         <v>44841.57885416667</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6143,7 +6143,7 @@
         <v>44545.7980787037</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6200,7 +6200,7 @@
         <v>44446.46020833333</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6257,7 +6257,7 @@
         <v>44574.57268518519</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6314,7 +6314,7 @@
         <v>44407</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6371,7 +6371,7 @@
         <v>44747.85928240741</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6428,7 +6428,7 @@
         <v>44719.59836805556</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6485,7 +6485,7 @@
         <v>44866</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6542,7 +6542,7 @@
         <v>44881</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6599,7 +6599,7 @@
         <v>44425</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6656,7 +6656,7 @@
         <v>44593</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6718,7 +6718,7 @@
         <v>44467.3453125</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6775,7 +6775,7 @@
         <v>44467.34431712963</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6832,7 +6832,7 @@
         <v>44467.82064814815</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6889,7 +6889,7 @@
         <v>44803.57302083333</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6946,7 +6946,7 @@
         <v>44614</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7003,7 +7003,7 @@
         <v>44596.65662037037</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7060,7 +7060,7 @@
         <v>44685.31212962963</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7117,7 +7117,7 @@
         <v>44638.63767361111</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7174,7 +7174,7 @@
         <v>44309.50061342592</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7231,7 +7231,7 @@
         <v>44354.45418981482</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7288,7 +7288,7 @@
         <v>44267</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7345,7 +7345,7 @@
         <v>44466</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7402,7 +7402,7 @@
         <v>44537</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7464,7 +7464,7 @@
         <v>44539</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7521,7 +7521,7 @@
         <v>44628</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7583,7 +7583,7 @@
         <v>44454</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7645,7 +7645,7 @@
         <v>44237</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7707,7 +7707,7 @@
         <v>44481</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7764,7 +7764,7 @@
         <v>44543</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7821,7 +7821,7 @@
         <v>44539</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7878,7 +7878,7 @@
         <v>44407</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7935,7 +7935,7 @@
         <v>44438.49201388889</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7992,7 +7992,7 @@
         <v>44237</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8054,7 +8054,7 @@
         <v>44539</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8111,7 +8111,7 @@
         <v>45321</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8168,7 +8168,7 @@
         <v>44958</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8230,7 +8230,7 @@
         <v>45425</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8287,7 +8287,7 @@
         <v>44576.3878125</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8344,7 +8344,7 @@
         <v>45363</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8401,7 +8401,7 @@
         <v>44985.40803240741</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8458,7 +8458,7 @@
         <v>45635.46984953704</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8515,7 +8515,7 @@
         <v>45552</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8572,7 +8572,7 @@
         <v>45148</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8629,7 +8629,7 @@
         <v>45390.38009259259</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8686,7 +8686,7 @@
         <v>45546</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8743,7 +8743,7 @@
         <v>45635.44935185185</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8800,7 +8800,7 @@
         <v>45735.36537037037</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8857,7 +8857,7 @@
         <v>45205.48982638889</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8914,7 +8914,7 @@
         <v>44946</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8971,7 +8971,7 @@
         <v>44848.34385416667</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9028,7 +9028,7 @@
         <v>45736.60388888889</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9090,7 +9090,7 @@
         <v>45196</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9147,7 +9147,7 @@
         <v>45419.38927083334</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9204,7 +9204,7 @@
         <v>45751.45901620371</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9261,7 +9261,7 @@
         <v>45044</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9318,7 +9318,7 @@
         <v>45147</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9375,7 +9375,7 @@
         <v>44893</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9432,7 +9432,7 @@
         <v>44600.38467592592</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9489,7 +9489,7 @@
         <v>45019</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9546,7 +9546,7 @@
         <v>45714.87357638889</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9603,7 +9603,7 @@
         <v>45691</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9660,7 +9660,7 @@
         <v>45736.5667824074</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9717,7 +9717,7 @@
         <v>45600.37215277777</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9774,7 +9774,7 @@
         <v>44525.35303240741</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9831,7 +9831,7 @@
         <v>44903.63020833334</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9888,7 +9888,7 @@
         <v>45714.88813657407</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9945,7 +9945,7 @@
         <v>44999</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10002,7 +10002,7 @@
         <v>44986</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10059,7 +10059,7 @@
         <v>45772.3849537037</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10116,7 +10116,7 @@
         <v>45300.33005787037</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10173,7 +10173,7 @@
         <v>45201</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10235,7 +10235,7 @@
         <v>45769.76717592592</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10292,7 +10292,7 @@
         <v>45001</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10349,7 +10349,7 @@
         <v>45799.5099537037</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10406,7 +10406,7 @@
         <v>44545.35561342593</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10463,7 +10463,7 @@
         <v>45355.42181712963</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10520,7 +10520,7 @@
         <v>45152.60824074074</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10577,7 +10577,7 @@
         <v>44946</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10634,7 +10634,7 @@
         <v>44946</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10691,7 +10691,7 @@
         <v>45887.67622685185</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10748,7 +10748,7 @@
         <v>45800</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10805,7 +10805,7 @@
         <v>45799.79076388889</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10862,7 +10862,7 @@
         <v>45799.79210648148</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10919,7 +10919,7 @@
         <v>45799.79471064815</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10976,7 +10976,7 @@
         <v>44340</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11033,7 +11033,7 @@
         <v>45343.54475694444</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11090,7 +11090,7 @@
         <v>45441.43253472223</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11152,7 +11152,7 @@
         <v>44882</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11209,7 +11209,7 @@
         <v>45435.46104166667</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11266,7 +11266,7 @@
         <v>45782.57447916667</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11323,7 +11323,7 @@
         <v>45127</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11385,7 +11385,7 @@
         <v>45127</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11447,7 +11447,7 @@
         <v>45435.44475694445</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11504,7 +11504,7 @@
         <v>45582.42644675926</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11561,7 +11561,7 @@
         <v>45627.80547453704</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11618,7 +11618,7 @@
         <v>44986</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11675,7 +11675,7 @@
         <v>45795.47841435186</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11732,7 +11732,7 @@
         <v>45189.50260416666</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11789,7 +11789,7 @@
         <v>45811.49912037037</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11846,7 +11846,7 @@
         <v>45811.59423611111</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11903,7 +11903,7 @@
         <v>45889.43125</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11960,7 +11960,7 @@
         <v>45810.65826388889</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12017,7 +12017,7 @@
         <v>45888.59473379629</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12074,7 +12074,7 @@
         <v>45743.39162037037</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12131,7 +12131,7 @@
         <v>45091.65994212963</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12188,7 +12188,7 @@
         <v>45595.51690972222</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12245,7 +12245,7 @@
         <v>45182.69210648148</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12302,7 +12302,7 @@
         <v>45044</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12359,7 +12359,7 @@
         <v>45575.45410879629</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12416,7 +12416,7 @@
         <v>45329</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12473,7 +12473,7 @@
         <v>45812.54030092592</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12530,7 +12530,7 @@
         <v>45324</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12587,7 +12587,7 @@
         <v>45770.53210648148</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12644,7 +12644,7 @@
         <v>45548</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12701,7 +12701,7 @@
         <v>44689.48841435185</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12758,7 +12758,7 @@
         <v>44974.60203703704</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12815,7 +12815,7 @@
         <v>45817.44741898148</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12872,7 +12872,7 @@
         <v>45895</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12929,7 +12929,7 @@
         <v>45895</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12986,7 +12986,7 @@
         <v>45467.44800925926</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13043,7 +13043,7 @@
         <v>45188</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13100,7 +13100,7 @@
         <v>45188</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13157,7 +13157,7 @@
         <v>44984</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13214,7 +13214,7 @@
         <v>45901.47424768518</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13271,7 +13271,7 @@
         <v>45462.58004629629</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13328,7 +13328,7 @@
         <v>45889.5352662037</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13385,7 +13385,7 @@
         <v>45712.86837962963</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13442,7 +13442,7 @@
         <v>45901.46990740741</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13499,7 +13499,7 @@
         <v>45901.61994212963</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13556,7 +13556,7 @@
         <v>45901.3091087963</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13613,7 +13613,7 @@
         <v>45630.41225694444</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13670,7 +13670,7 @@
         <v>45615.53175925926</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13727,7 +13727,7 @@
         <v>45901</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13784,7 +13784,7 @@
         <v>45682.80640046296</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13841,7 +13841,7 @@
         <v>45682.8075</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13898,7 +13898,7 @@
         <v>44974.62332175926</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13955,7 +13955,7 @@
         <v>45821.60167824074</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14012,7 +14012,7 @@
         <v>45226</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14069,7 +14069,7 @@
         <v>45905.5284375</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14126,7 +14126,7 @@
         <v>45552</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14183,7 +14183,7 @@
         <v>45688.6674537037</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14240,7 +14240,7 @@
         <v>44313</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14297,7 +14297,7 @@
         <v>45670</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14354,7 +14354,7 @@
         <v>45252</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14411,7 +14411,7 @@
         <v>45743</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14473,7 +14473,7 @@
         <v>45481</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14530,7 +14530,7 @@
         <v>45908.33061342593</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14587,7 +14587,7 @@
         <v>44431</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14649,7 +14649,7 @@
         <v>45723</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14706,7 +14706,7 @@
         <v>45642.3908912037</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14763,7 +14763,7 @@
         <v>45435.45245370371</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14820,7 +14820,7 @@
         <v>45911</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14877,7 +14877,7 @@
         <v>45910.66509259259</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14934,7 +14934,7 @@
         <v>45700.36393518518</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14991,7 +14991,7 @@
         <v>45232.48390046296</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15048,7 +15048,7 @@
         <v>44903.63605324074</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15105,7 +15105,7 @@
         <v>45914</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15162,7 +15162,7 @@
         <v>45914</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15219,7 +15219,7 @@
         <v>45015</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15276,7 +15276,7 @@
         <v>45758.22861111111</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15333,7 +15333,7 @@
         <v>45917.67875</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15390,7 +15390,7 @@
         <v>44887</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15447,7 +15447,7 @@
         <v>45561.49186342592</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15504,7 +15504,7 @@
         <v>45769</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15561,7 +15561,7 @@
         <v>45635.41049768519</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15618,7 +15618,7 @@
         <v>45923</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15675,7 +15675,7 @@
         <v>45923.40399305556</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15732,7 +15732,7 @@
         <v>45923.62894675926</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15789,7 +15789,7 @@
         <v>45219.66456018519</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15846,7 +15846,7 @@
         <v>45923</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15903,7 +15903,7 @@
         <v>45923.29974537037</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15960,7 +15960,7 @@
         <v>44811.59471064815</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16017,7 +16017,7 @@
         <v>45923.40621527778</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16074,7 +16074,7 @@
         <v>45923.40828703704</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16131,7 +16131,7 @@
         <v>45923.42020833334</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16188,7 +16188,7 @@
         <v>45350.56215277778</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16245,7 +16245,7 @@
         <v>45924.32386574074</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16302,7 +16302,7 @@
         <v>45182.69283564815</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16359,7 +16359,7 @@
         <v>45924.41028935185</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16416,7 +16416,7 @@
         <v>45924.39601851852</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16473,7 +16473,7 @@
         <v>45924.40828703704</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16530,7 +16530,7 @@
         <v>45272.75372685185</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16587,7 +16587,7 @@
         <v>45243</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16644,7 +16644,7 @@
         <v>45926.49829861111</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16701,7 +16701,7 @@
         <v>45926.56120370371</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16758,7 +16758,7 @@
         <v>45926.56398148148</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16815,7 +16815,7 @@
         <v>45533.34621527778</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16872,7 +16872,7 @@
         <v>45834.38549768519</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16929,7 +16929,7 @@
         <v>45926.49947916667</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16986,7 +16986,7 @@
         <v>44910</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17043,7 +17043,7 @@
         <v>45834.39193287037</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17100,7 +17100,7 @@
         <v>45555.70491898148</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17157,7 +17157,7 @@
         <v>45966.298125</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17214,7 +17214,7 @@
         <v>45581.2815625</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17271,7 +17271,7 @@
         <v>45930.77993055555</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17328,7 +17328,7 @@
         <v>45770.5756712963</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17385,7 +17385,7 @@
         <v>45834.40207175926</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17442,7 +17442,7 @@
         <v>45681</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17499,7 +17499,7 @@
         <v>45839</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17556,7 +17556,7 @@
         <v>45673.90905092593</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17613,7 +17613,7 @@
         <v>45931.87085648148</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17670,7 +17670,7 @@
         <v>45931</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17727,7 +17727,7 @@
         <v>45933.47980324074</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17784,7 +17784,7 @@
         <v>45836.60414351852</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17841,7 +17841,7 @@
         <v>45931</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17898,7 +17898,7 @@
         <v>45838.24482638889</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17955,7 +17955,7 @@
         <v>45838.48069444444</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18012,7 +18012,7 @@
         <v>45838.48546296296</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18069,7 +18069,7 @@
         <v>45838.64795138889</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18126,7 +18126,7 @@
         <v>45838.65300925926</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18183,7 +18183,7 @@
         <v>45700.35894675926</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18240,7 +18240,7 @@
         <v>45838.24680555556</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18297,7 +18297,7 @@
         <v>45762.32988425926</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18354,7 +18354,7 @@
         <v>45896</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18411,7 +18411,7 @@
         <v>45896</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18468,7 +18468,7 @@
         <v>44642</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18525,7 +18525,7 @@
         <v>44687</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18582,7 +18582,7 @@
         <v>45937.6268287037</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18644,7 +18644,7 @@
         <v>45845</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18701,7 +18701,7 @@
         <v>45831.66783564815</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18758,7 +18758,7 @@
         <v>45524</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18815,7 +18815,7 @@
         <v>45940.34849537037</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18872,7 +18872,7 @@
         <v>44644.32097222222</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18929,7 +18929,7 @@
         <v>45552.60383101852</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18986,7 +18986,7 @@
         <v>44984</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19043,7 +19043,7 @@
         <v>45708.31506944444</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19100,7 +19100,7 @@
         <v>45280.615</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19157,7 +19157,7 @@
         <v>45842.41069444444</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19214,7 +19214,7 @@
         <v>45187</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19271,7 +19271,7 @@
         <v>45566.33518518518</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19328,7 +19328,7 @@
         <v>45246.57709490741</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19385,7 +19385,7 @@
         <v>45946.65030092592</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19442,7 +19442,7 @@
         <v>45946.65563657408</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19499,7 +19499,7 @@
         <v>44631.49099537037</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19556,7 +19556,7 @@
         <v>45947.33006944445</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19613,7 +19613,7 @@
         <v>45561.4961574074</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19670,7 +19670,7 @@
         <v>45848.90775462963</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19727,7 +19727,7 @@
         <v>45946.63799768518</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19784,7 +19784,7 @@
         <v>44584.75622685185</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19841,7 +19841,7 @@
         <v>45946.84219907408</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19898,7 +19898,7 @@
         <v>45848.92115740741</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19955,7 +19955,7 @@
         <v>45163.56980324074</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20012,7 +20012,7 @@
         <v>45350.34221064814</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20069,7 +20069,7 @@
         <v>45951.49594907407</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20126,7 +20126,7 @@
         <v>45951.58283564815</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20183,7 +20183,7 @@
         <v>45195</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20240,7 +20240,7 @@
         <v>45856.3171875</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20297,7 +20297,7 @@
         <v>45856.32516203704</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20354,7 +20354,7 @@
         <v>45856.32144675926</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20411,7 +20411,7 @@
         <v>45856.31383101852</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20468,7 +20468,7 @@
         <v>45950.69099537037</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20530,7 +20530,7 @@
         <v>45750.59855324074</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20587,7 +20587,7 @@
         <v>45861.49398148148</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20644,7 +20644,7 @@
         <v>45952.61923611111</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20701,7 +20701,7 @@
         <v>45952.62607638889</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20758,7 +20758,7 @@
         <v>45635.58111111111</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20815,7 +20815,7 @@
         <v>45953.36152777778</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20872,7 +20872,7 @@
         <v>45777.40299768518</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20929,7 +20929,7 @@
         <v>44946.59435185185</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20986,7 +20986,7 @@
         <v>45700.36592592593</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21043,7 +21043,7 @@
         <v>45800.37979166667</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21100,7 +21100,7 @@
         <v>45546</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21162,7 +21162,7 @@
         <v>45953.37833333333</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21219,7 +21219,7 @@
         <v>45952.57880787037</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21276,7 +21276,7 @@
         <v>45952.6142824074</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21333,7 +21333,7 @@
         <v>45952.30056712963</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21390,7 +21390,7 @@
         <v>45954.38357638889</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21447,7 +21447,7 @@
         <v>45184</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21504,7 +21504,7 @@
         <v>45184</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21561,7 +21561,7 @@
         <v>45337</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21618,7 +21618,7 @@
         <v>45249</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21675,7 +21675,7 @@
         <v>44846.67546296296</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21732,7 +21732,7 @@
         <v>44846.67788194444</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21789,7 +21789,7 @@
         <v>45954.70240740741</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21846,7 +21846,7 @@
         <v>45840.45260416667</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21908,7 +21908,7 @@
         <v>45826.34858796297</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21965,7 +21965,7 @@
         <v>45422.52491898148</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22027,7 +22027,7 @@
         <v>45184</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22084,7 +22084,7 @@
         <v>45013</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22141,7 +22141,7 @@
         <v>45273.68048611111</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22198,7 +22198,7 @@
         <v>45280</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22255,7 +22255,7 @@
         <v>45845</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22312,7 +22312,7 @@
         <v>44767.63206018518</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22369,7 +22369,7 @@
         <v>45079</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22426,7 +22426,7 @@
         <v>45817</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22483,7 +22483,7 @@
         <v>44693.61975694444</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22540,7 +22540,7 @@
         <v>45434.88734953704</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22597,7 +22597,7 @@
         <v>45013.60265046296</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22654,7 +22654,7 @@
         <v>44333.86267361111</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22711,7 +22711,7 @@
         <v>45691.47612268518</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22768,7 +22768,7 @@
         <v>45068</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22825,7 +22825,7 @@
         <v>45074</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22882,7 +22882,7 @@
         <v>44943.71445601852</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22944,7 +22944,7 @@
         <v>44943.7202662037</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23006,7 +23006,7 @@
         <v>44818</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23068,7 +23068,7 @@
         <v>45751.58140046296</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23125,7 +23125,7 @@
         <v>45751.58332175926</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23182,7 +23182,7 @@
         <v>44502.38731481481</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23239,7 +23239,7 @@
         <v>45215.65815972222</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23296,7 +23296,7 @@
         <v>44515.38197916667</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23353,7 +23353,7 @@
         <v>45337.4746875</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23410,7 +23410,7 @@
         <v>45735.5587037037</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23467,7 +23467,7 @@
         <v>45273</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23524,7 +23524,7 @@
         <v>45387.71712962963</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23581,7 +23581,7 @@
         <v>45761.50165509259</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23638,7 +23638,7 @@
         <v>44287</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23695,7 +23695,7 @@
         <v>45754.44550925926</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23752,7 +23752,7 @@
         <v>45068</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23809,7 +23809,7 @@
         <v>45681</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23866,7 +23866,7 @@
         <v>45713.42707175926</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23923,7 +23923,7 @@
         <v>44866.37664351852</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -23980,7 +23980,7 @@
         <v>45959.33420138889</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24037,7 +24037,7 @@
         <v>45959.33655092592</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24094,7 +24094,7 @@
         <v>45260.32136574074</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24151,7 +24151,7 @@
         <v>45422.56108796296</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24213,7 +24213,7 @@
         <v>45271</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24270,7 +24270,7 @@
         <v>44521</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24327,7 +24327,7 @@
         <v>45959.56813657407</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24384,7 +24384,7 @@
         <v>45249</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24441,7 +24441,7 @@
         <v>45243</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24498,7 +24498,7 @@
         <v>45250</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24555,7 +24555,7 @@
         <v>45248.66658564815</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24617,7 +24617,7 @@
         <v>45249</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24674,7 +24674,7 @@
         <v>45270</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24731,7 +24731,7 @@
         <v>44952.65891203703</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24788,7 +24788,7 @@
         <v>45422.54487268518</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24850,7 +24850,7 @@
         <v>45959.56633101852</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -24907,7 +24907,7 @@
         <v>45959.33313657407</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -24964,7 +24964,7 @@
         <v>45831.45151620371</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25021,7 +25021,7 @@
         <v>45229.90646990741</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25078,7 +25078,7 @@
         <v>45384</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25135,7 +25135,7 @@
         <v>45249</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25192,7 +25192,7 @@
         <v>44952.65233796297</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25249,7 +25249,7 @@
         <v>44952.65681712963</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25306,7 +25306,7 @@
         <v>45434.89296296296</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25363,7 +25363,7 @@
         <v>45146</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25420,7 +25420,7 @@
         <v>45068.31527777778</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25477,7 +25477,7 @@
         <v>45305.57886574074</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25534,7 +25534,7 @@
         <v>44952.65443287037</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25591,7 +25591,7 @@
         <v>45091</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25648,7 +25648,7 @@
         <v>44977.32987268519</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25710,7 +25710,7 @@
         <v>45667.43560185185</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25767,7 +25767,7 @@
         <v>44926</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25829,7 +25829,7 @@
         <v>45401.51612268519</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -25891,7 +25891,7 @@
         <v>45876.49126157408</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -25948,7 +25948,7 @@
         <v>45959.33488425926</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26005,7 +26005,7 @@
         <v>45959.57741898148</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26062,7 +26062,7 @@
         <v>45950.69850694444</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26124,7 +26124,7 @@
         <v>45709.38615740741</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26181,7 +26181,7 @@
         <v>45876</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26238,7 +26238,7 @@
         <v>45877</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26295,7 +26295,7 @@
         <v>45960</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26357,7 +26357,7 @@
         <v>45960</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26419,7 +26419,7 @@
         <v>45959.57440972222</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26476,7 +26476,7 @@
         <v>45960.42212962963</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26533,7 +26533,7 @@
         <v>45960.42365740741</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26590,7 +26590,7 @@
         <v>45960.66224537037</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26647,7 +26647,7 @@
         <v>45961.40752314815</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26704,7 +26704,7 @@
         <v>45959.76681712963</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26761,7 +26761,7 @@
         <v>45961.37354166667</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26818,7 +26818,7 @@
         <v>45153</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -26875,7 +26875,7 @@
         <v>45959.7678125</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -26932,7 +26932,7 @@
         <v>45961.37416666667</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -26989,7 +26989,7 @@
         <v>45960</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27046,7 +27046,7 @@
         <v>45965.40067129629</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27103,7 +27103,7 @@
         <v>45964.69548611111</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27165,7 +27165,7 @@
         <v>45965.49766203704</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27222,7 +27222,7 @@
         <v>45965.50377314815</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27279,7 +27279,7 @@
         <v>45202</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27336,7 +27336,7 @@
         <v>45964.46145833333</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27393,7 +27393,7 @@
         <v>45379.57900462963</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27450,7 +27450,7 @@
         <v>45965.50879629629</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27507,7 +27507,7 @@
         <v>45965.56266203704</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27564,7 +27564,7 @@
         <v>45965.70961805555</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27621,7 +27621,7 @@
         <v>45751.44987268518</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27678,7 +27678,7 @@
         <v>45965.71777777778</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27735,7 +27735,7 @@
         <v>44970.7156712963</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27792,7 +27792,7 @@
         <v>45965</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -27854,7 +27854,7 @@
         <v>44963.45574074074</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -27911,7 +27911,7 @@
         <v>44963.45646990741</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -27968,7 +27968,7 @@
         <v>45968.36759259259</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28025,7 +28025,7 @@
         <v>45971.63334490741</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28082,7 +28082,7 @@
         <v>45971.634375</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28139,7 +28139,7 @@
         <v>45971.63211805555</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28196,7 +28196,7 @@
         <v>45328</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28258,7 +28258,7 @@
         <v>45968</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28315,7 +28315,7 @@
         <v>45971.80481481482</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28372,7 +28372,7 @@
         <v>45973.46903935185</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28429,7 +28429,7 @@
         <v>45973.42508101852</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28491,7 +28491,7 @@
         <v>45975.50200231482</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28553,7 +28553,7 @@
         <v>45624</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28615,7 +28615,7 @@
         <v>45618.31188657408</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28672,7 +28672,7 @@
         <v>45975.48550925926</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28734,7 +28734,7 @@
         <v>45691</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -28791,7 +28791,7 @@
         <v>44908</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -28848,7 +28848,7 @@
         <v>45667.41243055555</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -28905,7 +28905,7 @@
         <v>44986.68592592593</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -28962,7 +28962,7 @@
         <v>45377.53855324074</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29019,7 +29019,7 @@
         <v>45580.22925925926</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29076,7 +29076,7 @@
         <v>45335</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29138,7 +29138,7 @@
         <v>45539.37892361111</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29195,7 +29195,7 @@
         <v>44957.50162037037</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29252,7 +29252,7 @@
         <v>45770.87644675926</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29309,7 +29309,7 @@
         <v>45706.46810185185</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29366,7 +29366,7 @@
         <v>44543.63011574074</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29423,7 +29423,7 @@
         <v>45084.5340625</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29480,7 +29480,7 @@
         <v>45547</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29537,7 +29537,7 @@
         <v>45978</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29594,7 +29594,7 @@
         <v>45744.66233796296</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29651,7 +29651,7 @@
         <v>45414.63642361111</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -29713,7 +29713,7 @@
         <v>45037.46315972223</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -29770,7 +29770,7 @@
         <v>45988</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -29832,7 +29832,7 @@
         <v>45988</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -29894,7 +29894,7 @@
         <v>46029</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -29951,7 +29951,7 @@
         <v>45989.64594907407</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30008,7 +30008,7 @@
         <v>44622.65902777778</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30065,7 +30065,7 @@
         <v>44622.6600925926</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30122,7 +30122,7 @@
         <v>45747.61678240741</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30179,7 +30179,7 @@
         <v>45747.61954861111</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30236,7 +30236,7 @@
         <v>45350.34746527778</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30293,7 +30293,7 @@
         <v>45635.42052083334</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30350,7 +30350,7 @@
         <v>45764</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30407,7 +30407,7 @@
         <v>44294.47487268518</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30464,7 +30464,7 @@
         <v>45566.33871527778</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -30521,7 +30521,7 @@
         <v>44554</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -30578,7 +30578,7 @@
         <v>45616.57489583334</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -30635,7 +30635,7 @@
         <v>45435.44834490741</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -30692,7 +30692,7 @@
         <v>46031</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -30749,7 +30749,7 @@
         <v>45644</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -30806,7 +30806,7 @@
         <v>44379.33965277778</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -30863,7 +30863,7 @@
         <v>45580.59590277778</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -30920,7 +30920,7 @@
         <v>45618.40414351852</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -30977,7 +30977,7 @@
         <v>45300.45178240741</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31034,7 +31034,7 @@
         <v>45456.62121527778</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31091,7 +31091,7 @@
         <v>45691</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31148,7 +31148,7 @@
         <v>45188</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31205,7 +31205,7 @@
         <v>46037.419375</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31262,7 +31262,7 @@
         <v>45667</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31319,7 +31319,7 @@
         <v>45705.5196875</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -31376,7 +31376,7 @@
         <v>44897.43934027778</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -31433,7 +31433,7 @@
         <v>45266.44556712963</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -31490,7 +31490,7 @@
         <v>45561.79056712963</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -31547,7 +31547,7 @@
         <v>45999.44724537037</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -31604,7 +31604,7 @@
         <v>45999.45033564815</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -31661,7 +31661,7 @@
         <v>45323.55540509259</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -31718,7 +31718,7 @@
         <v>44610</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -31775,7 +31775,7 @@
         <v>46041.47722222222</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -31832,7 +31832,7 @@
         <v>45757.40206018519</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -31889,7 +31889,7 @@
         <v>44740.56039351852</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -31946,7 +31946,7 @@
         <v>46037.61799768519</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -32008,7 +32008,7 @@
         <v>46035</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32065,7 +32065,7 @@
         <v>45628.60248842592</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32127,7 +32127,7 @@
         <v>46042.61578703704</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32184,7 +32184,7 @@
         <v>45048.47604166667</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32241,7 +32241,7 @@
         <v>45566.33701388889</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32298,7 +32298,7 @@
         <v>45566.55650462963</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -32355,7 +32355,7 @@
         <v>45566.55728009259</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -32412,7 +32412,7 @@
         <v>45036</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -32469,7 +32469,7 @@
         <v>44827</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -32526,7 +32526,7 @@
         <v>46003.68008101852</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -32583,7 +32583,7 @@
         <v>46045.5425</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -32640,7 +32640,7 @@
         <v>45561.36538194444</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -32697,7 +32697,7 @@
         <v>45770.63724537037</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -32759,7 +32759,7 @@
         <v>44831.32513888889</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -32816,7 +32816,7 @@
         <v>45138</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -32873,7 +32873,7 @@
         <v>45326.72686342592</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -32930,7 +32930,7 @@
         <v>46007.63671296297</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -32987,7 +32987,7 @@
         <v>45681</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -33044,7 +33044,7 @@
         <v>45751.44934027778</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -33101,7 +33101,7 @@
         <v>44538</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -33158,7 +33158,7 @@
         <v>44740.55403935185</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -33215,7 +33215,7 @@
         <v>45667.48493055555</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -33277,7 +33277,7 @@
         <v>45189.49376157407</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -33334,7 +33334,7 @@
         <v>44652</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -33391,7 +33391,7 @@
         <v>45686</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -33448,7 +33448,7 @@
         <v>46001.74296296296</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -33505,7 +33505,7 @@
         <v>46004.54127314815</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -33562,7 +33562,7 @@
         <v>46006.45133101852</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -33619,7 +33619,7 @@
         <v>46006.4656712963</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -33676,7 +33676,7 @@
         <v>46006.47361111111</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -33733,7 +33733,7 @@
         <v>46040.53792824074</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -33790,7 +33790,7 @@
         <v>45741.61895833333</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -33847,7 +33847,7 @@
         <v>44524</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -33904,7 +33904,7 @@
         <v>45678.66383101852</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -33961,7 +33961,7 @@
         <v>46007.76087962963</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -34018,7 +34018,7 @@
         <v>44900.61018518519</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -34075,7 +34075,7 @@
         <v>46042.61434027777</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -34132,7 +34132,7 @@
         <v>45601.67407407407</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -34189,7 +34189,7 @@
         <v>46049.46909722222</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -34246,7 +34246,7 @@
         <v>44986</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -34303,7 +34303,7 @@
         <v>45714.61877314815</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -34360,7 +34360,7 @@
         <v>45391.45446759259</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -34417,7 +34417,7 @@
         <v>45300.51297453704</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -34474,7 +34474,7 @@
         <v>45637</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -34531,7 +34531,7 @@
         <v>46055.45041666667</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -34588,7 +34588,7 @@
         <v>46052.56081018518</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -34645,7 +34645,7 @@
         <v>45841.6303125</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -34702,7 +34702,7 @@
         <v>45723</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -34759,7 +34759,7 @@
         <v>45953.54796296296</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -34816,7 +34816,7 @@
         <v>45068</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -34873,7 +34873,7 @@
         <v>45188</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -34930,7 +34930,7 @@
         <v>46057.4146875</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -34987,7 +34987,7 @@
         <v>46008</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -35044,7 +35044,7 @@
         <v>45349.30850694444</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -35101,7 +35101,7 @@
         <v>45174.48452546296</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -35158,7 +35158,7 @@
         <v>45624.64799768518</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -35215,7 +35215,7 @@
         <v>45401</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -35277,7 +35277,7 @@
         <v>45055</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -35334,7 +35334,7 @@
         <v>45055</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -35391,7 +35391,7 @@
         <v>46008</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -35448,7 +35448,7 @@
         <v>44656</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -35505,7 +35505,7 @@
         <v>44664</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -35562,7 +35562,7 @@
         <v>45729.4733449074</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -35619,7 +35619,7 @@
         <v>45274</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -35676,7 +35676,7 @@
         <v>44846</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -35733,7 +35733,7 @@
         <v>44539</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -35790,7 +35790,7 @@
         <v>44902</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -35847,7 +35847,7 @@
         <v>45643.62706018519</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -35909,7 +35909,7 @@
         <v>45345</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -35966,7 +35966,7 @@
         <v>45635.4615162037</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -36023,7 +36023,7 @@
         <v>45119</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -36080,7 +36080,7 @@
         <v>45266</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -36137,7 +36137,7 @@
         <v>45565.61508101852</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -36194,7 +36194,7 @@
         <v>44916</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -36251,7 +36251,7 @@
         <v>44326.40432870371</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -36308,7 +36308,7 @@
         <v>45474</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -36365,7 +36365,7 @@
         <v>45482.42009259259</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -36422,7 +36422,7 @@
         <v>44946</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -36479,7 +36479,7 @@
         <v>45058</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -36536,7 +36536,7 @@
         <v>44545.80523148148</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -36593,7 +36593,7 @@
         <v>45679.60821759259</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -36655,7 +36655,7 @@
         <v>45625.69050925926</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -36712,7 +36712,7 @@
         <v>45384.40712962963</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -36769,7 +36769,7 @@
         <v>44938</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -36826,7 +36826,7 @@
         <v>45187</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -36883,7 +36883,7 @@
         <v>45131</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -36940,7 +36940,7 @@
         <v>45105.56123842593</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -36997,7 +36997,7 @@
         <v>44806.35574074074</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -37054,7 +37054,7 @@
         <v>45211.74263888889</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -37111,7 +37111,7 @@
         <v>45554.53219907408</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -37168,7 +37168,7 @@
         <v>45377.53998842592</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -37225,7 +37225,7 @@
         <v>45400.73915509259</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -37282,7 +37282,7 @@
         <v>45342.38273148148</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -37339,7 +37339,7 @@
         <v>45239</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -37396,7 +37396,7 @@
         <v>45219.67774305555</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -37453,7 +37453,7 @@
         <v>45762</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -37510,7 +37510,7 @@
         <v>45244.78449074074</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -37567,7 +37567,7 @@
         <v>44692</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -37624,7 +37624,7 @@
         <v>44806.58133101852</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -37681,7 +37681,7 @@
         <v>45212</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -37738,7 +37738,7 @@
         <v>45212.55864583333</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -37795,7 +37795,7 @@
         <v>45426.48527777778</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -37852,7 +37852,7 @@
         <v>45569.38420138889</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -37909,7 +37909,7 @@
         <v>45174.48878472222</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -37966,7 +37966,7 @@
         <v>45351.38615740741</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -38023,7 +38023,7 @@
         <v>44467</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -38080,7 +38080,7 @@
         <v>45273</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -38137,7 +38137,7 @@
         <v>45580.23842592593</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -38194,7 +38194,7 @@
         <v>44972</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -38251,7 +38251,7 @@
         <v>44602</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -38308,7 +38308,7 @@
         <v>45756.74784722222</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -38365,7 +38365,7 @@
         <v>45575.45504629629</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -38422,7 +38422,7 @@
         <v>45627.81162037037</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -38479,7 +38479,7 @@
         <v>45474</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -38536,7 +38536,7 @@
         <v>45181.45777777778</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -38593,7 +38593,7 @@
         <v>45079.46327546296</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -38650,7 +38650,7 @@
         <v>45118</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -38707,7 +38707,7 @@
         <v>45247.65420138889</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -38764,7 +38764,7 @@
         <v>45769</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -38821,7 +38821,7 @@
         <v>45601.69266203704</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -38878,7 +38878,7 @@
         <v>45300.44137731481</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -38935,7 +38935,7 @@
         <v>45300</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -38992,7 +38992,7 @@
         <v>45245.59447916667</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -39049,7 +39049,7 @@
         <v>44785.3725</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -39106,7 +39106,7 @@
         <v>45729.46829861111</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -39163,7 +39163,7 @@
         <v>45182.51840277778</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -39220,7 +39220,7 @@
         <v>45702.46620370371</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -39277,7 +39277,7 @@
         <v>45252</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -39334,7 +39334,7 @@
         <v>45629.85086805555</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -39391,7 +39391,7 @@
         <v>45239</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -39448,7 +39448,7 @@
         <v>45272.74862268518</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -39505,7 +39505,7 @@
         <v>44469</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -39562,7 +39562,7 @@
         <v>45029.44950231481</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -39619,7 +39619,7 @@
         <v>45680.67472222223</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -39676,7 +39676,7 @@
         <v>45190</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -39733,7 +39733,7 @@
         <v>45369.67252314815</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -39790,7 +39790,7 @@
         <v>44966.37291666667</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -39847,7 +39847,7 @@
         <v>45238</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -39904,7 +39904,7 @@
         <v>45597.51122685185</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -39966,7 +39966,7 @@
         <v>45560.69458333333</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -40023,7 +40023,7 @@
         <v>45357.31717592593</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -40080,7 +40080,7 @@
         <v>45323.538125</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -40137,7 +40137,7 @@
         <v>45706.57119212963</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -40194,7 +40194,7 @@
         <v>44327</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -40251,7 +40251,7 @@
         <v>45381.65381944444</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -40308,7 +40308,7 @@
         <v>45127.545</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -40370,7 +40370,7 @@
         <v>45229</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -40427,7 +40427,7 @@
         <v>45282.45675925926</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -40484,7 +40484,7 @@
         <v>45142</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -40541,7 +40541,7 @@
         <v>45035</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -40598,7 +40598,7 @@
         <v>44938</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -40655,7 +40655,7 @@
         <v>45120.64333333333</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -40712,7 +40712,7 @@
         <v>45664</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -40769,7 +40769,7 @@
         <v>44627.37189814815</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -40826,7 +40826,7 @@
         <v>45001</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -40883,7 +40883,7 @@
         <v>44910.46140046296</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -40940,7 +40940,7 @@
         <v>44957</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -40997,7 +40997,7 @@
         <v>45246</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -41054,7 +41054,7 @@
         <v>44616.55402777778</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -41116,7 +41116,7 @@
         <v>44827</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -41173,7 +41173,7 @@
         <v>45435.45399305555</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -41230,7 +41230,7 @@
         <v>45342.53665509259</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -41292,7 +41292,7 @@
         <v>45714.89290509259</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -41349,7 +41349,7 @@
         <v>45719</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -41406,7 +41406,7 @@
         <v>44453.87826388889</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -41463,7 +41463,7 @@
         <v>45618.40553240741</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -41520,7 +41520,7 @@
         <v>44694</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -41577,7 +41577,7 @@
         <v>45588.46105324074</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -41634,7 +41634,7 @@
         <v>45076</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -41691,7 +41691,7 @@
         <v>45681</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -41748,7 +41748,7 @@
         <v>44517.79155092593</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -41805,7 +41805,7 @@
         <v>44852.35644675926</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -41862,7 +41862,7 @@
         <v>45131</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -41919,7 +41919,7 @@
         <v>45357.35319444445</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -41976,7 +41976,7 @@
         <v>44627.37414351852</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -42033,7 +42033,7 @@
         <v>45357.34284722222</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -42090,7 +42090,7 @@
         <v>45226.34151620371</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -42147,7 +42147,7 @@
         <v>44974</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -42204,7 +42204,7 @@
         <v>44964.45504629629</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -42261,7 +42261,7 @@
         <v>45569.38923611111</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -42318,7 +42318,7 @@
         <v>45355</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -42375,7 +42375,7 @@
         <v>45609.72777777778</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -42432,7 +42432,7 @@
         <v>45117</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -42489,7 +42489,7 @@
         <v>44946</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -42546,7 +42546,7 @@
         <v>45439.66193287037</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -42603,7 +42603,7 @@
         <v>45677.30263888889</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -42660,7 +42660,7 @@
         <v>45175</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -42717,7 +42717,7 @@
         <v>45174</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -42774,7 +42774,7 @@
         <v>45174.49258101852</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -42831,7 +42831,7 @@
         <v>45328</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -42893,7 +42893,7 @@
         <v>45600.37516203704</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -42950,7 +42950,7 @@
         <v>45735.44180555556</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -43007,7 +43007,7 @@
         <v>45735.44604166667</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -43064,7 +43064,7 @@
         <v>45035</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -43121,7 +43121,7 @@
         <v>45582.48378472222</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -43178,7 +43178,7 @@
         <v>45071</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -43235,7 +43235,7 @@
         <v>45777.40581018518</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -43292,7 +43292,7 @@
         <v>45782.62927083333</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -43349,7 +43349,7 @@
         <v>45278.48586805556</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -43406,7 +43406,7 @@
         <v>45785</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -43463,7 +43463,7 @@
         <v>45785</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -43520,7 +43520,7 @@
         <v>45785</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -43577,7 +43577,7 @@
         <v>45789.60424768519</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -43634,7 +43634,7 @@
         <v>45741.62740740741</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -43691,7 +43691,7 @@
         <v>45562.28989583333</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -43748,7 +43748,7 @@
         <v>45443</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -43805,7 +43805,7 @@
         <v>45582.63019675926</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -43862,7 +43862,7 @@
         <v>45616.58701388889</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -43919,7 +43919,7 @@
         <v>45790</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -43976,7 +43976,7 @@
         <v>45792.36009259259</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -44033,7 +44033,7 @@
         <v>45748</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -44090,7 +44090,7 @@
         <v>45686</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -44147,7 +44147,7 @@
         <v>45666.3237962963</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>

--- a/Översikt FALKENBERG.xlsx
+++ b/Översikt FALKENBERG.xlsx
@@ -575,7 +575,7 @@
         <v>44593</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -676,7 +676,7 @@
         <v>45723.3484375</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -763,7 +763,7 @@
         <v>44365</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -849,7 +849,7 @@
         <v>44592</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -940,7 +940,7 @@
         <v>44593</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1031,7 +1031,7 @@
         <v>45456.51078703703</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1121,7 +1121,7 @@
         <v>44460</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1206,7 +1206,7 @@
         <v>44435</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1291,7 +1291,7 @@
         <v>44517</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1376,7 +1376,7 @@
         <v>44946</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1461,7 +1461,7 @@
         <v>45600</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1546,7 +1546,7 @@
         <v>45667</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1631,7 +1631,7 @@
         <v>45914.41195601852</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1716,7 +1716,7 @@
         <v>45273</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1801,7 +1801,7 @@
         <v>45239</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1886,7 +1886,7 @@
         <v>45363</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1971,7 +1971,7 @@
         <v>45789.60172453704</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2056,7 +2056,7 @@
         <v>44806</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2113,7 +2113,7 @@
         <v>44250</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2175,7 +2175,7 @@
         <v>44278</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2232,7 +2232,7 @@
         <v>44574</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2289,7 +2289,7 @@
         <v>44432.4594212963</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2346,7 +2346,7 @@
         <v>44607.63460648148</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2403,7 +2403,7 @@
         <v>44553</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2460,7 +2460,7 @@
         <v>44454</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2522,7 +2522,7 @@
         <v>44476.37228009259</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2579,7 +2579,7 @@
         <v>44454</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2641,7 +2641,7 @@
         <v>44379</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2698,7 +2698,7 @@
         <v>44271.8378125</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2755,7 +2755,7 @@
         <v>44287.58824074074</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2812,7 +2812,7 @@
         <v>44539</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2869,7 +2869,7 @@
         <v>44314</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2926,7 +2926,7 @@
         <v>44381</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2983,7 +2983,7 @@
         <v>44381</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3040,7 +3040,7 @@
         <v>44461</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3097,7 +3097,7 @@
         <v>44868</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3154,7 +3154,7 @@
         <v>44467</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3211,7 +3211,7 @@
         <v>44335.28211805555</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3268,7 +3268,7 @@
         <v>44335.27913194444</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3325,7 +3325,7 @@
         <v>44335.28144675926</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3382,7 +3382,7 @@
         <v>44351.60125</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3439,7 +3439,7 @@
         <v>44867.36803240741</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3496,7 +3496,7 @@
         <v>44343</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3553,7 +3553,7 @@
         <v>44266</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3610,7 +3610,7 @@
         <v>44467.34239583334</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3667,7 +3667,7 @@
         <v>44466</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3724,7 +3724,7 @@
         <v>44448</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3781,7 +3781,7 @@
         <v>44680</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3838,7 +3838,7 @@
         <v>44600.5474537037</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3895,7 +3895,7 @@
         <v>44868.31677083333</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3952,7 +3952,7 @@
         <v>44432.46753472222</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4009,7 +4009,7 @@
         <v>44816.45646990741</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4066,7 +4066,7 @@
         <v>44613.58173611111</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4123,7 +4123,7 @@
         <v>44689</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4180,7 +4180,7 @@
         <v>44430</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4237,7 +4237,7 @@
         <v>44424.72109953704</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4294,7 +4294,7 @@
         <v>44866</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4351,7 +4351,7 @@
         <v>44616.59969907408</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4413,7 +4413,7 @@
         <v>44836</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4470,7 +4470,7 @@
         <v>44616.54832175926</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4532,7 +4532,7 @@
         <v>44257</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4589,7 +4589,7 @@
         <v>44357</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4651,7 +4651,7 @@
         <v>44617.43591435185</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4708,7 +4708,7 @@
         <v>44377</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4765,7 +4765,7 @@
         <v>44432.45711805556</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4822,7 +4822,7 @@
         <v>44400</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4879,7 +4879,7 @@
         <v>44379.33618055555</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4936,7 +4936,7 @@
         <v>44547</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4993,7 +4993,7 @@
         <v>44599.64387731482</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5050,7 +5050,7 @@
         <v>44287</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5112,7 +5112,7 @@
         <v>44267</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5169,7 +5169,7 @@
         <v>44879.4912962963</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5226,7 +5226,7 @@
         <v>44711.5750462963</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5283,7 +5283,7 @@
         <v>44320</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5340,7 +5340,7 @@
         <v>44544</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5397,7 +5397,7 @@
         <v>44424</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5454,7 +5454,7 @@
         <v>44600.5519212963</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5511,7 +5511,7 @@
         <v>44295.61899305556</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5568,7 +5568,7 @@
         <v>44692</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5625,7 +5625,7 @@
         <v>44692</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5682,7 +5682,7 @@
         <v>44600.38675925926</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5739,7 +5739,7 @@
         <v>44539</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5796,7 +5796,7 @@
         <v>44539</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5853,7 +5853,7 @@
         <v>44747</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5910,7 +5910,7 @@
         <v>44424</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5967,7 +5967,7 @@
         <v>44813.48675925926</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6024,7 +6024,7 @@
         <v>44841.57885416667</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6081,7 +6081,7 @@
         <v>44545.7980787037</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6138,7 +6138,7 @@
         <v>44446.46020833333</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6195,7 +6195,7 @@
         <v>44574.57268518519</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6252,7 +6252,7 @@
         <v>44407</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6309,7 +6309,7 @@
         <v>44747.85928240741</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6366,7 +6366,7 @@
         <v>44719.59836805556</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6423,7 +6423,7 @@
         <v>44866</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6480,7 +6480,7 @@
         <v>44881</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6537,7 +6537,7 @@
         <v>44425</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6594,7 +6594,7 @@
         <v>44593</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6656,7 +6656,7 @@
         <v>44467.3453125</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6713,7 +6713,7 @@
         <v>44467.34431712963</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6770,7 +6770,7 @@
         <v>44467.82064814815</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6827,7 +6827,7 @@
         <v>44803.57302083333</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6884,7 +6884,7 @@
         <v>44614</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6941,7 +6941,7 @@
         <v>44596.65662037037</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6998,7 +6998,7 @@
         <v>44685.31212962963</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7055,7 +7055,7 @@
         <v>44638.63767361111</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7112,7 +7112,7 @@
         <v>44309.50061342592</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7169,7 +7169,7 @@
         <v>44354.45418981482</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7226,7 +7226,7 @@
         <v>44267</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7283,7 +7283,7 @@
         <v>44539</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7340,7 +7340,7 @@
         <v>44454</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7402,7 +7402,7 @@
         <v>44466</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7459,7 +7459,7 @@
         <v>44537</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7521,7 +7521,7 @@
         <v>44628</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7583,7 +7583,7 @@
         <v>44481</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7640,7 +7640,7 @@
         <v>44543</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7697,7 +7697,7 @@
         <v>44539</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7754,7 +7754,7 @@
         <v>44407</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7811,7 +7811,7 @@
         <v>44438.49201388889</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7868,7 +7868,7 @@
         <v>44539</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7925,7 +7925,7 @@
         <v>45321</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7982,7 +7982,7 @@
         <v>44958</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8044,7 +8044,7 @@
         <v>45425</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8101,7 +8101,7 @@
         <v>44576.3878125</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8158,7 +8158,7 @@
         <v>45363</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8215,7 +8215,7 @@
         <v>44985.40803240741</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8272,7 +8272,7 @@
         <v>45552</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8329,7 +8329,7 @@
         <v>45148</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8386,7 +8386,7 @@
         <v>45205.48982638889</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8443,7 +8443,7 @@
         <v>45390.38009259259</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8500,7 +8500,7 @@
         <v>45635.46984953704</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8557,7 +8557,7 @@
         <v>45546</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8614,7 +8614,7 @@
         <v>45735.36537037037</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8671,7 +8671,7 @@
         <v>44848.34385416667</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8728,7 +8728,7 @@
         <v>44946</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8785,7 +8785,7 @@
         <v>45635.44935185185</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8842,7 +8842,7 @@
         <v>45736.60388888889</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8904,7 +8904,7 @@
         <v>45196</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8961,7 +8961,7 @@
         <v>45419.38927083334</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9018,7 +9018,7 @@
         <v>45751.45901620371</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9075,7 +9075,7 @@
         <v>45147</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9132,7 +9132,7 @@
         <v>45044</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9189,7 +9189,7 @@
         <v>44893</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9246,7 +9246,7 @@
         <v>44600.38467592592</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9303,7 +9303,7 @@
         <v>45019</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9360,7 +9360,7 @@
         <v>45691</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9417,7 +9417,7 @@
         <v>44903.63020833334</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9474,7 +9474,7 @@
         <v>45714.87357638889</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9531,7 +9531,7 @@
         <v>44525.35303240741</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9588,7 +9588,7 @@
         <v>44999</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9645,7 +9645,7 @@
         <v>44986</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9702,7 +9702,7 @@
         <v>45714.88813657407</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9759,7 +9759,7 @@
         <v>45772.3849537037</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9816,7 +9816,7 @@
         <v>45300.33005787037</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9873,7 +9873,7 @@
         <v>45001</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9930,7 +9930,7 @@
         <v>45201</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9992,7 +9992,7 @@
         <v>44545.35561342593</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10049,7 +10049,7 @@
         <v>45355.42181712963</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10106,7 +10106,7 @@
         <v>45152.60824074074</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10163,7 +10163,7 @@
         <v>44946</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10220,7 +10220,7 @@
         <v>44946</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10277,7 +10277,7 @@
         <v>45736.5667824074</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10334,7 +10334,7 @@
         <v>44340</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10391,7 +10391,7 @@
         <v>45343.54475694444</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10448,7 +10448,7 @@
         <v>45435.46104166667</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10505,7 +10505,7 @@
         <v>45441.43253472223</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10567,7 +10567,7 @@
         <v>45127</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10629,7 +10629,7 @@
         <v>45127</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10691,7 +10691,7 @@
         <v>45600.37215277777</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10748,7 +10748,7 @@
         <v>45435.44475694445</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10805,7 +10805,7 @@
         <v>45189.50260416666</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10862,7 +10862,7 @@
         <v>45627.80547453704</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10919,7 +10919,7 @@
         <v>44986</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10976,7 +10976,7 @@
         <v>44882</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11033,7 +11033,7 @@
         <v>45324</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11090,7 +11090,7 @@
         <v>45182.69210648148</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11147,7 +11147,7 @@
         <v>45467.44800925926</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11204,7 +11204,7 @@
         <v>45044</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11261,7 +11261,7 @@
         <v>45575.45410879629</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11318,7 +11318,7 @@
         <v>45329</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11375,7 +11375,7 @@
         <v>45548</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11432,7 +11432,7 @@
         <v>44689.48841435185</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11489,7 +11489,7 @@
         <v>45091.65994212963</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11546,7 +11546,7 @@
         <v>45595.51690972222</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11603,7 +11603,7 @@
         <v>44974.60203703704</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11660,7 +11660,7 @@
         <v>45712.86837962963</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11717,7 +11717,7 @@
         <v>45188</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11774,7 +11774,7 @@
         <v>45188</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11831,7 +11831,7 @@
         <v>45887.67622685185</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11888,7 +11888,7 @@
         <v>45800</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11945,7 +11945,7 @@
         <v>44984</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12002,7 +12002,7 @@
         <v>45630.41225694444</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12059,7 +12059,7 @@
         <v>45615.53175925926</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12116,7 +12116,7 @@
         <v>45782.57447916667</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12173,7 +12173,7 @@
         <v>45462.58004629629</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12230,7 +12230,7 @@
         <v>45821.60167824074</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12287,7 +12287,7 @@
         <v>45582.42644675926</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12344,7 +12344,7 @@
         <v>45795.47841435186</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12401,7 +12401,7 @@
         <v>45743</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12463,7 +12463,7 @@
         <v>45682.80640046296</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12520,7 +12520,7 @@
         <v>45682.8075</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12577,7 +12577,7 @@
         <v>44974.62332175926</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12634,7 +12634,7 @@
         <v>45889.43125</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12691,7 +12691,7 @@
         <v>45888.59473379629</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12748,7 +12748,7 @@
         <v>45743.39162037037</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12805,7 +12805,7 @@
         <v>45226</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12862,7 +12862,7 @@
         <v>45552</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12919,7 +12919,7 @@
         <v>45688.6674537037</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12976,7 +12976,7 @@
         <v>44313</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13033,7 +13033,7 @@
         <v>45770.53210648148</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13090,7 +13090,7 @@
         <v>45252</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13147,7 +13147,7 @@
         <v>45481</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13204,7 +13204,7 @@
         <v>44431</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13266,7 +13266,7 @@
         <v>45723</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13323,7 +13323,7 @@
         <v>45895</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13380,7 +13380,7 @@
         <v>45895</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13437,7 +13437,7 @@
         <v>45642.3908912037</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13494,7 +13494,7 @@
         <v>45435.45245370371</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13551,7 +13551,7 @@
         <v>45232.48390046296</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13608,7 +13608,7 @@
         <v>44903.63605324074</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13665,7 +13665,7 @@
         <v>45901.47424768518</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13722,7 +13722,7 @@
         <v>45889.5352662037</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13779,7 +13779,7 @@
         <v>45015</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13836,7 +13836,7 @@
         <v>45901.46990740741</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13893,7 +13893,7 @@
         <v>45901.61994212963</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13950,7 +13950,7 @@
         <v>45901.3091087963</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14007,7 +14007,7 @@
         <v>45758.22861111111</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14064,7 +14064,7 @@
         <v>45834.38549768519</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14121,7 +14121,7 @@
         <v>45901</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14178,7 +14178,7 @@
         <v>45834.39193287037</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14235,7 +14235,7 @@
         <v>45834.40207175926</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14292,7 +14292,7 @@
         <v>45839</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14349,7 +14349,7 @@
         <v>45905.5284375</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14406,7 +14406,7 @@
         <v>44887</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14463,7 +14463,7 @@
         <v>45561.49186342592</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14520,7 +14520,7 @@
         <v>45836.60414351852</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14577,7 +14577,7 @@
         <v>45769</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14634,7 +14634,7 @@
         <v>45838.24482638889</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14691,7 +14691,7 @@
         <v>45838.48069444444</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14748,7 +14748,7 @@
         <v>45838.48546296296</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14805,7 +14805,7 @@
         <v>45635.41049768519</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14862,7 +14862,7 @@
         <v>45838.64795138889</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14919,7 +14919,7 @@
         <v>45838.65300925926</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14976,7 +14976,7 @@
         <v>45838.24680555556</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15033,7 +15033,7 @@
         <v>45219.66456018519</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15090,7 +15090,7 @@
         <v>45670</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15147,7 +15147,7 @@
         <v>44811.59471064815</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15204,7 +15204,7 @@
         <v>45908.33061342593</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15261,7 +15261,7 @@
         <v>45350.56215277778</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15318,7 +15318,7 @@
         <v>45182.69283564815</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15375,7 +15375,7 @@
         <v>45911</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15432,7 +15432,7 @@
         <v>45845</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15489,7 +15489,7 @@
         <v>45272.75372685185</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15546,7 +15546,7 @@
         <v>45910.66509259259</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15603,7 +15603,7 @@
         <v>45700.36393518518</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15660,7 +15660,7 @@
         <v>45243</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15717,7 +15717,7 @@
         <v>44984</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15774,7 +15774,7 @@
         <v>45533.34621527778</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15831,7 +15831,7 @@
         <v>45914</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15888,7 +15888,7 @@
         <v>45842.41069444444</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15945,7 +15945,7 @@
         <v>44910</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16002,7 +16002,7 @@
         <v>45555.70491898148</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16059,7 +16059,7 @@
         <v>45914</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16116,7 +16116,7 @@
         <v>45581.2815625</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16173,7 +16173,7 @@
         <v>45770.5756712963</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16230,7 +16230,7 @@
         <v>45848.90775462963</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16287,7 +16287,7 @@
         <v>45681</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16344,7 +16344,7 @@
         <v>45848.92115740741</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16401,7 +16401,7 @@
         <v>45917.67875</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16458,7 +16458,7 @@
         <v>45673.90905092593</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16515,7 +16515,7 @@
         <v>45700.35894675926</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16572,7 +16572,7 @@
         <v>45856.3171875</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16629,7 +16629,7 @@
         <v>45856.32516203704</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16686,7 +16686,7 @@
         <v>45856.32144675926</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16743,7 +16743,7 @@
         <v>45762.32988425926</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16800,7 +16800,7 @@
         <v>45923</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16857,7 +16857,7 @@
         <v>45856.31383101852</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16914,7 +16914,7 @@
         <v>45923.40399305556</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16971,7 +16971,7 @@
         <v>45923.62894675926</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17028,7 +17028,7 @@
         <v>45750.59855324074</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17085,7 +17085,7 @@
         <v>45923</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17142,7 +17142,7 @@
         <v>45923.29974537037</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17199,7 +17199,7 @@
         <v>45861.49398148148</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17256,7 +17256,7 @@
         <v>45923.40621527778</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17313,7 +17313,7 @@
         <v>45923.40828703704</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17370,7 +17370,7 @@
         <v>45923.42020833334</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17427,7 +17427,7 @@
         <v>45777.40299768518</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17484,7 +17484,7 @@
         <v>44642</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17541,7 +17541,7 @@
         <v>44687</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17598,7 +17598,7 @@
         <v>45924.32386574074</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17655,7 +17655,7 @@
         <v>45800.37979166667</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17712,7 +17712,7 @@
         <v>45924.41028935185</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17769,7 +17769,7 @@
         <v>45924.39601851852</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17826,7 +17826,7 @@
         <v>45924.40828703704</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17883,7 +17883,7 @@
         <v>45926.49829861111</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17940,7 +17940,7 @@
         <v>45926.56120370371</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17997,7 +17997,7 @@
         <v>45926.56398148148</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18054,7 +18054,7 @@
         <v>45184</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18111,7 +18111,7 @@
         <v>45184</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18168,7 +18168,7 @@
         <v>45337</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18225,7 +18225,7 @@
         <v>45249</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18282,7 +18282,7 @@
         <v>44846.67546296296</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18339,7 +18339,7 @@
         <v>44846.67788194444</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18396,7 +18396,7 @@
         <v>45840.45260416667</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18458,7 +18458,7 @@
         <v>45826.34858796297</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18515,7 +18515,7 @@
         <v>45422.52491898148</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18577,7 +18577,7 @@
         <v>45184</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18634,7 +18634,7 @@
         <v>45013</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18691,7 +18691,7 @@
         <v>45926.49947916667</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18748,7 +18748,7 @@
         <v>45273.68048611111</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18805,7 +18805,7 @@
         <v>45280</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18862,7 +18862,7 @@
         <v>45845</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18919,7 +18919,7 @@
         <v>44767.63206018518</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18976,7 +18976,7 @@
         <v>45079</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19033,7 +19033,7 @@
         <v>45817</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19090,7 +19090,7 @@
         <v>44693.61975694444</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19147,7 +19147,7 @@
         <v>45434.88734953704</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19204,7 +19204,7 @@
         <v>45013.60265046296</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19261,7 +19261,7 @@
         <v>44333.86267361111</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19318,7 +19318,7 @@
         <v>45068</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19375,7 +19375,7 @@
         <v>45074</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19432,7 +19432,7 @@
         <v>44943.71445601852</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19494,7 +19494,7 @@
         <v>44943.7202662037</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19556,7 +19556,7 @@
         <v>45966.298125</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19613,7 +19613,7 @@
         <v>44818</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19675,7 +19675,7 @@
         <v>45751.58140046296</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19732,7 +19732,7 @@
         <v>45751.58332175926</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19789,7 +19789,7 @@
         <v>45524</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19846,7 +19846,7 @@
         <v>44502.38731481481</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19903,7 +19903,7 @@
         <v>45215.65815972222</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19960,7 +19960,7 @@
         <v>44515.38197916667</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20017,7 +20017,7 @@
         <v>45337.4746875</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20074,7 +20074,7 @@
         <v>45735.5587037037</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20131,7 +20131,7 @@
         <v>45273</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20188,7 +20188,7 @@
         <v>45387.71712962963</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20245,7 +20245,7 @@
         <v>45761.50165509259</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20302,7 +20302,7 @@
         <v>45930.77993055555</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20359,7 +20359,7 @@
         <v>44287</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20416,7 +20416,7 @@
         <v>45754.44550925926</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20473,7 +20473,7 @@
         <v>45068</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20530,7 +20530,7 @@
         <v>44644.32097222222</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20587,7 +20587,7 @@
         <v>45713.42707175926</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20644,7 +20644,7 @@
         <v>44866.37664351852</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20701,7 +20701,7 @@
         <v>45260.32136574074</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20758,7 +20758,7 @@
         <v>45422.56108796296</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20820,7 +20820,7 @@
         <v>45271</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20877,7 +20877,7 @@
         <v>44521</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20934,7 +20934,7 @@
         <v>45249</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20991,7 +20991,7 @@
         <v>45243</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21048,7 +21048,7 @@
         <v>45250</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21105,7 +21105,7 @@
         <v>45248.66658564815</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21167,7 +21167,7 @@
         <v>45249</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21224,7 +21224,7 @@
         <v>45270</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21281,7 +21281,7 @@
         <v>44952.65891203703</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21338,7 +21338,7 @@
         <v>45422.54487268518</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21400,7 +21400,7 @@
         <v>45552.60383101852</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21457,7 +21457,7 @@
         <v>45831.45151620371</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21514,7 +21514,7 @@
         <v>45229.90646990741</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21571,7 +21571,7 @@
         <v>45249</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21628,7 +21628,7 @@
         <v>44952.65233796297</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21685,7 +21685,7 @@
         <v>44952.65681712963</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21742,7 +21742,7 @@
         <v>45434.89296296296</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21799,7 +21799,7 @@
         <v>45146</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21856,7 +21856,7 @@
         <v>45068.31527777778</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21913,7 +21913,7 @@
         <v>45305.57886574074</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21970,7 +21970,7 @@
         <v>44952.65443287037</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22027,7 +22027,7 @@
         <v>45708.31506944444</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22084,7 +22084,7 @@
         <v>45280.615</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22141,7 +22141,7 @@
         <v>45187</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22198,7 +22198,7 @@
         <v>45566.33518518518</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22255,7 +22255,7 @@
         <v>45931.87085648148</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22312,7 +22312,7 @@
         <v>45931</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22369,7 +22369,7 @@
         <v>45876.49126157408</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22426,7 +22426,7 @@
         <v>45933.47980324074</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22483,7 +22483,7 @@
         <v>45246.57709490741</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22540,7 +22540,7 @@
         <v>45931</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22597,7 +22597,7 @@
         <v>45876</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22654,7 +22654,7 @@
         <v>44631.49099537037</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22711,7 +22711,7 @@
         <v>45877</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22768,7 +22768,7 @@
         <v>45561.4961574074</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22825,7 +22825,7 @@
         <v>44584.75622685185</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22882,7 +22882,7 @@
         <v>45163.56980324074</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22939,7 +22939,7 @@
         <v>45896</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -22996,7 +22996,7 @@
         <v>45350.34221064814</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23053,7 +23053,7 @@
         <v>45896</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23110,7 +23110,7 @@
         <v>45195</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23167,7 +23167,7 @@
         <v>45635.58111111111</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23224,7 +23224,7 @@
         <v>44946.59435185185</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23281,7 +23281,7 @@
         <v>45700.36592592593</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23338,7 +23338,7 @@
         <v>45937.6268287037</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23400,7 +23400,7 @@
         <v>45546</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23462,7 +23462,7 @@
         <v>45831.66783564815</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23519,7 +23519,7 @@
         <v>45940.34849537037</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23576,7 +23576,7 @@
         <v>45691.47612268518</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23633,7 +23633,7 @@
         <v>45681</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23690,7 +23690,7 @@
         <v>45384</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23747,7 +23747,7 @@
         <v>44908</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23804,7 +23804,7 @@
         <v>45946.65030092592</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23861,7 +23861,7 @@
         <v>45946.65563657408</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23918,7 +23918,7 @@
         <v>45091</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -23975,7 +23975,7 @@
         <v>44977.32987268519</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24037,7 +24037,7 @@
         <v>45769.76717592592</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24094,7 +24094,7 @@
         <v>45667.43560185185</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24151,7 +24151,7 @@
         <v>45947.33006944445</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24208,7 +24208,7 @@
         <v>45946.63799768518</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24265,7 +24265,7 @@
         <v>44926</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24327,7 +24327,7 @@
         <v>45401.51612268519</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24389,7 +24389,7 @@
         <v>45946.84219907408</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24446,7 +24446,7 @@
         <v>45951.49594907407</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24503,7 +24503,7 @@
         <v>45951.58283564815</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24560,7 +24560,7 @@
         <v>45709.38615740741</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24617,7 +24617,7 @@
         <v>45950.69099537037</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24679,7 +24679,7 @@
         <v>45153</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24736,7 +24736,7 @@
         <v>45952.61923611111</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24793,7 +24793,7 @@
         <v>45952.62607638889</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24850,7 +24850,7 @@
         <v>45953.36152777778</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -24907,7 +24907,7 @@
         <v>45202</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -24964,7 +24964,7 @@
         <v>45379.57900462963</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25021,7 +25021,7 @@
         <v>45953.37833333333</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25078,7 +25078,7 @@
         <v>45751.44987268518</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25135,7 +25135,7 @@
         <v>45952.57880787037</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25192,7 +25192,7 @@
         <v>45952.6142824074</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25249,7 +25249,7 @@
         <v>45952.30056712963</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25306,7 +25306,7 @@
         <v>44970.7156712963</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25363,7 +25363,7 @@
         <v>45954.38357638889</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25420,7 +25420,7 @@
         <v>45954.70240740741</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25477,7 +25477,7 @@
         <v>44963.45574074074</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25534,7 +25534,7 @@
         <v>44963.45646990741</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25591,7 +25591,7 @@
         <v>45328</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25653,7 +25653,7 @@
         <v>45959.33420138889</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25710,7 +25710,7 @@
         <v>45959.33655092592</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25767,7 +25767,7 @@
         <v>45959.56813657407</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25824,7 +25824,7 @@
         <v>45959.56633101852</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -25881,7 +25881,7 @@
         <v>45959.33313657407</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -25938,7 +25938,7 @@
         <v>45959.33488425926</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -25995,7 +25995,7 @@
         <v>45959.57741898148</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26052,7 +26052,7 @@
         <v>45950.69850694444</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26114,7 +26114,7 @@
         <v>45960</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26176,7 +26176,7 @@
         <v>45960</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26238,7 +26238,7 @@
         <v>45959.57440972222</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26295,7 +26295,7 @@
         <v>45960.42212962963</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26352,7 +26352,7 @@
         <v>45960.42365740741</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26409,7 +26409,7 @@
         <v>45960.66224537037</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26466,7 +26466,7 @@
         <v>45961.40752314815</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26523,7 +26523,7 @@
         <v>45959.76681712963</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26580,7 +26580,7 @@
         <v>45961.37354166667</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26637,7 +26637,7 @@
         <v>45624</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26699,7 +26699,7 @@
         <v>45959.7678125</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26756,7 +26756,7 @@
         <v>45961.37416666667</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26813,7 +26813,7 @@
         <v>45618.31188657408</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -26870,7 +26870,7 @@
         <v>45960</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -26927,7 +26927,7 @@
         <v>45965.40067129629</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -26984,7 +26984,7 @@
         <v>45964.69548611111</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27046,7 +27046,7 @@
         <v>45691</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27103,7 +27103,7 @@
         <v>45965.49766203704</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27160,7 +27160,7 @@
         <v>45965.50377314815</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27217,7 +27217,7 @@
         <v>45964.46145833333</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27274,7 +27274,7 @@
         <v>45965.50879629629</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27331,7 +27331,7 @@
         <v>45965.56266203704</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27388,7 +27388,7 @@
         <v>45667.41243055555</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27445,7 +27445,7 @@
         <v>45965.70961805555</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27502,7 +27502,7 @@
         <v>44986.68592592593</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27559,7 +27559,7 @@
         <v>45965.71777777778</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27616,7 +27616,7 @@
         <v>45965</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27678,7 +27678,7 @@
         <v>45377.53855324074</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27735,7 +27735,7 @@
         <v>45580.22925925926</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27792,7 +27792,7 @@
         <v>45968.36759259259</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -27849,7 +27849,7 @@
         <v>45335</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -27911,7 +27911,7 @@
         <v>45971.63334490741</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -27968,7 +27968,7 @@
         <v>45971.634375</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28025,7 +28025,7 @@
         <v>45539.37892361111</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28082,7 +28082,7 @@
         <v>44957.50162037037</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28139,7 +28139,7 @@
         <v>45971.63211805555</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28196,7 +28196,7 @@
         <v>45770.87644675926</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28253,7 +28253,7 @@
         <v>45968</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28310,7 +28310,7 @@
         <v>45706.46810185185</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28367,7 +28367,7 @@
         <v>45971.80481481482</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28424,7 +28424,7 @@
         <v>44543.63011574074</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28481,7 +28481,7 @@
         <v>45084.5340625</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28538,7 +28538,7 @@
         <v>45973.46903935185</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28595,7 +28595,7 @@
         <v>45973.42508101852</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28657,7 +28657,7 @@
         <v>45975.50200231482</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28719,7 +28719,7 @@
         <v>45547</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -28776,7 +28776,7 @@
         <v>45975.48550925926</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -28838,7 +28838,7 @@
         <v>45744.66233796296</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -28895,7 +28895,7 @@
         <v>45414.63642361111</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -28957,7 +28957,7 @@
         <v>45037.46315972223</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29014,7 +29014,7 @@
         <v>44622.65902777778</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29071,7 +29071,7 @@
         <v>44622.6600925926</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29128,7 +29128,7 @@
         <v>45747.61678240741</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29185,7 +29185,7 @@
         <v>45747.61954861111</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29242,7 +29242,7 @@
         <v>45350.34746527778</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29299,7 +29299,7 @@
         <v>45635.42052083334</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29356,7 +29356,7 @@
         <v>45764</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29413,7 +29413,7 @@
         <v>44294.47487268518</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29470,7 +29470,7 @@
         <v>45566.33871527778</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29527,7 +29527,7 @@
         <v>44554</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29584,7 +29584,7 @@
         <v>45616.57489583334</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29641,7 +29641,7 @@
         <v>45978</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -29698,7 +29698,7 @@
         <v>45435.44834490741</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -29755,7 +29755,7 @@
         <v>45644</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -29812,7 +29812,7 @@
         <v>44379.33965277778</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -29869,7 +29869,7 @@
         <v>45988</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -29931,7 +29931,7 @@
         <v>45988</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -29993,7 +29993,7 @@
         <v>45580.59590277778</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30050,7 +30050,7 @@
         <v>45618.40414351852</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30107,7 +30107,7 @@
         <v>45989.64594907407</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30164,7 +30164,7 @@
         <v>45300.45178240741</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30221,7 +30221,7 @@
         <v>45456.62121527778</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30278,7 +30278,7 @@
         <v>45188</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30335,7 +30335,7 @@
         <v>45667</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30392,7 +30392,7 @@
         <v>45705.5196875</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30449,7 +30449,7 @@
         <v>44897.43934027778</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -30506,7 +30506,7 @@
         <v>45266.44556712963</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -30563,7 +30563,7 @@
         <v>45561.79056712963</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -30620,7 +30620,7 @@
         <v>45323.55540509259</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -30677,7 +30677,7 @@
         <v>45691</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -30734,7 +30734,7 @@
         <v>46037.419375</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -30791,7 +30791,7 @@
         <v>44610</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -30848,7 +30848,7 @@
         <v>45757.40206018519</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -30905,7 +30905,7 @@
         <v>45999.44724537037</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -30962,7 +30962,7 @@
         <v>45999.45033564815</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31019,7 +31019,7 @@
         <v>44740.56039351852</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31076,7 +31076,7 @@
         <v>46041.47722222222</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31133,7 +31133,7 @@
         <v>45628.60248842592</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31195,7 +31195,7 @@
         <v>45048.47604166667</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31252,7 +31252,7 @@
         <v>45566.33701388889</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31309,7 +31309,7 @@
         <v>45566.55650462963</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -31366,7 +31366,7 @@
         <v>45566.55728009259</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -31423,7 +31423,7 @@
         <v>45036</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -31480,7 +31480,7 @@
         <v>46037.61799768519</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -31542,7 +31542,7 @@
         <v>46035</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -31599,7 +31599,7 @@
         <v>44827</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -31656,7 +31656,7 @@
         <v>46042.61578703704</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -31713,7 +31713,7 @@
         <v>45561.36538194444</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -31770,7 +31770,7 @@
         <v>45770.63724537037</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -31832,7 +31832,7 @@
         <v>44831.32513888889</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -31889,7 +31889,7 @@
         <v>45138</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -31946,7 +31946,7 @@
         <v>45326.72686342592</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -32003,7 +32003,7 @@
         <v>46003.68008101852</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32060,7 +32060,7 @@
         <v>45681</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32117,7 +32117,7 @@
         <v>45751.44934027778</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32174,7 +32174,7 @@
         <v>46045.5425</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32231,7 +32231,7 @@
         <v>44538</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32288,7 +32288,7 @@
         <v>44740.55403935185</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -32345,7 +32345,7 @@
         <v>45667.48493055555</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -32407,7 +32407,7 @@
         <v>45189.49376157407</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -32464,7 +32464,7 @@
         <v>44652</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -32521,7 +32521,7 @@
         <v>45686</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -32578,7 +32578,7 @@
         <v>46007.63671296297</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -32635,7 +32635,7 @@
         <v>45741.61895833333</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -32692,7 +32692,7 @@
         <v>44524</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -32749,7 +32749,7 @@
         <v>46001.74296296296</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -32806,7 +32806,7 @@
         <v>45678.66383101852</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -32863,7 +32863,7 @@
         <v>46004.54127314815</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -32920,7 +32920,7 @@
         <v>44900.61018518519</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -32977,7 +32977,7 @@
         <v>46006.45133101852</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -33034,7 +33034,7 @@
         <v>45601.67407407407</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -33091,7 +33091,7 @@
         <v>46006.4656712963</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -33148,7 +33148,7 @@
         <v>46006.47361111111</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -33205,7 +33205,7 @@
         <v>46040.53792824074</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -33262,7 +33262,7 @@
         <v>44986</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -33319,7 +33319,7 @@
         <v>46007.76087962963</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -33376,7 +33376,7 @@
         <v>45714.61877314815</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -33433,7 +33433,7 @@
         <v>45391.45446759259</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -33490,7 +33490,7 @@
         <v>45300.51297453704</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -33547,7 +33547,7 @@
         <v>46049.46909722222</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -33604,7 +33604,7 @@
         <v>45723</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -33661,7 +33661,7 @@
         <v>45068</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -33718,7 +33718,7 @@
         <v>45637</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -33775,7 +33775,7 @@
         <v>45188</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -33832,7 +33832,7 @@
         <v>46055.45041666667</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -33889,7 +33889,7 @@
         <v>45349.30850694444</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -33946,7 +33946,7 @@
         <v>45174.48452546296</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -34003,7 +34003,7 @@
         <v>45624.64799768518</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -34060,7 +34060,7 @@
         <v>45401</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -34122,7 +34122,7 @@
         <v>46052.56081018518</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -34179,7 +34179,7 @@
         <v>45055</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -34236,7 +34236,7 @@
         <v>45055</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -34293,7 +34293,7 @@
         <v>45841.6303125</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -34350,7 +34350,7 @@
         <v>44656</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -34407,7 +34407,7 @@
         <v>44664</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -34464,7 +34464,7 @@
         <v>45953.54796296296</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -34521,7 +34521,7 @@
         <v>45729.4733449074</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -34578,7 +34578,7 @@
         <v>46057.4146875</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -34635,7 +34635,7 @@
         <v>46008</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -34692,7 +34692,7 @@
         <v>46008</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -34749,7 +34749,7 @@
         <v>45274</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -34806,7 +34806,7 @@
         <v>44846</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -34863,7 +34863,7 @@
         <v>44539</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -34920,7 +34920,7 @@
         <v>44902</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -34977,7 +34977,7 @@
         <v>45643.62706018519</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -35039,7 +35039,7 @@
         <v>45345</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -35096,7 +35096,7 @@
         <v>45635.4615162037</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -35153,7 +35153,7 @@
         <v>45119</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -35210,7 +35210,7 @@
         <v>45266</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -35267,7 +35267,7 @@
         <v>45565.61508101852</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -35324,7 +35324,7 @@
         <v>46065.58340277777</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -35381,7 +35381,7 @@
         <v>44916</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -35438,7 +35438,7 @@
         <v>44326.40432870371</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -35495,7 +35495,7 @@
         <v>45474</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -35552,7 +35552,7 @@
         <v>45482.42009259259</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -35609,7 +35609,7 @@
         <v>44946</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -35666,7 +35666,7 @@
         <v>45058</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -35723,7 +35723,7 @@
         <v>46069.56211805555</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -35780,7 +35780,7 @@
         <v>44545.80523148148</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -35837,7 +35837,7 @@
         <v>46042.61434027777</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -35894,7 +35894,7 @@
         <v>45679.60821759259</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -35956,7 +35956,7 @@
         <v>45625.69050925926</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -36013,7 +36013,7 @@
         <v>45384.40712962963</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -36070,7 +36070,7 @@
         <v>46070.50351851852</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -36127,7 +36127,7 @@
         <v>44938</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -36184,7 +36184,7 @@
         <v>46029</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -36241,7 +36241,7 @@
         <v>45187</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -36298,7 +36298,7 @@
         <v>45131</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -36355,7 +36355,7 @@
         <v>45105.56123842593</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -36412,7 +36412,7 @@
         <v>44806.35574074074</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -36469,7 +36469,7 @@
         <v>45211.74263888889</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -36526,7 +36526,7 @@
         <v>46031</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -36583,7 +36583,7 @@
         <v>45554.53219907408</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -36640,7 +36640,7 @@
         <v>45377.53998842592</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -36697,7 +36697,7 @@
         <v>45400.73915509259</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -36754,7 +36754,7 @@
         <v>46065</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -36811,7 +36811,7 @@
         <v>45342.38273148148</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -36868,7 +36868,7 @@
         <v>45239</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -36925,7 +36925,7 @@
         <v>45219.67774305555</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -36982,7 +36982,7 @@
         <v>45762</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -37039,7 +37039,7 @@
         <v>45244.78449074074</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -37096,7 +37096,7 @@
         <v>44692</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -37153,7 +37153,7 @@
         <v>44806.58133101852</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -37210,7 +37210,7 @@
         <v>45212</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -37267,7 +37267,7 @@
         <v>45212.55864583333</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -37324,7 +37324,7 @@
         <v>45426.48527777778</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -37381,7 +37381,7 @@
         <v>45569.38420138889</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -37438,7 +37438,7 @@
         <v>45174.48878472222</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -37495,7 +37495,7 @@
         <v>45351.38615740741</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -37552,7 +37552,7 @@
         <v>44467</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -37609,7 +37609,7 @@
         <v>45273</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -37666,7 +37666,7 @@
         <v>45580.23842592593</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -37723,7 +37723,7 @@
         <v>44972</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -37780,7 +37780,7 @@
         <v>44602</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -37837,7 +37837,7 @@
         <v>45756.74784722222</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -37894,7 +37894,7 @@
         <v>45575.45504629629</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -37951,7 +37951,7 @@
         <v>45627.81162037037</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -38008,7 +38008,7 @@
         <v>45474</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -38065,7 +38065,7 @@
         <v>45181.45777777778</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -38122,7 +38122,7 @@
         <v>45079.46327546296</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -38179,7 +38179,7 @@
         <v>45118</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -38236,7 +38236,7 @@
         <v>45247.65420138889</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -38293,7 +38293,7 @@
         <v>45769</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -38350,7 +38350,7 @@
         <v>45601.69266203704</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -38407,7 +38407,7 @@
         <v>45300.44137731481</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -38464,7 +38464,7 @@
         <v>45300</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -38521,7 +38521,7 @@
         <v>45245.59447916667</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -38578,7 +38578,7 @@
         <v>44785.3725</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -38635,7 +38635,7 @@
         <v>45729.46829861111</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -38692,7 +38692,7 @@
         <v>45182.51840277778</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -38749,7 +38749,7 @@
         <v>45702.46620370371</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -38806,7 +38806,7 @@
         <v>45252</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -38863,7 +38863,7 @@
         <v>45629.85086805555</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -38920,7 +38920,7 @@
         <v>45239</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -38977,7 +38977,7 @@
         <v>45272.74862268518</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -39034,7 +39034,7 @@
         <v>44469</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -39091,7 +39091,7 @@
         <v>45029.44950231481</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -39148,7 +39148,7 @@
         <v>45680.67472222223</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -39205,7 +39205,7 @@
         <v>45190</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -39262,7 +39262,7 @@
         <v>45369.67252314815</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -39319,7 +39319,7 @@
         <v>44966.37291666667</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -39376,7 +39376,7 @@
         <v>45238</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -39433,7 +39433,7 @@
         <v>45597.51122685185</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -39495,7 +39495,7 @@
         <v>45560.69458333333</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -39552,7 +39552,7 @@
         <v>45357.31717592593</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -39609,7 +39609,7 @@
         <v>45323.538125</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -39666,7 +39666,7 @@
         <v>45706.57119212963</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -39723,7 +39723,7 @@
         <v>44327</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -39780,7 +39780,7 @@
         <v>45381.65381944444</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -39837,7 +39837,7 @@
         <v>45127.545</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -39899,7 +39899,7 @@
         <v>45229</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -39956,7 +39956,7 @@
         <v>45282.45675925926</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -40013,7 +40013,7 @@
         <v>45142</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -40070,7 +40070,7 @@
         <v>45035</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -40127,7 +40127,7 @@
         <v>44938</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -40184,7 +40184,7 @@
         <v>45120.64333333333</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -40241,7 +40241,7 @@
         <v>45664</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -40298,7 +40298,7 @@
         <v>44627.37189814815</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -40355,7 +40355,7 @@
         <v>45001</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -40412,7 +40412,7 @@
         <v>44910.46140046296</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -40469,7 +40469,7 @@
         <v>44957</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -40526,7 +40526,7 @@
         <v>45246</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -40583,7 +40583,7 @@
         <v>44616.55402777778</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -40645,7 +40645,7 @@
         <v>44827</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -40702,7 +40702,7 @@
         <v>45435.45399305555</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -40759,7 +40759,7 @@
         <v>45342.53665509259</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -40821,7 +40821,7 @@
         <v>45714.89290509259</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -40878,7 +40878,7 @@
         <v>45719</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -40935,7 +40935,7 @@
         <v>44453.87826388889</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -40992,7 +40992,7 @@
         <v>45618.40553240741</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -41049,7 +41049,7 @@
         <v>44694</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -41106,7 +41106,7 @@
         <v>45588.46105324074</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -41163,7 +41163,7 @@
         <v>45076</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -41220,7 +41220,7 @@
         <v>45681</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -41277,7 +41277,7 @@
         <v>44517.79155092593</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -41334,7 +41334,7 @@
         <v>44852.35644675926</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -41391,7 +41391,7 @@
         <v>45131</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -41448,7 +41448,7 @@
         <v>45357.35319444445</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -41505,7 +41505,7 @@
         <v>44627.37414351852</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -41562,7 +41562,7 @@
         <v>45357.34284722222</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -41619,7 +41619,7 @@
         <v>45226.34151620371</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -41676,7 +41676,7 @@
         <v>44974</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -41733,7 +41733,7 @@
         <v>44964.45504629629</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -41790,7 +41790,7 @@
         <v>45569.38923611111</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -41847,7 +41847,7 @@
         <v>45355</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -41904,7 +41904,7 @@
         <v>45609.72777777778</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -41961,7 +41961,7 @@
         <v>45117</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -42018,7 +42018,7 @@
         <v>44946</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -42075,7 +42075,7 @@
         <v>45439.66193287037</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -42132,7 +42132,7 @@
         <v>45677.30263888889</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -42189,7 +42189,7 @@
         <v>45175</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -42246,7 +42246,7 @@
         <v>45174</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -42303,7 +42303,7 @@
         <v>45174.49258101852</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -42360,7 +42360,7 @@
         <v>45328</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -42422,7 +42422,7 @@
         <v>45600.37516203704</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -42479,7 +42479,7 @@
         <v>45735.44180555556</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -42536,7 +42536,7 @@
         <v>45735.44604166667</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -42593,7 +42593,7 @@
         <v>45035</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -42650,7 +42650,7 @@
         <v>45582.48378472222</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -42707,7 +42707,7 @@
         <v>45071</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -42764,7 +42764,7 @@
         <v>45777.40581018518</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -42821,7 +42821,7 @@
         <v>45782.62927083333</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -42878,7 +42878,7 @@
         <v>45278.48586805556</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -42935,7 +42935,7 @@
         <v>45785</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -42992,7 +42992,7 @@
         <v>45785</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -43049,7 +43049,7 @@
         <v>45785</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -43106,7 +43106,7 @@
         <v>45789.60424768519</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -43163,7 +43163,7 @@
         <v>45741.62740740741</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -43220,7 +43220,7 @@
         <v>45562.28989583333</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -43277,7 +43277,7 @@
         <v>45443</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -43334,7 +43334,7 @@
         <v>45582.63019675926</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -43391,7 +43391,7 @@
         <v>45616.58701388889</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -43448,7 +43448,7 @@
         <v>45790</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -43505,7 +43505,7 @@
         <v>45792.36009259259</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -43562,7 +43562,7 @@
         <v>45748</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -43619,7 +43619,7 @@
         <v>45686</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -43676,7 +43676,7 @@
         <v>45666.3237962963</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -43733,7 +43733,7 @@
         <v>45799.5099537037</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -43790,7 +43790,7 @@
         <v>45799.79076388889</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -43847,7 +43847,7 @@
         <v>45799.79210648148</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -43904,7 +43904,7 @@
         <v>45799.79471064815</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -43961,7 +43961,7 @@
         <v>45811.49912037037</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -44018,7 +44018,7 @@
         <v>45811.59423611111</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -44075,7 +44075,7 @@
         <v>45810.65826388889</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -44132,7 +44132,7 @@
         <v>45812.54030092592</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -44189,7 +44189,7 @@
         <v>45817.44741898148</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>

--- a/Översikt FALKENBERG.xlsx
+++ b/Översikt FALKENBERG.xlsx
@@ -575,7 +575,7 @@
         <v>44593</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -676,7 +676,7 @@
         <v>45723.3484375</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -763,7 +763,7 @@
         <v>44365</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -849,7 +849,7 @@
         <v>44592</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -940,7 +940,7 @@
         <v>44593</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1031,7 +1031,7 @@
         <v>45456.51078703703</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1121,7 +1121,7 @@
         <v>44460</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1206,7 +1206,7 @@
         <v>44435</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1291,7 +1291,7 @@
         <v>44517</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1376,7 +1376,7 @@
         <v>44946</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1461,7 +1461,7 @@
         <v>45600</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1546,7 +1546,7 @@
         <v>45667</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1631,7 +1631,7 @@
         <v>45914.41195601852</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1716,7 +1716,7 @@
         <v>45273</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1801,7 +1801,7 @@
         <v>45239</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1886,7 +1886,7 @@
         <v>45363</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1971,7 +1971,7 @@
         <v>45789.60172453704</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2056,7 +2056,7 @@
         <v>44806</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2113,7 +2113,7 @@
         <v>44250</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2175,7 +2175,7 @@
         <v>44278</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2232,7 +2232,7 @@
         <v>44574</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2289,7 +2289,7 @@
         <v>44432.4594212963</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2346,7 +2346,7 @@
         <v>44607.63460648148</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2403,7 +2403,7 @@
         <v>44553</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2460,7 +2460,7 @@
         <v>44454</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2522,7 +2522,7 @@
         <v>44476.37228009259</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2579,7 +2579,7 @@
         <v>44454</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2641,7 +2641,7 @@
         <v>44379</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2698,7 +2698,7 @@
         <v>44271.8378125</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2755,7 +2755,7 @@
         <v>44287.58824074074</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2812,7 +2812,7 @@
         <v>44539</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2869,7 +2869,7 @@
         <v>44314</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2926,7 +2926,7 @@
         <v>44381</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2983,7 +2983,7 @@
         <v>44381</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3040,7 +3040,7 @@
         <v>44461</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3097,7 +3097,7 @@
         <v>44868</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3154,7 +3154,7 @@
         <v>44467</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3211,7 +3211,7 @@
         <v>44335.28211805555</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3268,7 +3268,7 @@
         <v>44335.27913194444</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3325,7 +3325,7 @@
         <v>44335.28144675926</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3382,7 +3382,7 @@
         <v>44351.60125</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3439,7 +3439,7 @@
         <v>44867.36803240741</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3496,7 +3496,7 @@
         <v>44343</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3553,7 +3553,7 @@
         <v>44266</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3610,7 +3610,7 @@
         <v>44467.34239583334</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3667,7 +3667,7 @@
         <v>44466</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3724,7 +3724,7 @@
         <v>44448</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3781,7 +3781,7 @@
         <v>44680</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3838,7 +3838,7 @@
         <v>44600.5474537037</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3895,7 +3895,7 @@
         <v>44868.31677083333</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3952,7 +3952,7 @@
         <v>44432.46753472222</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4009,7 +4009,7 @@
         <v>44816.45646990741</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4066,7 +4066,7 @@
         <v>44613.58173611111</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4123,7 +4123,7 @@
         <v>44689</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4180,7 +4180,7 @@
         <v>44430</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4237,7 +4237,7 @@
         <v>44424.72109953704</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4294,7 +4294,7 @@
         <v>44866</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4351,7 +4351,7 @@
         <v>44616.59969907408</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4413,7 +4413,7 @@
         <v>44836</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4470,7 +4470,7 @@
         <v>44616.54832175926</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4532,7 +4532,7 @@
         <v>44257</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4589,7 +4589,7 @@
         <v>44357</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4651,7 +4651,7 @@
         <v>44617.43591435185</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4708,7 +4708,7 @@
         <v>44377</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4765,7 +4765,7 @@
         <v>44432.45711805556</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4822,7 +4822,7 @@
         <v>44400</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4879,7 +4879,7 @@
         <v>44379.33618055555</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4936,7 +4936,7 @@
         <v>44547</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4993,7 +4993,7 @@
         <v>44599.64387731482</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5050,7 +5050,7 @@
         <v>44287</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5112,7 +5112,7 @@
         <v>44267</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5169,7 +5169,7 @@
         <v>44879.4912962963</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5226,7 +5226,7 @@
         <v>44711.5750462963</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5283,7 +5283,7 @@
         <v>44320</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5340,7 +5340,7 @@
         <v>44544</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5397,7 +5397,7 @@
         <v>44424</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5454,7 +5454,7 @@
         <v>44600.5519212963</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5511,7 +5511,7 @@
         <v>44295.61899305556</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5568,7 +5568,7 @@
         <v>44692</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5625,7 +5625,7 @@
         <v>44692</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5682,7 +5682,7 @@
         <v>44600.38675925926</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5739,7 +5739,7 @@
         <v>44539</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5796,7 +5796,7 @@
         <v>44539</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5853,7 +5853,7 @@
         <v>44747</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5910,7 +5910,7 @@
         <v>44424</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5967,7 +5967,7 @@
         <v>44813.48675925926</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6024,7 +6024,7 @@
         <v>44841.57885416667</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6081,7 +6081,7 @@
         <v>44545.7980787037</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6138,7 +6138,7 @@
         <v>44446.46020833333</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6195,7 +6195,7 @@
         <v>44574.57268518519</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6252,7 +6252,7 @@
         <v>44407</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6309,7 +6309,7 @@
         <v>44747.85928240741</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6366,7 +6366,7 @@
         <v>44719.59836805556</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6423,7 +6423,7 @@
         <v>44866</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6480,7 +6480,7 @@
         <v>44881</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6537,7 +6537,7 @@
         <v>44425</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6594,7 +6594,7 @@
         <v>44593</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6656,7 +6656,7 @@
         <v>44467.3453125</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6713,7 +6713,7 @@
         <v>44467.34431712963</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6770,7 +6770,7 @@
         <v>44467.82064814815</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6827,7 +6827,7 @@
         <v>44803.57302083333</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6884,7 +6884,7 @@
         <v>44614</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6941,7 +6941,7 @@
         <v>44596.65662037037</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6998,7 +6998,7 @@
         <v>44685.31212962963</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7055,7 +7055,7 @@
         <v>44638.63767361111</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7112,7 +7112,7 @@
         <v>44309.50061342592</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7169,7 +7169,7 @@
         <v>44354.45418981482</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7226,7 +7226,7 @@
         <v>44267</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7283,7 +7283,7 @@
         <v>44539</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7340,7 +7340,7 @@
         <v>44454</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7402,7 +7402,7 @@
         <v>44466</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7459,7 +7459,7 @@
         <v>44537</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7521,7 +7521,7 @@
         <v>44628</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7583,7 +7583,7 @@
         <v>44481</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7640,7 +7640,7 @@
         <v>44543</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7697,7 +7697,7 @@
         <v>44539</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7754,7 +7754,7 @@
         <v>44407</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7811,7 +7811,7 @@
         <v>44438.49201388889</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7868,7 +7868,7 @@
         <v>44539</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7925,7 +7925,7 @@
         <v>45321</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7982,7 +7982,7 @@
         <v>44958</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8044,7 +8044,7 @@
         <v>45425</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8101,7 +8101,7 @@
         <v>44576.3878125</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8158,7 +8158,7 @@
         <v>45363</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8215,7 +8215,7 @@
         <v>44985.40803240741</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8272,7 +8272,7 @@
         <v>45552</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8329,7 +8329,7 @@
         <v>45148</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8386,7 +8386,7 @@
         <v>45205.48982638889</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8443,7 +8443,7 @@
         <v>45390.38009259259</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8500,7 +8500,7 @@
         <v>45635.46984953704</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8557,7 +8557,7 @@
         <v>45546</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8614,7 +8614,7 @@
         <v>45735.36537037037</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8671,7 +8671,7 @@
         <v>44848.34385416667</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8728,7 +8728,7 @@
         <v>44946</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8785,7 +8785,7 @@
         <v>45635.44935185185</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8842,7 +8842,7 @@
         <v>45736.60388888889</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8904,7 +8904,7 @@
         <v>45196</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8961,7 +8961,7 @@
         <v>45419.38927083334</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9018,7 +9018,7 @@
         <v>45751.45901620371</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9075,7 +9075,7 @@
         <v>45147</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9132,7 +9132,7 @@
         <v>45044</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9189,7 +9189,7 @@
         <v>44893</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9246,7 +9246,7 @@
         <v>44600.38467592592</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9303,7 +9303,7 @@
         <v>45019</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9360,7 +9360,7 @@
         <v>45691</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9417,7 +9417,7 @@
         <v>44903.63020833334</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9474,7 +9474,7 @@
         <v>45714.87357638889</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9531,7 +9531,7 @@
         <v>44525.35303240741</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9588,7 +9588,7 @@
         <v>44999</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9645,7 +9645,7 @@
         <v>44986</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9702,7 +9702,7 @@
         <v>45714.88813657407</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9759,7 +9759,7 @@
         <v>45772.3849537037</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9816,7 +9816,7 @@
         <v>45300.33005787037</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9873,7 +9873,7 @@
         <v>45001</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9930,7 +9930,7 @@
         <v>45201</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9992,7 +9992,7 @@
         <v>44545.35561342593</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10049,7 +10049,7 @@
         <v>45355.42181712963</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10106,7 +10106,7 @@
         <v>45152.60824074074</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10163,7 +10163,7 @@
         <v>44946</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10220,7 +10220,7 @@
         <v>44946</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10277,7 +10277,7 @@
         <v>45736.5667824074</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10334,7 +10334,7 @@
         <v>44340</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10391,7 +10391,7 @@
         <v>45343.54475694444</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10448,7 +10448,7 @@
         <v>45435.46104166667</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10505,7 +10505,7 @@
         <v>45441.43253472223</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10567,7 +10567,7 @@
         <v>45127</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10629,7 +10629,7 @@
         <v>45127</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10691,7 +10691,7 @@
         <v>45600.37215277777</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10748,7 +10748,7 @@
         <v>45435.44475694445</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10805,7 +10805,7 @@
         <v>45189.50260416666</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10862,7 +10862,7 @@
         <v>45627.80547453704</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10919,7 +10919,7 @@
         <v>44986</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10976,7 +10976,7 @@
         <v>44882</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11033,7 +11033,7 @@
         <v>45324</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11090,7 +11090,7 @@
         <v>45182.69210648148</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11147,7 +11147,7 @@
         <v>45467.44800925926</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11204,7 +11204,7 @@
         <v>45044</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11261,7 +11261,7 @@
         <v>45575.45410879629</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11318,7 +11318,7 @@
         <v>45329</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11375,7 +11375,7 @@
         <v>45548</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11432,7 +11432,7 @@
         <v>44689.48841435185</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11489,7 +11489,7 @@
         <v>45091.65994212963</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11546,7 +11546,7 @@
         <v>45595.51690972222</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11603,7 +11603,7 @@
         <v>44974.60203703704</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11660,7 +11660,7 @@
         <v>45712.86837962963</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11717,7 +11717,7 @@
         <v>45188</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11774,7 +11774,7 @@
         <v>45188</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11831,7 +11831,7 @@
         <v>45887.67622685185</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11888,7 +11888,7 @@
         <v>45800</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11945,7 +11945,7 @@
         <v>44984</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12002,7 +12002,7 @@
         <v>45630.41225694444</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12059,7 +12059,7 @@
         <v>45615.53175925926</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12116,7 +12116,7 @@
         <v>45782.57447916667</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12173,7 +12173,7 @@
         <v>45462.58004629629</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12230,7 +12230,7 @@
         <v>45821.60167824074</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12287,7 +12287,7 @@
         <v>45582.42644675926</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12344,7 +12344,7 @@
         <v>45795.47841435186</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12401,7 +12401,7 @@
         <v>45743</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12463,7 +12463,7 @@
         <v>45682.80640046296</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12520,7 +12520,7 @@
         <v>45682.8075</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12577,7 +12577,7 @@
         <v>44974.62332175926</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12634,7 +12634,7 @@
         <v>45889.43125</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12691,7 +12691,7 @@
         <v>45888.59473379629</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12748,7 +12748,7 @@
         <v>45743.39162037037</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12805,7 +12805,7 @@
         <v>45226</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12862,7 +12862,7 @@
         <v>45552</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12919,7 +12919,7 @@
         <v>45688.6674537037</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12976,7 +12976,7 @@
         <v>44313</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13033,7 +13033,7 @@
         <v>45770.53210648148</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13090,7 +13090,7 @@
         <v>45252</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13147,7 +13147,7 @@
         <v>45481</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13204,7 +13204,7 @@
         <v>44431</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13266,7 +13266,7 @@
         <v>45723</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13323,7 +13323,7 @@
         <v>45895</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13380,7 +13380,7 @@
         <v>45895</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13437,7 +13437,7 @@
         <v>45642.3908912037</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13494,7 +13494,7 @@
         <v>45435.45245370371</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13551,7 +13551,7 @@
         <v>45232.48390046296</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13608,7 +13608,7 @@
         <v>44903.63605324074</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13665,7 +13665,7 @@
         <v>45901.47424768518</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13722,7 +13722,7 @@
         <v>45889.5352662037</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13779,7 +13779,7 @@
         <v>45015</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13836,7 +13836,7 @@
         <v>45901.46990740741</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13893,7 +13893,7 @@
         <v>45901.61994212963</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13950,7 +13950,7 @@
         <v>45901.3091087963</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14007,7 +14007,7 @@
         <v>45758.22861111111</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14064,7 +14064,7 @@
         <v>45834.38549768519</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14121,7 +14121,7 @@
         <v>45901</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14178,7 +14178,7 @@
         <v>45834.39193287037</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14235,7 +14235,7 @@
         <v>45834.40207175926</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14292,7 +14292,7 @@
         <v>45839</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14349,7 +14349,7 @@
         <v>45905.5284375</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14406,7 +14406,7 @@
         <v>44887</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14463,7 +14463,7 @@
         <v>45561.49186342592</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14520,7 +14520,7 @@
         <v>45836.60414351852</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14577,7 +14577,7 @@
         <v>45769</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14634,7 +14634,7 @@
         <v>45838.24482638889</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14691,7 +14691,7 @@
         <v>45838.48069444444</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14748,7 +14748,7 @@
         <v>45838.48546296296</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14805,7 +14805,7 @@
         <v>45635.41049768519</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14862,7 +14862,7 @@
         <v>45838.64795138889</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14919,7 +14919,7 @@
         <v>45838.65300925926</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14976,7 +14976,7 @@
         <v>45838.24680555556</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15033,7 +15033,7 @@
         <v>45219.66456018519</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15090,7 +15090,7 @@
         <v>45670</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15147,7 +15147,7 @@
         <v>44811.59471064815</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15204,7 +15204,7 @@
         <v>45908.33061342593</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15261,7 +15261,7 @@
         <v>45350.56215277778</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15318,7 +15318,7 @@
         <v>45182.69283564815</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15375,7 +15375,7 @@
         <v>45911</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15432,7 +15432,7 @@
         <v>45845</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15489,7 +15489,7 @@
         <v>45272.75372685185</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15546,7 +15546,7 @@
         <v>45910.66509259259</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15603,7 +15603,7 @@
         <v>45700.36393518518</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15660,7 +15660,7 @@
         <v>45243</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15717,7 +15717,7 @@
         <v>44984</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15774,7 +15774,7 @@
         <v>45533.34621527778</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15831,7 +15831,7 @@
         <v>45914</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15888,7 +15888,7 @@
         <v>45842.41069444444</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15945,7 +15945,7 @@
         <v>44910</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16002,7 +16002,7 @@
         <v>45555.70491898148</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16059,7 +16059,7 @@
         <v>45914</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16116,7 +16116,7 @@
         <v>45581.2815625</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16173,7 +16173,7 @@
         <v>45770.5756712963</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16230,7 +16230,7 @@
         <v>45848.90775462963</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16287,7 +16287,7 @@
         <v>45681</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16344,7 +16344,7 @@
         <v>45848.92115740741</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16401,7 +16401,7 @@
         <v>45917.67875</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16458,7 +16458,7 @@
         <v>45673.90905092593</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16515,7 +16515,7 @@
         <v>45700.35894675926</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16572,7 +16572,7 @@
         <v>45856.3171875</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16629,7 +16629,7 @@
         <v>45856.32516203704</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16686,7 +16686,7 @@
         <v>45856.32144675926</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16743,7 +16743,7 @@
         <v>45762.32988425926</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16800,7 +16800,7 @@
         <v>45923</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16857,7 +16857,7 @@
         <v>45856.31383101852</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16914,7 +16914,7 @@
         <v>45923.40399305556</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16971,7 +16971,7 @@
         <v>45923.62894675926</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17028,7 +17028,7 @@
         <v>45750.59855324074</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17085,7 +17085,7 @@
         <v>45923</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17142,7 +17142,7 @@
         <v>45923.29974537037</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17199,7 +17199,7 @@
         <v>45861.49398148148</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17256,7 +17256,7 @@
         <v>45923.40621527778</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17313,7 +17313,7 @@
         <v>45923.40828703704</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17370,7 +17370,7 @@
         <v>45923.42020833334</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17427,7 +17427,7 @@
         <v>45777.40299768518</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17484,7 +17484,7 @@
         <v>44642</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17541,7 +17541,7 @@
         <v>44687</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17598,7 +17598,7 @@
         <v>45924.32386574074</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17655,7 +17655,7 @@
         <v>45800.37979166667</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17712,7 +17712,7 @@
         <v>45924.41028935185</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17769,7 +17769,7 @@
         <v>45924.39601851852</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17826,7 +17826,7 @@
         <v>45924.40828703704</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17883,7 +17883,7 @@
         <v>45926.49829861111</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17940,7 +17940,7 @@
         <v>45926.56120370371</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17997,7 +17997,7 @@
         <v>45926.56398148148</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18054,7 +18054,7 @@
         <v>45184</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18111,7 +18111,7 @@
         <v>45184</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18168,7 +18168,7 @@
         <v>45337</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18225,7 +18225,7 @@
         <v>45249</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18282,7 +18282,7 @@
         <v>44846.67546296296</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18339,7 +18339,7 @@
         <v>44846.67788194444</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18396,7 +18396,7 @@
         <v>45840.45260416667</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18458,7 +18458,7 @@
         <v>45826.34858796297</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18515,7 +18515,7 @@
         <v>45422.52491898148</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18577,7 +18577,7 @@
         <v>45184</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18634,7 +18634,7 @@
         <v>45013</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18691,7 +18691,7 @@
         <v>45926.49947916667</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18748,7 +18748,7 @@
         <v>45273.68048611111</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18805,7 +18805,7 @@
         <v>45280</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18862,7 +18862,7 @@
         <v>45845</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18919,7 +18919,7 @@
         <v>44767.63206018518</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18976,7 +18976,7 @@
         <v>45079</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19033,7 +19033,7 @@
         <v>45817</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19090,7 +19090,7 @@
         <v>44693.61975694444</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19147,7 +19147,7 @@
         <v>45434.88734953704</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19204,7 +19204,7 @@
         <v>45013.60265046296</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19261,7 +19261,7 @@
         <v>44333.86267361111</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19318,7 +19318,7 @@
         <v>45068</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19375,7 +19375,7 @@
         <v>45074</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19432,7 +19432,7 @@
         <v>44943.71445601852</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19494,7 +19494,7 @@
         <v>44943.7202662037</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19556,7 +19556,7 @@
         <v>45966.298125</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19613,7 +19613,7 @@
         <v>44818</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19675,7 +19675,7 @@
         <v>45751.58140046296</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19732,7 +19732,7 @@
         <v>45751.58332175926</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19789,7 +19789,7 @@
         <v>45524</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19846,7 +19846,7 @@
         <v>44502.38731481481</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19903,7 +19903,7 @@
         <v>45215.65815972222</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19960,7 +19960,7 @@
         <v>44515.38197916667</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20017,7 +20017,7 @@
         <v>45337.4746875</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20074,7 +20074,7 @@
         <v>45735.5587037037</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20131,7 +20131,7 @@
         <v>45273</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20188,7 +20188,7 @@
         <v>45387.71712962963</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20245,7 +20245,7 @@
         <v>45761.50165509259</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20302,7 +20302,7 @@
         <v>45930.77993055555</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20359,7 +20359,7 @@
         <v>44287</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20416,7 +20416,7 @@
         <v>45754.44550925926</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20473,7 +20473,7 @@
         <v>45068</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20530,7 +20530,7 @@
         <v>44644.32097222222</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20587,7 +20587,7 @@
         <v>45713.42707175926</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20644,7 +20644,7 @@
         <v>44866.37664351852</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20701,7 +20701,7 @@
         <v>45260.32136574074</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20758,7 +20758,7 @@
         <v>45422.56108796296</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20820,7 +20820,7 @@
         <v>45271</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20877,7 +20877,7 @@
         <v>44521</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20934,7 +20934,7 @@
         <v>45249</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20991,7 +20991,7 @@
         <v>45243</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21048,7 +21048,7 @@
         <v>45250</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21105,7 +21105,7 @@
         <v>45248.66658564815</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21167,7 +21167,7 @@
         <v>45249</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21224,7 +21224,7 @@
         <v>45270</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21281,7 +21281,7 @@
         <v>44952.65891203703</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21338,7 +21338,7 @@
         <v>45422.54487268518</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21400,7 +21400,7 @@
         <v>45552.60383101852</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21457,7 +21457,7 @@
         <v>45831.45151620371</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21514,7 +21514,7 @@
         <v>45229.90646990741</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21571,7 +21571,7 @@
         <v>45249</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21628,7 +21628,7 @@
         <v>44952.65233796297</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21685,7 +21685,7 @@
         <v>44952.65681712963</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21742,7 +21742,7 @@
         <v>45434.89296296296</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21799,7 +21799,7 @@
         <v>45146</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21856,7 +21856,7 @@
         <v>45068.31527777778</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21913,7 +21913,7 @@
         <v>45305.57886574074</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21970,7 +21970,7 @@
         <v>44952.65443287037</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22027,7 +22027,7 @@
         <v>45708.31506944444</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22084,7 +22084,7 @@
         <v>45280.615</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22141,7 +22141,7 @@
         <v>45187</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22198,7 +22198,7 @@
         <v>45566.33518518518</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22255,7 +22255,7 @@
         <v>45931.87085648148</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22312,7 +22312,7 @@
         <v>45931</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22369,7 +22369,7 @@
         <v>45876.49126157408</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22426,7 +22426,7 @@
         <v>45933.47980324074</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22483,7 +22483,7 @@
         <v>45246.57709490741</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22540,7 +22540,7 @@
         <v>45931</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22597,7 +22597,7 @@
         <v>45876</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22654,7 +22654,7 @@
         <v>44631.49099537037</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22711,7 +22711,7 @@
         <v>45877</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22768,7 +22768,7 @@
         <v>45561.4961574074</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22825,7 +22825,7 @@
         <v>44584.75622685185</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22882,7 +22882,7 @@
         <v>45163.56980324074</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22939,7 +22939,7 @@
         <v>45896</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -22996,7 +22996,7 @@
         <v>45350.34221064814</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23053,7 +23053,7 @@
         <v>45896</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23110,7 +23110,7 @@
         <v>45195</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23167,7 +23167,7 @@
         <v>45635.58111111111</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23224,7 +23224,7 @@
         <v>44946.59435185185</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23281,7 +23281,7 @@
         <v>45700.36592592593</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23338,7 +23338,7 @@
         <v>45937.6268287037</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23400,7 +23400,7 @@
         <v>45546</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23462,7 +23462,7 @@
         <v>45831.66783564815</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23519,7 +23519,7 @@
         <v>45940.34849537037</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23576,7 +23576,7 @@
         <v>45691.47612268518</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23633,7 +23633,7 @@
         <v>45681</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23690,7 +23690,7 @@
         <v>45384</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23747,7 +23747,7 @@
         <v>44908</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23804,7 +23804,7 @@
         <v>45946.65030092592</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23861,7 +23861,7 @@
         <v>45946.65563657408</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23918,7 +23918,7 @@
         <v>45091</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -23975,7 +23975,7 @@
         <v>44977.32987268519</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24037,7 +24037,7 @@
         <v>45769.76717592592</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24094,7 +24094,7 @@
         <v>45667.43560185185</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24151,7 +24151,7 @@
         <v>45947.33006944445</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24208,7 +24208,7 @@
         <v>45946.63799768518</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24265,7 +24265,7 @@
         <v>44926</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24327,7 +24327,7 @@
         <v>45401.51612268519</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24389,7 +24389,7 @@
         <v>45946.84219907408</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24446,7 +24446,7 @@
         <v>45951.49594907407</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24503,7 +24503,7 @@
         <v>45951.58283564815</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24560,7 +24560,7 @@
         <v>45709.38615740741</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24617,7 +24617,7 @@
         <v>45950.69099537037</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24679,7 +24679,7 @@
         <v>45153</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24736,7 +24736,7 @@
         <v>45952.61923611111</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24793,7 +24793,7 @@
         <v>45952.62607638889</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24850,7 +24850,7 @@
         <v>45953.36152777778</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -24907,7 +24907,7 @@
         <v>45202</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -24964,7 +24964,7 @@
         <v>45379.57900462963</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25021,7 +25021,7 @@
         <v>45953.37833333333</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25078,7 +25078,7 @@
         <v>45751.44987268518</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25135,7 +25135,7 @@
         <v>45952.57880787037</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25192,7 +25192,7 @@
         <v>45952.6142824074</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25249,7 +25249,7 @@
         <v>45952.30056712963</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25306,7 +25306,7 @@
         <v>44970.7156712963</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25363,7 +25363,7 @@
         <v>45954.38357638889</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25420,7 +25420,7 @@
         <v>45954.70240740741</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25477,7 +25477,7 @@
         <v>44963.45574074074</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25534,7 +25534,7 @@
         <v>44963.45646990741</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25591,7 +25591,7 @@
         <v>45328</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25653,7 +25653,7 @@
         <v>45959.33420138889</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25710,7 +25710,7 @@
         <v>45959.33655092592</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25767,7 +25767,7 @@
         <v>45959.56813657407</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25824,7 +25824,7 @@
         <v>45959.56633101852</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -25881,7 +25881,7 @@
         <v>45959.33313657407</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -25938,7 +25938,7 @@
         <v>45959.33488425926</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -25995,7 +25995,7 @@
         <v>45959.57741898148</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26052,7 +26052,7 @@
         <v>45950.69850694444</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26114,7 +26114,7 @@
         <v>45960</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26176,7 +26176,7 @@
         <v>45960</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26238,7 +26238,7 @@
         <v>45959.57440972222</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26295,7 +26295,7 @@
         <v>45960.42212962963</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26352,7 +26352,7 @@
         <v>45960.42365740741</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26409,7 +26409,7 @@
         <v>45960.66224537037</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26466,7 +26466,7 @@
         <v>45961.40752314815</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26523,7 +26523,7 @@
         <v>45959.76681712963</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26580,7 +26580,7 @@
         <v>45961.37354166667</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26637,7 +26637,7 @@
         <v>45624</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26699,7 +26699,7 @@
         <v>45959.7678125</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26756,7 +26756,7 @@
         <v>45961.37416666667</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26813,7 +26813,7 @@
         <v>45618.31188657408</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -26870,7 +26870,7 @@
         <v>45960</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -26927,7 +26927,7 @@
         <v>45965.40067129629</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -26984,7 +26984,7 @@
         <v>45964.69548611111</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27046,7 +27046,7 @@
         <v>45691</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27103,7 +27103,7 @@
         <v>45965.49766203704</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27160,7 +27160,7 @@
         <v>45965.50377314815</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27217,7 +27217,7 @@
         <v>45964.46145833333</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27274,7 +27274,7 @@
         <v>45965.50879629629</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27331,7 +27331,7 @@
         <v>45965.56266203704</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27388,7 +27388,7 @@
         <v>45667.41243055555</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27445,7 +27445,7 @@
         <v>45965.70961805555</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27502,7 +27502,7 @@
         <v>44986.68592592593</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27559,7 +27559,7 @@
         <v>45965.71777777778</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27616,7 +27616,7 @@
         <v>45965</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27678,7 +27678,7 @@
         <v>45377.53855324074</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27735,7 +27735,7 @@
         <v>45580.22925925926</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27792,7 +27792,7 @@
         <v>45968.36759259259</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -27849,7 +27849,7 @@
         <v>45335</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -27911,7 +27911,7 @@
         <v>45971.63334490741</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -27968,7 +27968,7 @@
         <v>45971.634375</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28025,7 +28025,7 @@
         <v>45539.37892361111</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28082,7 +28082,7 @@
         <v>44957.50162037037</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28139,7 +28139,7 @@
         <v>45971.63211805555</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28196,7 +28196,7 @@
         <v>45770.87644675926</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28253,7 +28253,7 @@
         <v>45968</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28310,7 +28310,7 @@
         <v>45706.46810185185</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28367,7 +28367,7 @@
         <v>45971.80481481482</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28424,7 +28424,7 @@
         <v>44543.63011574074</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28481,7 +28481,7 @@
         <v>45084.5340625</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28538,7 +28538,7 @@
         <v>45973.46903935185</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28595,7 +28595,7 @@
         <v>45973.42508101852</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28657,7 +28657,7 @@
         <v>45975.50200231482</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28719,7 +28719,7 @@
         <v>45547</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -28776,7 +28776,7 @@
         <v>45975.48550925926</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -28838,7 +28838,7 @@
         <v>45744.66233796296</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -28895,7 +28895,7 @@
         <v>45414.63642361111</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -28957,7 +28957,7 @@
         <v>45037.46315972223</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29014,7 +29014,7 @@
         <v>44622.65902777778</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29071,7 +29071,7 @@
         <v>44622.6600925926</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29128,7 +29128,7 @@
         <v>45747.61678240741</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29185,7 +29185,7 @@
         <v>45747.61954861111</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29242,7 +29242,7 @@
         <v>45350.34746527778</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29299,7 +29299,7 @@
         <v>45635.42052083334</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29356,7 +29356,7 @@
         <v>45764</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29413,7 +29413,7 @@
         <v>44294.47487268518</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29470,7 +29470,7 @@
         <v>45566.33871527778</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29527,7 +29527,7 @@
         <v>44554</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29584,7 +29584,7 @@
         <v>45616.57489583334</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29641,7 +29641,7 @@
         <v>45978</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -29698,7 +29698,7 @@
         <v>45435.44834490741</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -29755,7 +29755,7 @@
         <v>45644</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -29812,7 +29812,7 @@
         <v>44379.33965277778</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -29869,7 +29869,7 @@
         <v>45988</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -29931,7 +29931,7 @@
         <v>45988</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -29993,7 +29993,7 @@
         <v>45580.59590277778</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30050,7 +30050,7 @@
         <v>45618.40414351852</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30107,7 +30107,7 @@
         <v>45989.64594907407</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30164,7 +30164,7 @@
         <v>45300.45178240741</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30221,7 +30221,7 @@
         <v>45456.62121527778</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30278,7 +30278,7 @@
         <v>45188</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30335,7 +30335,7 @@
         <v>45667</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30392,7 +30392,7 @@
         <v>45705.5196875</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30449,7 +30449,7 @@
         <v>44897.43934027778</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -30506,7 +30506,7 @@
         <v>45266.44556712963</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -30563,7 +30563,7 @@
         <v>45561.79056712963</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -30620,7 +30620,7 @@
         <v>45323.55540509259</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -30677,7 +30677,7 @@
         <v>45691</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -30734,7 +30734,7 @@
         <v>46037.419375</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -30791,7 +30791,7 @@
         <v>44610</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -30848,7 +30848,7 @@
         <v>45757.40206018519</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -30905,7 +30905,7 @@
         <v>45999.44724537037</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -30962,7 +30962,7 @@
         <v>45999.45033564815</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31019,7 +31019,7 @@
         <v>44740.56039351852</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31076,7 +31076,7 @@
         <v>46041.47722222222</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31133,7 +31133,7 @@
         <v>45628.60248842592</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31195,7 +31195,7 @@
         <v>45048.47604166667</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31252,7 +31252,7 @@
         <v>45566.33701388889</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31309,7 +31309,7 @@
         <v>45566.55650462963</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -31366,7 +31366,7 @@
         <v>45566.55728009259</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -31423,7 +31423,7 @@
         <v>45036</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -31480,7 +31480,7 @@
         <v>46037.61799768519</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -31542,7 +31542,7 @@
         <v>46035</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -31599,7 +31599,7 @@
         <v>44827</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -31656,7 +31656,7 @@
         <v>46042.61578703704</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -31713,7 +31713,7 @@
         <v>45561.36538194444</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -31770,7 +31770,7 @@
         <v>45770.63724537037</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -31832,7 +31832,7 @@
         <v>44831.32513888889</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -31889,7 +31889,7 @@
         <v>45138</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -31946,7 +31946,7 @@
         <v>45326.72686342592</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -32003,7 +32003,7 @@
         <v>46003.68008101852</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32060,7 +32060,7 @@
         <v>45681</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32117,7 +32117,7 @@
         <v>45751.44934027778</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32174,7 +32174,7 @@
         <v>46045.5425</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32231,7 +32231,7 @@
         <v>44538</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32288,7 +32288,7 @@
         <v>44740.55403935185</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -32345,7 +32345,7 @@
         <v>45667.48493055555</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -32407,7 +32407,7 @@
         <v>45189.49376157407</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -32464,7 +32464,7 @@
         <v>44652</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -32521,7 +32521,7 @@
         <v>45686</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -32578,7 +32578,7 @@
         <v>46007.63671296297</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -32635,7 +32635,7 @@
         <v>45741.61895833333</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -32692,7 +32692,7 @@
         <v>44524</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -32749,7 +32749,7 @@
         <v>46001.74296296296</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -32806,7 +32806,7 @@
         <v>45678.66383101852</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -32863,7 +32863,7 @@
         <v>46004.54127314815</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -32920,7 +32920,7 @@
         <v>44900.61018518519</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -32977,7 +32977,7 @@
         <v>46006.45133101852</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -33034,7 +33034,7 @@
         <v>45601.67407407407</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -33091,7 +33091,7 @@
         <v>46006.4656712963</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -33148,7 +33148,7 @@
         <v>46006.47361111111</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -33205,7 +33205,7 @@
         <v>46040.53792824074</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -33262,7 +33262,7 @@
         <v>44986</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -33319,7 +33319,7 @@
         <v>46007.76087962963</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -33376,7 +33376,7 @@
         <v>45714.61877314815</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -33433,7 +33433,7 @@
         <v>45391.45446759259</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -33490,7 +33490,7 @@
         <v>45300.51297453704</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -33547,7 +33547,7 @@
         <v>46049.46909722222</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -33604,7 +33604,7 @@
         <v>45723</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -33661,7 +33661,7 @@
         <v>45068</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -33718,7 +33718,7 @@
         <v>45637</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -33775,7 +33775,7 @@
         <v>45188</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -33832,7 +33832,7 @@
         <v>46055.45041666667</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -33889,7 +33889,7 @@
         <v>45349.30850694444</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -33946,7 +33946,7 @@
         <v>45174.48452546296</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -34003,7 +34003,7 @@
         <v>45624.64799768518</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -34060,7 +34060,7 @@
         <v>45401</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -34122,7 +34122,7 @@
         <v>46052.56081018518</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -34179,7 +34179,7 @@
         <v>45055</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -34236,7 +34236,7 @@
         <v>45055</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -34293,7 +34293,7 @@
         <v>45841.6303125</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -34350,7 +34350,7 @@
         <v>44656</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -34407,7 +34407,7 @@
         <v>44664</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -34464,7 +34464,7 @@
         <v>45953.54796296296</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -34521,7 +34521,7 @@
         <v>45729.4733449074</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -34578,7 +34578,7 @@
         <v>46057.4146875</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -34635,7 +34635,7 @@
         <v>46008</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -34692,7 +34692,7 @@
         <v>46008</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -34749,7 +34749,7 @@
         <v>45274</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -34806,7 +34806,7 @@
         <v>44846</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -34863,7 +34863,7 @@
         <v>44539</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -34920,7 +34920,7 @@
         <v>44902</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -34977,7 +34977,7 @@
         <v>45643.62706018519</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -35039,7 +35039,7 @@
         <v>45345</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -35096,7 +35096,7 @@
         <v>45635.4615162037</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -35153,7 +35153,7 @@
         <v>45119</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -35210,7 +35210,7 @@
         <v>45266</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -35267,7 +35267,7 @@
         <v>45565.61508101852</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -35324,7 +35324,7 @@
         <v>46065.58340277777</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -35381,7 +35381,7 @@
         <v>44916</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -35438,7 +35438,7 @@
         <v>44326.40432870371</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -35495,7 +35495,7 @@
         <v>45474</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -35552,7 +35552,7 @@
         <v>45482.42009259259</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -35609,7 +35609,7 @@
         <v>44946</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -35666,7 +35666,7 @@
         <v>45058</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -35723,7 +35723,7 @@
         <v>46069.56211805555</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -35780,7 +35780,7 @@
         <v>44545.80523148148</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -35837,7 +35837,7 @@
         <v>46042.61434027777</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -35894,7 +35894,7 @@
         <v>45679.60821759259</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -35956,7 +35956,7 @@
         <v>45625.69050925926</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -36013,7 +36013,7 @@
         <v>45384.40712962963</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -36070,7 +36070,7 @@
         <v>46070.50351851852</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -36127,7 +36127,7 @@
         <v>44938</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -36184,7 +36184,7 @@
         <v>46029</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -36241,7 +36241,7 @@
         <v>45187</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -36298,7 +36298,7 @@
         <v>45131</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -36355,7 +36355,7 @@
         <v>45105.56123842593</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -36412,7 +36412,7 @@
         <v>44806.35574074074</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -36469,7 +36469,7 @@
         <v>45211.74263888889</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -36526,7 +36526,7 @@
         <v>46031</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -36583,7 +36583,7 @@
         <v>45554.53219907408</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -36640,7 +36640,7 @@
         <v>45377.53998842592</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -36697,7 +36697,7 @@
         <v>45400.73915509259</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -36754,7 +36754,7 @@
         <v>46065</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -36811,7 +36811,7 @@
         <v>45342.38273148148</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -36868,7 +36868,7 @@
         <v>45239</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -36925,7 +36925,7 @@
         <v>45219.67774305555</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -36982,7 +36982,7 @@
         <v>45762</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -37039,7 +37039,7 @@
         <v>45244.78449074074</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -37096,7 +37096,7 @@
         <v>44692</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -37153,7 +37153,7 @@
         <v>44806.58133101852</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -37210,7 +37210,7 @@
         <v>45212</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -37267,7 +37267,7 @@
         <v>45212.55864583333</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -37324,7 +37324,7 @@
         <v>45426.48527777778</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -37381,7 +37381,7 @@
         <v>45569.38420138889</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -37438,7 +37438,7 @@
         <v>45174.48878472222</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -37495,7 +37495,7 @@
         <v>45351.38615740741</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -37552,7 +37552,7 @@
         <v>44467</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -37609,7 +37609,7 @@
         <v>45273</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -37666,7 +37666,7 @@
         <v>45580.23842592593</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -37723,7 +37723,7 @@
         <v>44972</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -37780,7 +37780,7 @@
         <v>44602</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -37837,7 +37837,7 @@
         <v>45756.74784722222</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -37894,7 +37894,7 @@
         <v>45575.45504629629</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -37951,7 +37951,7 @@
         <v>45627.81162037037</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -38008,7 +38008,7 @@
         <v>45474</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -38065,7 +38065,7 @@
         <v>45181.45777777778</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -38122,7 +38122,7 @@
         <v>45079.46327546296</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -38179,7 +38179,7 @@
         <v>45118</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -38236,7 +38236,7 @@
         <v>45247.65420138889</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -38293,7 +38293,7 @@
         <v>45769</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -38350,7 +38350,7 @@
         <v>45601.69266203704</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -38407,7 +38407,7 @@
         <v>45300.44137731481</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -38464,7 +38464,7 @@
         <v>45300</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -38521,7 +38521,7 @@
         <v>45245.59447916667</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -38578,7 +38578,7 @@
         <v>44785.3725</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -38635,7 +38635,7 @@
         <v>45729.46829861111</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -38692,7 +38692,7 @@
         <v>45182.51840277778</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -38749,7 +38749,7 @@
         <v>45702.46620370371</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -38806,7 +38806,7 @@
         <v>45252</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -38863,7 +38863,7 @@
         <v>45629.85086805555</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -38920,7 +38920,7 @@
         <v>45239</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -38977,7 +38977,7 @@
         <v>45272.74862268518</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -39034,7 +39034,7 @@
         <v>44469</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -39091,7 +39091,7 @@
         <v>45029.44950231481</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -39148,7 +39148,7 @@
         <v>45680.67472222223</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -39205,7 +39205,7 @@
         <v>45190</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -39262,7 +39262,7 @@
         <v>45369.67252314815</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -39319,7 +39319,7 @@
         <v>44966.37291666667</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -39376,7 +39376,7 @@
         <v>45238</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -39433,7 +39433,7 @@
         <v>45597.51122685185</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -39495,7 +39495,7 @@
         <v>45560.69458333333</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -39552,7 +39552,7 @@
         <v>45357.31717592593</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -39609,7 +39609,7 @@
         <v>45323.538125</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -39666,7 +39666,7 @@
         <v>45706.57119212963</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -39723,7 +39723,7 @@
         <v>44327</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -39780,7 +39780,7 @@
         <v>45381.65381944444</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -39837,7 +39837,7 @@
         <v>45127.545</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -39899,7 +39899,7 @@
         <v>45229</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -39956,7 +39956,7 @@
         <v>45282.45675925926</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -40013,7 +40013,7 @@
         <v>45142</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -40070,7 +40070,7 @@
         <v>45035</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -40127,7 +40127,7 @@
         <v>44938</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -40184,7 +40184,7 @@
         <v>45120.64333333333</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -40241,7 +40241,7 @@
         <v>45664</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -40298,7 +40298,7 @@
         <v>44627.37189814815</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -40355,7 +40355,7 @@
         <v>45001</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -40412,7 +40412,7 @@
         <v>44910.46140046296</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -40469,7 +40469,7 @@
         <v>44957</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -40526,7 +40526,7 @@
         <v>45246</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -40583,7 +40583,7 @@
         <v>44616.55402777778</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -40645,7 +40645,7 @@
         <v>44827</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -40702,7 +40702,7 @@
         <v>45435.45399305555</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -40759,7 +40759,7 @@
         <v>45342.53665509259</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -40821,7 +40821,7 @@
         <v>45714.89290509259</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -40878,7 +40878,7 @@
         <v>45719</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -40935,7 +40935,7 @@
         <v>44453.87826388889</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -40992,7 +40992,7 @@
         <v>45618.40553240741</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -41049,7 +41049,7 @@
         <v>44694</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -41106,7 +41106,7 @@
         <v>45588.46105324074</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -41163,7 +41163,7 @@
         <v>45076</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -41220,7 +41220,7 @@
         <v>45681</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -41277,7 +41277,7 @@
         <v>44517.79155092593</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -41334,7 +41334,7 @@
         <v>44852.35644675926</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -41391,7 +41391,7 @@
         <v>45131</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -41448,7 +41448,7 @@
         <v>45357.35319444445</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -41505,7 +41505,7 @@
         <v>44627.37414351852</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -41562,7 +41562,7 @@
         <v>45357.34284722222</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -41619,7 +41619,7 @@
         <v>45226.34151620371</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -41676,7 +41676,7 @@
         <v>44974</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -41733,7 +41733,7 @@
         <v>44964.45504629629</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -41790,7 +41790,7 @@
         <v>45569.38923611111</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -41847,7 +41847,7 @@
         <v>45355</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -41904,7 +41904,7 @@
         <v>45609.72777777778</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -41961,7 +41961,7 @@
         <v>45117</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -42018,7 +42018,7 @@
         <v>44946</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -42075,7 +42075,7 @@
         <v>45439.66193287037</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -42132,7 +42132,7 @@
         <v>45677.30263888889</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -42189,7 +42189,7 @@
         <v>45175</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -42246,7 +42246,7 @@
         <v>45174</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -42303,7 +42303,7 @@
         <v>45174.49258101852</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -42360,7 +42360,7 @@
         <v>45328</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -42422,7 +42422,7 @@
         <v>45600.37516203704</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -42479,7 +42479,7 @@
         <v>45735.44180555556</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -42536,7 +42536,7 @@
         <v>45735.44604166667</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -42593,7 +42593,7 @@
         <v>45035</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -42650,7 +42650,7 @@
         <v>45582.48378472222</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -42707,7 +42707,7 @@
         <v>45071</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -42764,7 +42764,7 @@
         <v>45777.40581018518</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -42821,7 +42821,7 @@
         <v>45782.62927083333</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -42878,7 +42878,7 @@
         <v>45278.48586805556</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -42935,7 +42935,7 @@
         <v>45785</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -42992,7 +42992,7 @@
         <v>45785</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -43049,7 +43049,7 @@
         <v>45785</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -43106,7 +43106,7 @@
         <v>45789.60424768519</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -43163,7 +43163,7 @@
         <v>45741.62740740741</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -43220,7 +43220,7 @@
         <v>45562.28989583333</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -43277,7 +43277,7 @@
         <v>45443</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -43334,7 +43334,7 @@
         <v>45582.63019675926</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -43391,7 +43391,7 @@
         <v>45616.58701388889</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -43448,7 +43448,7 @@
         <v>45790</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -43505,7 +43505,7 @@
         <v>45792.36009259259</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -43562,7 +43562,7 @@
         <v>45748</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -43619,7 +43619,7 @@
         <v>45686</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -43676,7 +43676,7 @@
         <v>45666.3237962963</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -43733,7 +43733,7 @@
         <v>45799.5099537037</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -43790,7 +43790,7 @@
         <v>45799.79076388889</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -43847,7 +43847,7 @@
         <v>45799.79210648148</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -43904,7 +43904,7 @@
         <v>45799.79471064815</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -43961,7 +43961,7 @@
         <v>45811.49912037037</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -44018,7 +44018,7 @@
         <v>45811.59423611111</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -44075,7 +44075,7 @@
         <v>45810.65826388889</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -44132,7 +44132,7 @@
         <v>45812.54030092592</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -44189,7 +44189,7 @@
         <v>45817.44741898148</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>

--- a/Översikt FALKENBERG.xlsx
+++ b/Översikt FALKENBERG.xlsx
@@ -575,7 +575,7 @@
         <v>44593</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -676,7 +676,7 @@
         <v>45723.3484375</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -763,7 +763,7 @@
         <v>44365</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -849,7 +849,7 @@
         <v>44592</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -940,7 +940,7 @@
         <v>44593</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1031,7 +1031,7 @@
         <v>45456.51078703703</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1121,7 +1121,7 @@
         <v>44460</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1206,7 +1206,7 @@
         <v>44435</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1291,7 +1291,7 @@
         <v>44517</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1376,7 +1376,7 @@
         <v>45600</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1461,7 +1461,7 @@
         <v>44946</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1546,7 +1546,7 @@
         <v>45914.41195601852</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1631,7 +1631,7 @@
         <v>45273</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1716,7 +1716,7 @@
         <v>45239</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1801,7 +1801,7 @@
         <v>45363</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1886,7 +1886,7 @@
         <v>45667</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1971,7 +1971,7 @@
         <v>45789.60172453704</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2056,7 +2056,7 @@
         <v>44806</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2113,7 +2113,7 @@
         <v>44278</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2170,7 +2170,7 @@
         <v>44574</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2227,7 +2227,7 @@
         <v>44476.37228009259</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2284,7 +2284,7 @@
         <v>44432.4594212963</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2341,7 +2341,7 @@
         <v>44607.63460648148</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2398,7 +2398,7 @@
         <v>44553</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2455,7 +2455,7 @@
         <v>44454</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2517,7 +2517,7 @@
         <v>44454</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2579,7 +2579,7 @@
         <v>44271.8378125</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2636,7 +2636,7 @@
         <v>44379</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2693,7 +2693,7 @@
         <v>44287.58824074074</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2750,7 +2750,7 @@
         <v>44539</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2807,7 +2807,7 @@
         <v>44314</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2864,7 +2864,7 @@
         <v>44381</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2921,7 +2921,7 @@
         <v>44381</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2978,7 +2978,7 @@
         <v>44868</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3035,7 +3035,7 @@
         <v>44461</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3092,7 +3092,7 @@
         <v>44467</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3149,7 +3149,7 @@
         <v>44335.28211805555</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3206,7 +3206,7 @@
         <v>44335.27913194444</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3263,7 +3263,7 @@
         <v>44335.28144675926</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3320,7 +3320,7 @@
         <v>44351.60125</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3377,7 +3377,7 @@
         <v>44343</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3434,7 +3434,7 @@
         <v>44867.36803240741</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3491,7 +3491,7 @@
         <v>44266</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3548,7 +3548,7 @@
         <v>44467.34239583334</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3605,7 +3605,7 @@
         <v>44466</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3662,7 +3662,7 @@
         <v>44448</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3719,7 +3719,7 @@
         <v>44680</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3776,7 +3776,7 @@
         <v>44600.5474537037</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3833,7 +3833,7 @@
         <v>44868.31677083333</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3890,7 +3890,7 @@
         <v>44432.46753472222</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3947,7 +3947,7 @@
         <v>44816.45646990741</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4004,7 +4004,7 @@
         <v>44613.58173611111</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4061,7 +4061,7 @@
         <v>44689</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4118,7 +4118,7 @@
         <v>44430</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4175,7 +4175,7 @@
         <v>44424.72109953704</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4232,7 +4232,7 @@
         <v>44866</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4289,7 +4289,7 @@
         <v>44616.59969907408</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4351,7 +4351,7 @@
         <v>44836</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4408,7 +4408,7 @@
         <v>44257</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4465,7 +4465,7 @@
         <v>44357</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4527,7 +4527,7 @@
         <v>44617.43591435185</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4584,7 +4584,7 @@
         <v>44616.54832175926</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4646,7 +4646,7 @@
         <v>44377</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4703,7 +4703,7 @@
         <v>44432.45711805556</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4760,7 +4760,7 @@
         <v>44400</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4817,7 +4817,7 @@
         <v>44379.33618055555</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4874,7 +4874,7 @@
         <v>44547</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4931,7 +4931,7 @@
         <v>44599.64387731482</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4988,7 +4988,7 @@
         <v>44287</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5050,7 +5050,7 @@
         <v>44267</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5107,7 +5107,7 @@
         <v>44711.5750462963</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5164,7 +5164,7 @@
         <v>44879.4912962963</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5221,7 +5221,7 @@
         <v>44320</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5278,7 +5278,7 @@
         <v>44544</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5335,7 +5335,7 @@
         <v>44295.61899305556</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5392,7 +5392,7 @@
         <v>44600.5519212963</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5449,7 +5449,7 @@
         <v>44424</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5506,7 +5506,7 @@
         <v>44692</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5563,7 +5563,7 @@
         <v>44692</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5620,7 +5620,7 @@
         <v>44600.38675925926</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5677,7 +5677,7 @@
         <v>44539</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5734,7 +5734,7 @@
         <v>44539</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5791,7 +5791,7 @@
         <v>44747</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5848,7 +5848,7 @@
         <v>44424</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5905,7 +5905,7 @@
         <v>44813.48675925926</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5962,7 +5962,7 @@
         <v>44841.57885416667</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6019,7 +6019,7 @@
         <v>44545.7980787037</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6076,7 +6076,7 @@
         <v>44446.46020833333</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6133,7 +6133,7 @@
         <v>44574.57268518519</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6190,7 +6190,7 @@
         <v>44407</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6247,7 +6247,7 @@
         <v>44747.85928240741</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6304,7 +6304,7 @@
         <v>44719.59836805556</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6361,7 +6361,7 @@
         <v>44866</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6418,7 +6418,7 @@
         <v>44881</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6475,7 +6475,7 @@
         <v>44425</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6532,7 +6532,7 @@
         <v>44467.3453125</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6589,7 +6589,7 @@
         <v>44593</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6651,7 +6651,7 @@
         <v>44467.34431712963</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6708,7 +6708,7 @@
         <v>44467.82064814815</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6765,7 +6765,7 @@
         <v>44803.57302083333</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6822,7 +6822,7 @@
         <v>44614</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6879,7 +6879,7 @@
         <v>44596.65662037037</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6936,7 +6936,7 @@
         <v>44685.31212962963</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6993,7 +6993,7 @@
         <v>44638.63767361111</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7050,7 +7050,7 @@
         <v>44309.50061342592</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7107,7 +7107,7 @@
         <v>44354.45418981482</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7164,7 +7164,7 @@
         <v>44267</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7221,7 +7221,7 @@
         <v>44539</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7278,7 +7278,7 @@
         <v>44454</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7340,7 +7340,7 @@
         <v>44466</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7397,7 +7397,7 @@
         <v>44628</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7459,7 +7459,7 @@
         <v>44537</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7521,7 +7521,7 @@
         <v>44481</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7578,7 +7578,7 @@
         <v>44543</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7635,7 +7635,7 @@
         <v>44539</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7692,7 +7692,7 @@
         <v>44407</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7749,7 +7749,7 @@
         <v>44438.49201388889</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7806,7 +7806,7 @@
         <v>44539</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7863,7 +7863,7 @@
         <v>45627.81162037037</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7920,7 +7920,7 @@
         <v>45565.61508101852</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7977,7 +7977,7 @@
         <v>45377.53855324074</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8034,7 +8034,7 @@
         <v>45709.38615740741</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8091,7 +8091,7 @@
         <v>45212</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8148,7 +8148,7 @@
         <v>45212.55864583333</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8205,7 +8205,7 @@
         <v>45174.48878472222</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8262,7 +8262,7 @@
         <v>45400.73915509259</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8319,7 +8319,7 @@
         <v>45723</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8376,7 +8376,7 @@
         <v>45195</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8433,7 +8433,7 @@
         <v>44294.47487268518</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8490,7 +8490,7 @@
         <v>45335</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8552,7 +8552,7 @@
         <v>45705.5196875</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8609,7 +8609,7 @@
         <v>44806.35574074074</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8666,7 +8666,7 @@
         <v>45363</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8723,7 +8723,7 @@
         <v>45700.36592592593</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8780,7 +8780,7 @@
         <v>45426.48527777778</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8837,7 +8837,7 @@
         <v>45350.56215277778</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8894,7 +8894,7 @@
         <v>45229</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8951,7 +8951,7 @@
         <v>45462.58004629629</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9008,7 +9008,7 @@
         <v>45435.46104166667</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9065,7 +9065,7 @@
         <v>45546</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9122,7 +9122,7 @@
         <v>44903.63020833334</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9179,7 +9179,7 @@
         <v>45419.38927083334</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9236,7 +9236,7 @@
         <v>44938</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9293,7 +9293,7 @@
         <v>45580.23842592593</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9350,7 +9350,7 @@
         <v>44467</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9407,7 +9407,7 @@
         <v>44340</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9464,7 +9464,7 @@
         <v>45147</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9521,7 +9521,7 @@
         <v>44379.33965277778</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9578,7 +9578,7 @@
         <v>45247.65420138889</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9635,7 +9635,7 @@
         <v>45244.78449074074</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9692,7 +9692,7 @@
         <v>45533.34621527778</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9749,7 +9749,7 @@
         <v>45439.66193287037</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9806,7 +9806,7 @@
         <v>45274</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9863,7 +9863,7 @@
         <v>45342.53665509259</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9925,7 +9925,7 @@
         <v>45323.538125</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9982,7 +9982,7 @@
         <v>44545.35561342593</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10039,7 +10039,7 @@
         <v>45300.33005787037</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10096,7 +10096,7 @@
         <v>45300.44137731481</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10153,7 +10153,7 @@
         <v>45300</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10210,7 +10210,7 @@
         <v>44946.59435185185</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10267,7 +10267,7 @@
         <v>45441.43253472223</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10329,7 +10329,7 @@
         <v>45644</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10386,7 +10386,7 @@
         <v>45482.42009259259</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10443,7 +10443,7 @@
         <v>45635.58111111111</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10500,7 +10500,7 @@
         <v>44897.43934027778</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10557,7 +10557,7 @@
         <v>45329</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10614,7 +10614,7 @@
         <v>44900.61018518519</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10671,7 +10671,7 @@
         <v>44916</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10728,7 +10728,7 @@
         <v>44602</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10785,7 +10785,7 @@
         <v>45524</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10842,7 +10842,7 @@
         <v>44576.3878125</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10899,7 +10899,7 @@
         <v>45071</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10956,7 +10956,7 @@
         <v>44584.75622685185</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11013,7 +11013,7 @@
         <v>45272.75372685185</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11070,7 +11070,7 @@
         <v>45554.53219907408</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11127,7 +11127,7 @@
         <v>45887.67622685185</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11184,7 +11184,7 @@
         <v>45888.59473379629</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11241,7 +11241,7 @@
         <v>45349.30850694444</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11298,7 +11298,7 @@
         <v>44908</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11355,7 +11355,7 @@
         <v>44616.55402777778</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11417,7 +11417,7 @@
         <v>45219.67774305555</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11474,7 +11474,7 @@
         <v>45810.65826388889</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11531,7 +11531,7 @@
         <v>45782.57447916667</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11588,7 +11588,7 @@
         <v>45547</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11645,7 +11645,7 @@
         <v>45582.42644675926</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11702,7 +11702,7 @@
         <v>45743.39162037037</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11759,7 +11759,7 @@
         <v>45350.34221064814</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11816,7 +11816,7 @@
         <v>45812.54030092592</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11873,7 +11873,7 @@
         <v>45552.60383101852</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11930,7 +11930,7 @@
         <v>45355</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11987,7 +11987,7 @@
         <v>45795.47841435186</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12044,7 +12044,7 @@
         <v>44938</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12101,7 +12101,7 @@
         <v>45747.61678240741</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12158,7 +12158,7 @@
         <v>45747.61954861111</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12215,7 +12215,7 @@
         <v>45769.76717592592</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12272,7 +12272,7 @@
         <v>45800</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12329,7 +12329,7 @@
         <v>45811.59423611111</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12386,7 +12386,7 @@
         <v>45811.49912037037</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12443,7 +12443,7 @@
         <v>45889.43125</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12500,7 +12500,7 @@
         <v>45817.44741898148</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12557,7 +12557,7 @@
         <v>45467.44800925926</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12614,7 +12614,7 @@
         <v>45615.53175925926</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12671,7 +12671,7 @@
         <v>45712.86837962963</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12728,7 +12728,7 @@
         <v>45635.41049768519</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12785,7 +12785,7 @@
         <v>45630.41225694444</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12842,7 +12842,7 @@
         <v>45555.70491898148</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12899,7 +12899,7 @@
         <v>44600.38467592592</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12956,7 +12956,7 @@
         <v>44974</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13013,7 +13013,7 @@
         <v>45246.57709490741</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13070,7 +13070,7 @@
         <v>45770.53210648148</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13127,7 +13127,7 @@
         <v>45575.45504629629</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13184,7 +13184,7 @@
         <v>45821.60167824074</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13241,7 +13241,7 @@
         <v>45895</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13298,7 +13298,7 @@
         <v>45895</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13355,7 +13355,7 @@
         <v>44656</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13412,7 +13412,7 @@
         <v>44694</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13469,7 +13469,7 @@
         <v>45743</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13531,7 +13531,7 @@
         <v>44610</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13588,7 +13588,7 @@
         <v>45889.5352662037</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13645,7 +13645,7 @@
         <v>45901.46990740741</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13702,7 +13702,7 @@
         <v>45901.47424768518</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13759,7 +13759,7 @@
         <v>45901.61994212963</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13816,7 +13816,7 @@
         <v>45055</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13873,7 +13873,7 @@
         <v>45055</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13930,7 +13930,7 @@
         <v>45901.3091087963</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13987,7 +13987,7 @@
         <v>45575.45410879629</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14044,7 +14044,7 @@
         <v>45901</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14101,7 +14101,7 @@
         <v>44926</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14163,7 +14163,7 @@
         <v>45670</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14220,7 +14220,7 @@
         <v>45273</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14277,7 +14277,7 @@
         <v>45905.5284375</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14334,7 +14334,7 @@
         <v>45834.38549768519</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14391,7 +14391,7 @@
         <v>45834.39193287037</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14448,7 +14448,7 @@
         <v>45569.38923611111</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14505,7 +14505,7 @@
         <v>45741.61895833333</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14562,7 +14562,7 @@
         <v>45834.40207175926</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14619,7 +14619,7 @@
         <v>45580.59590277778</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14676,7 +14676,7 @@
         <v>45838.64795138889</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14733,7 +14733,7 @@
         <v>45838.65300925926</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14790,7 +14790,7 @@
         <v>45836.60414351852</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14847,7 +14847,7 @@
         <v>45908.33061342593</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14904,7 +14904,7 @@
         <v>45838.48069444444</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14961,7 +14961,7 @@
         <v>45838.48546296296</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15018,7 +15018,7 @@
         <v>45838.24482638889</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15075,7 +15075,7 @@
         <v>45266.44556712963</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15132,7 +15132,7 @@
         <v>45838.24680555556</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15189,7 +15189,7 @@
         <v>45355.42181712963</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15246,7 +15246,7 @@
         <v>45581.2815625</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15303,7 +15303,7 @@
         <v>45714.87357638889</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15360,7 +15360,7 @@
         <v>45839</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15417,7 +15417,7 @@
         <v>45910.66509259259</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15474,7 +15474,7 @@
         <v>45842.41069444444</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15531,7 +15531,7 @@
         <v>44946</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15588,7 +15588,7 @@
         <v>45700.36393518518</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15645,7 +15645,7 @@
         <v>45911</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15702,7 +15702,7 @@
         <v>44984</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15759,7 +15759,7 @@
         <v>45845</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15816,7 +15816,7 @@
         <v>45667.48493055555</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15878,7 +15878,7 @@
         <v>45202</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15935,7 +15935,7 @@
         <v>45706.57119212963</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15992,7 +15992,7 @@
         <v>45058</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16049,7 +16049,7 @@
         <v>45015</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16106,7 +16106,7 @@
         <v>45084.5340625</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16163,7 +16163,7 @@
         <v>45848.90775462963</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16220,7 +16220,7 @@
         <v>45848.92115740741</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16277,7 +16277,7 @@
         <v>44964.45504629629</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16334,7 +16334,7 @@
         <v>45474</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16391,7 +16391,7 @@
         <v>45914</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16448,7 +16448,7 @@
         <v>44977.32987268519</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16510,7 +16510,7 @@
         <v>45914</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16567,7 +16567,7 @@
         <v>45856.32144675926</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16624,7 +16624,7 @@
         <v>45856.3171875</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16681,7 +16681,7 @@
         <v>45856.32516203704</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16738,7 +16738,7 @@
         <v>45856.31383101852</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16795,7 +16795,7 @@
         <v>45750.59855324074</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16852,7 +16852,7 @@
         <v>45917.67875</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16909,7 +16909,7 @@
         <v>45861.49398148148</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16966,7 +16966,7 @@
         <v>45600.37215277777</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17023,7 +17023,7 @@
         <v>45035</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17080,7 +17080,7 @@
         <v>45800.37979166667</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17137,7 +17137,7 @@
         <v>44326.40432870371</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17194,7 +17194,7 @@
         <v>45924.41028935185</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17251,7 +17251,7 @@
         <v>45582.48378472222</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17308,7 +17308,7 @@
         <v>45923.62894675926</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17365,7 +17365,7 @@
         <v>45924.39601851852</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17422,7 +17422,7 @@
         <v>45923.42020833334</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17479,7 +17479,7 @@
         <v>45923</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17536,7 +17536,7 @@
         <v>45924.40828703704</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17593,7 +17593,7 @@
         <v>44431</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17655,7 +17655,7 @@
         <v>45923</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17712,7 +17712,7 @@
         <v>45595.51690972222</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17769,7 +17769,7 @@
         <v>45923.40399305556</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17826,7 +17826,7 @@
         <v>45923.40621527778</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17883,7 +17883,7 @@
         <v>45924.32386574074</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17940,7 +17940,7 @@
         <v>45923.29974537037</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17997,7 +17997,7 @@
         <v>45923.40828703704</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18054,7 +18054,7 @@
         <v>45777.40299768518</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18111,7 +18111,7 @@
         <v>45926.56120370371</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18168,7 +18168,7 @@
         <v>45926.56398148148</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18225,7 +18225,7 @@
         <v>45926.49829861111</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18282,7 +18282,7 @@
         <v>45926.49947916667</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18339,7 +18339,7 @@
         <v>44515.38197916667</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18396,7 +18396,7 @@
         <v>44521</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18453,7 +18453,7 @@
         <v>44952.65443287037</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18510,7 +18510,7 @@
         <v>45249</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18567,7 +18567,7 @@
         <v>45273</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18624,7 +18624,7 @@
         <v>45422.52491898148</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18686,7 +18686,7 @@
         <v>45422.54487268518</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18748,7 +18748,7 @@
         <v>45422.56108796296</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18810,7 +18810,7 @@
         <v>45187</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18867,7 +18867,7 @@
         <v>45174.48452546296</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18924,7 +18924,7 @@
         <v>44818</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18986,7 +18986,7 @@
         <v>45068.31527777778</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19043,7 +19043,7 @@
         <v>44866.37664351852</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19100,7 +19100,7 @@
         <v>45387.71712962963</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19157,7 +19157,7 @@
         <v>45152.60824074074</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19214,7 +19214,7 @@
         <v>45434.88734953704</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19271,7 +19271,7 @@
         <v>44986</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19328,7 +19328,7 @@
         <v>45229.90646990741</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19385,7 +19385,7 @@
         <v>45273.68048611111</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19442,7 +19442,7 @@
         <v>45079</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19499,7 +19499,7 @@
         <v>45068</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19556,7 +19556,7 @@
         <v>45305.57886574074</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19613,7 +19613,7 @@
         <v>44693.61975694444</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19670,7 +19670,7 @@
         <v>44952.65233796297</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19727,7 +19727,7 @@
         <v>44952.65681712963</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19784,7 +19784,7 @@
         <v>45817</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19841,7 +19841,7 @@
         <v>45146</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19898,7 +19898,7 @@
         <v>45174</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19955,7 +19955,7 @@
         <v>45174.49258101852</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20012,7 +20012,7 @@
         <v>45840.45260416667</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20074,7 +20074,7 @@
         <v>45337</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20131,7 +20131,7 @@
         <v>44333.86267361111</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20188,7 +20188,7 @@
         <v>44952.65891203703</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20245,7 +20245,7 @@
         <v>45761.50165509259</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20302,7 +20302,7 @@
         <v>45280</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20359,7 +20359,7 @@
         <v>45735.5587037037</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20416,7 +20416,7 @@
         <v>45337.4746875</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20473,7 +20473,7 @@
         <v>45068</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20530,7 +20530,7 @@
         <v>45074</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20587,7 +20587,7 @@
         <v>45270</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20644,7 +20644,7 @@
         <v>45189.50260416666</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20701,7 +20701,7 @@
         <v>45249</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20758,7 +20758,7 @@
         <v>44846.67788194444</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20815,7 +20815,7 @@
         <v>45013</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20872,7 +20872,7 @@
         <v>44846.67546296296</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20929,7 +20929,7 @@
         <v>45966.298125</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20986,7 +20986,7 @@
         <v>45260.32136574074</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21043,7 +21043,7 @@
         <v>45248.66658564815</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21105,7 +21105,7 @@
         <v>45249</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21162,7 +21162,7 @@
         <v>45271</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21219,7 +21219,7 @@
         <v>45845</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21276,7 +21276,7 @@
         <v>45434.89296296296</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21333,7 +21333,7 @@
         <v>45215.65815972222</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21390,7 +21390,7 @@
         <v>44767.63206018518</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21447,7 +21447,7 @@
         <v>44287</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21504,7 +21504,7 @@
         <v>45013.60265046296</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21561,7 +21561,7 @@
         <v>45713.42707175926</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21618,7 +21618,7 @@
         <v>45931.87085648148</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21675,7 +21675,7 @@
         <v>45931</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21732,7 +21732,7 @@
         <v>45754.44550925926</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21789,7 +21789,7 @@
         <v>44502.38731481481</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21846,7 +21846,7 @@
         <v>45826.34858796297</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21903,7 +21903,7 @@
         <v>45249</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21960,7 +21960,7 @@
         <v>45250</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22017,7 +22017,7 @@
         <v>45243</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22074,7 +22074,7 @@
         <v>45931</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22131,7 +22131,7 @@
         <v>45831.45151620371</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22188,7 +22188,7 @@
         <v>44943.71445601852</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22250,7 +22250,7 @@
         <v>44943.7202662037</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22312,7 +22312,7 @@
         <v>45184</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22369,7 +22369,7 @@
         <v>45184</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22426,7 +22426,7 @@
         <v>45184</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22483,7 +22483,7 @@
         <v>45930.77993055555</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22540,7 +22540,7 @@
         <v>45751.58140046296</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22597,7 +22597,7 @@
         <v>45751.58332175926</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22654,7 +22654,7 @@
         <v>45876.49126157408</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22711,7 +22711,7 @@
         <v>44852.35644675926</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22768,7 +22768,7 @@
         <v>45876</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22825,7 +22825,7 @@
         <v>44524</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22882,7 +22882,7 @@
         <v>45877</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22939,7 +22939,7 @@
         <v>45714.89290509259</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -22996,7 +22996,7 @@
         <v>45736.60388888889</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23058,7 +23058,7 @@
         <v>45035</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23115,7 +23115,7 @@
         <v>45751.45901620371</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23172,7 +23172,7 @@
         <v>45226.34151620371</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23229,7 +23229,7 @@
         <v>45933.47980324074</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23286,7 +23286,7 @@
         <v>45691</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23343,7 +23343,7 @@
         <v>44827</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23400,7 +23400,7 @@
         <v>45896</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23457,7 +23457,7 @@
         <v>45896</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23514,7 +23514,7 @@
         <v>45729.46829861111</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23571,7 +23571,7 @@
         <v>45205.48982638889</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23628,7 +23628,7 @@
         <v>45201</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23690,7 +23690,7 @@
         <v>45831.66783564815</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23747,7 +23747,7 @@
         <v>45937.6268287037</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23809,7 +23809,7 @@
         <v>44740.55403935185</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23866,7 +23866,7 @@
         <v>44740.56039351852</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23923,7 +23923,7 @@
         <v>45719</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -23980,7 +23980,7 @@
         <v>45566.33871527778</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24037,7 +24037,7 @@
         <v>45940.34849537037</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24094,7 +24094,7 @@
         <v>45723</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24151,7 +24151,7 @@
         <v>45245.59447916667</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24208,7 +24208,7 @@
         <v>44910</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24265,7 +24265,7 @@
         <v>44910.46140046296</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24322,7 +24322,7 @@
         <v>45736.5667824074</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24379,7 +24379,7 @@
         <v>45068</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24436,7 +24436,7 @@
         <v>45735.36537037037</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24493,7 +24493,7 @@
         <v>45628.60248842592</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24555,7 +24555,7 @@
         <v>45946.63799768518</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24612,7 +24612,7 @@
         <v>45946.65030092592</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24669,7 +24669,7 @@
         <v>45946.65563657408</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24726,7 +24726,7 @@
         <v>45232.48390046296</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24783,7 +24783,7 @@
         <v>44893</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24840,7 +24840,7 @@
         <v>45001</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -24897,7 +24897,7 @@
         <v>45946.84219907408</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -24954,7 +24954,7 @@
         <v>45751.44987268518</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25011,7 +25011,7 @@
         <v>45757.40206018519</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25068,7 +25068,7 @@
         <v>45950.69099537037</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25130,7 +25130,7 @@
         <v>45947.33006944445</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25187,7 +25187,7 @@
         <v>45119</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25244,7 +25244,7 @@
         <v>45952.30056712963</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25301,7 +25301,7 @@
         <v>44882</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25358,7 +25358,7 @@
         <v>45952.57880787037</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25415,7 +25415,7 @@
         <v>45952.6142824074</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25472,7 +25472,7 @@
         <v>45951.49594907407</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25529,7 +25529,7 @@
         <v>45952.61923611111</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25586,7 +25586,7 @@
         <v>45952.62607638889</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25643,7 +25643,7 @@
         <v>44469</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25700,7 +25700,7 @@
         <v>45951.58283564815</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25757,7 +25757,7 @@
         <v>45561.49186342592</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25814,7 +25814,7 @@
         <v>45953.37833333333</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -25871,7 +25871,7 @@
         <v>45456.62121527778</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -25928,7 +25928,7 @@
         <v>44957.50162037037</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -25985,7 +25985,7 @@
         <v>45953.36152777778</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26042,7 +26042,7 @@
         <v>45756.74784722222</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26099,7 +26099,7 @@
         <v>45954.38357638889</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26156,7 +26156,7 @@
         <v>45954.70240740741</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26213,7 +26213,7 @@
         <v>44538</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26270,7 +26270,7 @@
         <v>45188</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26327,7 +26327,7 @@
         <v>44966.37291666667</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26384,7 +26384,7 @@
         <v>45959.33313657407</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26441,7 +26441,7 @@
         <v>45350.34746527778</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26498,7 +26498,7 @@
         <v>45959.57741898148</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26555,7 +26555,7 @@
         <v>45959.56633101852</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26612,7 +26612,7 @@
         <v>45950.69850694444</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26674,7 +26674,7 @@
         <v>45960.42212962963</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26731,7 +26731,7 @@
         <v>45960.42365740741</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26788,7 +26788,7 @@
         <v>45342.38273148148</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -26845,7 +26845,7 @@
         <v>45959.76681712963</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -26902,7 +26902,7 @@
         <v>45959.7678125</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -26959,7 +26959,7 @@
         <v>45280.615</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27016,7 +27016,7 @@
         <v>44972</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27073,7 +27073,7 @@
         <v>44545.80523148148</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27130,7 +27130,7 @@
         <v>45959.33420138889</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27187,7 +27187,7 @@
         <v>45959.33655092592</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27244,7 +27244,7 @@
         <v>45960</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27306,7 +27306,7 @@
         <v>45960.66224537037</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27363,7 +27363,7 @@
         <v>45959.33488425926</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27420,7 +27420,7 @@
         <v>45597.51122685185</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27482,7 +27482,7 @@
         <v>45117</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27539,7 +27539,7 @@
         <v>45959.56813657407</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27596,7 +27596,7 @@
         <v>45960</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27658,7 +27658,7 @@
         <v>45960</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27715,7 +27715,7 @@
         <v>45959.57440972222</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27772,7 +27772,7 @@
         <v>45964.46145833333</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -27829,7 +27829,7 @@
         <v>45964.69548611111</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -27891,7 +27891,7 @@
         <v>45961.37416666667</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -27948,7 +27948,7 @@
         <v>44999</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28005,7 +28005,7 @@
         <v>45961.40752314815</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28062,7 +28062,7 @@
         <v>45961.37354166667</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28119,7 +28119,7 @@
         <v>45131</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28176,7 +28176,7 @@
         <v>45142</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28233,7 +28233,7 @@
         <v>45965.71777777778</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28290,7 +28290,7 @@
         <v>45965.50879629629</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28347,7 +28347,7 @@
         <v>45965.56266203704</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28404,7 +28404,7 @@
         <v>45239</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28461,7 +28461,7 @@
         <v>45965.70961805555</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28518,7 +28518,7 @@
         <v>45965.49766203704</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28575,7 +28575,7 @@
         <v>45965.50377314815</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28632,7 +28632,7 @@
         <v>45965.40067129629</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28689,7 +28689,7 @@
         <v>45965</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -28751,7 +28751,7 @@
         <v>45425</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -28808,7 +28808,7 @@
         <v>45968</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -28865,7 +28865,7 @@
         <v>45474</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -28922,7 +28922,7 @@
         <v>45968.36759259259</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -28979,7 +28979,7 @@
         <v>44525.35303240741</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29036,7 +29036,7 @@
         <v>45971.63211805555</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29093,7 +29093,7 @@
         <v>44543.63011574074</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29150,7 +29150,7 @@
         <v>45019</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29207,7 +29207,7 @@
         <v>45971.63334490741</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29264,7 +29264,7 @@
         <v>45971.634375</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29321,7 +29321,7 @@
         <v>45971.80481481482</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29378,7 +29378,7 @@
         <v>44827</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29435,7 +29435,7 @@
         <v>45138</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29492,7 +29492,7 @@
         <v>45973.42508101852</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29554,7 +29554,7 @@
         <v>45973.46903935185</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29611,7 +29611,7 @@
         <v>45975.48550925926</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -29673,7 +29673,7 @@
         <v>44974.60203703704</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -29730,7 +29730,7 @@
         <v>44848.34385416667</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -29787,7 +29787,7 @@
         <v>45975.50200231482</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -29849,7 +29849,7 @@
         <v>45566.33701388889</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -29906,7 +29906,7 @@
         <v>45566.55650462963</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -29963,7 +29963,7 @@
         <v>45566.55728009259</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30020,7 +30020,7 @@
         <v>45105.56123842593</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30077,7 +30077,7 @@
         <v>45048.47604166667</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30134,7 +30134,7 @@
         <v>45148</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30191,7 +30191,7 @@
         <v>45328</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30253,7 +30253,7 @@
         <v>44986</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30310,7 +30310,7 @@
         <v>45390.38009259259</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30367,7 +30367,7 @@
         <v>44622.6600925926</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30424,7 +30424,7 @@
         <v>45714.61877314815</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -30481,7 +30481,7 @@
         <v>45635.42052083334</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -30538,7 +30538,7 @@
         <v>45481</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -30595,7 +30595,7 @@
         <v>45600.37516203704</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -30652,7 +30652,7 @@
         <v>45377.53998842592</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -30709,7 +30709,7 @@
         <v>45552</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -30766,7 +30766,7 @@
         <v>45678.66383101852</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -30823,7 +30823,7 @@
         <v>45988</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -30885,7 +30885,7 @@
         <v>45988</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -30947,7 +30947,7 @@
         <v>45401</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31009,7 +31009,7 @@
         <v>45978</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31066,7 +31066,7 @@
         <v>45989.64594907407</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31123,7 +31123,7 @@
         <v>45706.46810185185</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31180,7 +31180,7 @@
         <v>45714.88813657407</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31237,7 +31237,7 @@
         <v>45588.46105324074</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31294,7 +31294,7 @@
         <v>45667.43560185185</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -31351,7 +31351,7 @@
         <v>44644.32097222222</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -31408,7 +31408,7 @@
         <v>45190</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -31465,7 +31465,7 @@
         <v>45691</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -31522,7 +31522,7 @@
         <v>44554</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -31579,7 +31579,7 @@
         <v>45601.69266203704</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -31636,7 +31636,7 @@
         <v>45435.44834490741</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -31693,7 +31693,7 @@
         <v>45618.31188657408</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -31750,7 +31750,7 @@
         <v>46041.47722222222</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -31807,7 +31807,7 @@
         <v>45999.44724537037</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -31864,7 +31864,7 @@
         <v>45999.45033564815</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -31921,7 +31921,7 @@
         <v>45729.4733449074</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -31978,7 +31978,7 @@
         <v>45643.62706018519</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32040,7 +32040,7 @@
         <v>46042.61578703704</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32097,7 +32097,7 @@
         <v>45182.69210648148</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32154,7 +32154,7 @@
         <v>45751.44934027778</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32211,7 +32211,7 @@
         <v>45187</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32268,7 +32268,7 @@
         <v>45770.5756712963</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -32325,7 +32325,7 @@
         <v>46003.68008101852</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -32382,7 +32382,7 @@
         <v>45401.51612268519</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -32444,7 +32444,7 @@
         <v>46006.45133101852</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -32501,7 +32501,7 @@
         <v>46001.74296296296</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -32558,7 +32558,7 @@
         <v>45625.69050925926</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -32615,7 +32615,7 @@
         <v>46004.54127314815</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -32672,7 +32672,7 @@
         <v>46045.5425</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -32729,7 +32729,7 @@
         <v>45635.44935185185</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -32786,7 +32786,7 @@
         <v>45635.46984953704</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -32843,7 +32843,7 @@
         <v>45688.6674537037</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -32900,7 +32900,7 @@
         <v>46006.4656712963</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -32957,7 +32957,7 @@
         <v>46006.47361111111</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -33014,7 +33014,7 @@
         <v>45700.35894675926</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -33071,7 +33071,7 @@
         <v>45435.45245370371</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -33128,7 +33128,7 @@
         <v>46007.63671296297</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -33185,7 +33185,7 @@
         <v>45642.3908912037</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -33242,7 +33242,7 @@
         <v>45561.4961574074</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -33299,7 +33299,7 @@
         <v>45414.63642361111</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -33361,7 +33361,7 @@
         <v>46007.76087962963</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -33418,7 +33418,7 @@
         <v>44811.59471064815</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -33475,7 +33475,7 @@
         <v>45188</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -33532,7 +33532,7 @@
         <v>46049.46909722222</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -33589,7 +33589,7 @@
         <v>45181.45777777778</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -33646,7 +33646,7 @@
         <v>46040.53792824074</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -33703,7 +33703,7 @@
         <v>44664</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -33760,7 +33760,7 @@
         <v>45680.67472222223</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -33817,7 +33817,7 @@
         <v>45679.60821759259</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -33879,7 +33879,7 @@
         <v>45681</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -33936,7 +33936,7 @@
         <v>46052.56081018518</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -33993,7 +33993,7 @@
         <v>46008</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -34050,7 +34050,7 @@
         <v>46055.45041666667</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -34107,7 +34107,7 @@
         <v>45637</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -34164,7 +34164,7 @@
         <v>46008</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -34221,7 +34221,7 @@
         <v>45163.56980324074</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -34278,7 +34278,7 @@
         <v>45182.51840277778</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -34335,7 +34335,7 @@
         <v>45188</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -34392,7 +34392,7 @@
         <v>45131</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -34449,7 +34449,7 @@
         <v>45841.6303125</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -34506,7 +34506,7 @@
         <v>46057.4146875</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -34563,7 +34563,7 @@
         <v>45953.54796296296</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -34620,7 +34620,7 @@
         <v>45239</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -34677,7 +34677,7 @@
         <v>45735.44180555556</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -34734,7 +34734,7 @@
         <v>45735.44604166667</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -34791,7 +34791,7 @@
         <v>45300.45178240741</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -34848,7 +34848,7 @@
         <v>45328</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -34910,7 +34910,7 @@
         <v>45769</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -34967,7 +34967,7 @@
         <v>45758.22861111111</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -35024,7 +35024,7 @@
         <v>45762</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -35081,7 +35081,7 @@
         <v>45343.54475694444</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -35138,7 +35138,7 @@
         <v>44627.37189814815</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -35195,7 +35195,7 @@
         <v>46065.58340277777</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -35252,7 +35252,7 @@
         <v>45272.74862268518</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -35309,7 +35309,7 @@
         <v>44958</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -35371,7 +35371,7 @@
         <v>45091</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -35428,7 +35428,7 @@
         <v>45118</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -35485,7 +35485,7 @@
         <v>45252</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -35542,7 +35542,7 @@
         <v>44785.3725</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -35599,7 +35599,7 @@
         <v>45282.45675925926</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -35656,7 +35656,7 @@
         <v>44831.32513888889</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -35713,7 +35713,7 @@
         <v>45357.35319444445</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -35770,7 +35770,7 @@
         <v>45091.65994212963</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -35827,7 +35827,7 @@
         <v>44539</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -35884,7 +35884,7 @@
         <v>46042.61434027777</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -35941,7 +35941,7 @@
         <v>46069.56211805555</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -35998,7 +35998,7 @@
         <v>46029</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -36055,7 +36055,7 @@
         <v>45539.37892361111</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -36112,7 +36112,7 @@
         <v>45238</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -36169,7 +36169,7 @@
         <v>45691.47612268518</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -36226,7 +36226,7 @@
         <v>44946</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -36283,7 +36283,7 @@
         <v>45044</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -36340,7 +36340,7 @@
         <v>46065</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -36397,7 +36397,7 @@
         <v>46031</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -36454,7 +36454,7 @@
         <v>45618.40414351852</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -36511,7 +36511,7 @@
         <v>45618.40553240741</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -36568,7 +36568,7 @@
         <v>45326.72686342592</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -36625,7 +36625,7 @@
         <v>44946</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -36682,7 +36682,7 @@
         <v>44627.37414351852</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -36739,7 +36739,7 @@
         <v>44887</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -36796,7 +36796,7 @@
         <v>44902</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -36853,7 +36853,7 @@
         <v>46035</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -36910,7 +36910,7 @@
         <v>46070.50351851852</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -36967,7 +36967,7 @@
         <v>44692</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -37024,7 +37024,7 @@
         <v>45560.69458333333</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -37081,7 +37081,7 @@
         <v>45211.74263888889</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -37138,7 +37138,7 @@
         <v>45175</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -37195,7 +37195,7 @@
         <v>44970.7156712963</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -37252,7 +37252,7 @@
         <v>46037.61799768519</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -37314,7 +37314,7 @@
         <v>46077</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -37371,7 +37371,7 @@
         <v>45580.22925925926</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -37428,7 +37428,7 @@
         <v>45345</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -37485,7 +37485,7 @@
         <v>44327</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -37542,7 +37542,7 @@
         <v>45189.49376157407</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -37599,7 +37599,7 @@
         <v>44946</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -37656,7 +37656,7 @@
         <v>44946</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -37713,7 +37713,7 @@
         <v>46037.419375</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -37770,7 +37770,7 @@
         <v>45357.31717592593</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -37827,7 +37827,7 @@
         <v>44974.62332175926</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -37884,7 +37884,7 @@
         <v>45566.33518518518</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -37941,7 +37941,7 @@
         <v>46077</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -37998,7 +37998,7 @@
         <v>44806.58133101852</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -38055,7 +38055,7 @@
         <v>44517.79155092593</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -38112,7 +38112,7 @@
         <v>45079.46327546296</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -38169,7 +38169,7 @@
         <v>45188</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -38226,7 +38226,7 @@
         <v>45182.69283564815</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -38283,7 +38283,7 @@
         <v>45772.3849537037</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -38340,7 +38340,7 @@
         <v>45391.45446759259</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -38397,7 +38397,7 @@
         <v>45381.65381944444</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -38454,7 +38454,7 @@
         <v>45384.40712962963</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -38511,7 +38511,7 @@
         <v>45036</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -38568,7 +38568,7 @@
         <v>45435.45399305555</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -38625,7 +38625,7 @@
         <v>44984</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -38682,7 +38682,7 @@
         <v>45435.44475694445</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -38739,7 +38739,7 @@
         <v>45076</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -38796,7 +38796,7 @@
         <v>45691</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -38853,7 +38853,7 @@
         <v>45762.32988425926</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -38910,7 +38910,7 @@
         <v>44313</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -38967,7 +38967,7 @@
         <v>45369.67252314815</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -39024,7 +39024,7 @@
         <v>45546</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -39086,7 +39086,7 @@
         <v>45252</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -39143,7 +39143,7 @@
         <v>45601.67407407407</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -39200,7 +39200,7 @@
         <v>45323.55540509259</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -39257,7 +39257,7 @@
         <v>45624.64799768518</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -39314,7 +39314,7 @@
         <v>45624</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -39376,7 +39376,7 @@
         <v>45609.72777777778</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -39433,7 +39433,7 @@
         <v>44652</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -39490,7 +39490,7 @@
         <v>45681</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -39547,7 +39547,7 @@
         <v>45682.80640046296</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -39604,7 +39604,7 @@
         <v>45682.8075</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -39661,7 +39661,7 @@
         <v>45246</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -39718,7 +39718,7 @@
         <v>45673.90905092593</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -39775,7 +39775,7 @@
         <v>45321</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -39832,7 +39832,7 @@
         <v>45357.34284722222</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -39889,7 +39889,7 @@
         <v>45127.545</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -39951,7 +39951,7 @@
         <v>44985.40803240741</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -40008,7 +40008,7 @@
         <v>45561.36538194444</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -40065,7 +40065,7 @@
         <v>44453.87826388889</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -40122,7 +40122,7 @@
         <v>45548</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -40179,7 +40179,7 @@
         <v>45770.87644675926</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -40236,7 +40236,7 @@
         <v>45044</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -40293,7 +40293,7 @@
         <v>44631.49099537037</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -40350,7 +40350,7 @@
         <v>44689.48841435185</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -40407,7 +40407,7 @@
         <v>44687</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -40464,7 +40464,7 @@
         <v>45702.46620370371</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -40521,7 +40521,7 @@
         <v>45266</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -40578,7 +40578,7 @@
         <v>45769</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -40635,7 +40635,7 @@
         <v>45664</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -40692,7 +40692,7 @@
         <v>45629.85086805555</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -40749,7 +40749,7 @@
         <v>45635.4615162037</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -40806,7 +40806,7 @@
         <v>45764</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -40863,7 +40863,7 @@
         <v>45384</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -40920,7 +40920,7 @@
         <v>44642</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -40977,7 +40977,7 @@
         <v>45686</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -41034,7 +41034,7 @@
         <v>45552</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -41091,7 +41091,7 @@
         <v>45351.38615740741</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -41148,7 +41148,7 @@
         <v>45627.80547453704</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -41205,7 +41205,7 @@
         <v>44846</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -41262,7 +41262,7 @@
         <v>45324</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -41319,7 +41319,7 @@
         <v>45243</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -41376,7 +41376,7 @@
         <v>45196</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -41433,7 +41433,7 @@
         <v>45120.64333333333</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -41490,7 +41490,7 @@
         <v>45561.79056712963</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -41547,7 +41547,7 @@
         <v>45037.46315972223</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -41604,7 +41604,7 @@
         <v>45569.38420138889</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -41661,7 +41661,7 @@
         <v>44986.68592592593</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -41718,7 +41718,7 @@
         <v>45681</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -41775,7 +41775,7 @@
         <v>44963.45574074074</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -41832,7 +41832,7 @@
         <v>44963.45646990741</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -41889,7 +41889,7 @@
         <v>44903.63605324074</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -41946,7 +41946,7 @@
         <v>45219.66456018519</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -42003,7 +42003,7 @@
         <v>45153</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -42060,7 +42060,7 @@
         <v>45708.31506944444</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -42117,7 +42117,7 @@
         <v>44957</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -42174,7 +42174,7 @@
         <v>45029.44950231481</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -42231,7 +42231,7 @@
         <v>44986</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -42288,7 +42288,7 @@
         <v>45001</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -42345,7 +42345,7 @@
         <v>45379.57900462963</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -42402,7 +42402,7 @@
         <v>45616.57489583334</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -42459,7 +42459,7 @@
         <v>45667.41243055555</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -42516,7 +42516,7 @@
         <v>45127</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -42578,7 +42578,7 @@
         <v>45127</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -42640,7 +42640,7 @@
         <v>45677.30263888889</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -42697,7 +42697,7 @@
         <v>45770.63724537037</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -42759,7 +42759,7 @@
         <v>45744.66233796296</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -42816,7 +42816,7 @@
         <v>45226</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -42873,7 +42873,7 @@
         <v>45681</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -42930,7 +42930,7 @@
         <v>45300.51297453704</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -42987,7 +42987,7 @@
         <v>44622.65902777778</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -43044,7 +43044,7 @@
         <v>45667</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -43101,7 +43101,7 @@
         <v>45777.40581018518</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -43158,7 +43158,7 @@
         <v>45782.62927083333</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -43215,7 +43215,7 @@
         <v>45278.48586805556</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -43272,7 +43272,7 @@
         <v>45785</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -43329,7 +43329,7 @@
         <v>45785</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -43386,7 +43386,7 @@
         <v>45785</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -43443,7 +43443,7 @@
         <v>45741.62740740741</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -43500,7 +43500,7 @@
         <v>45443</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -43557,7 +43557,7 @@
         <v>45790</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -43614,7 +43614,7 @@
         <v>45562.28989583333</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -43671,7 +43671,7 @@
         <v>45789.60424768519</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -43728,7 +43728,7 @@
         <v>45582.63019675926</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -43785,7 +43785,7 @@
         <v>45792.36009259259</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -43842,7 +43842,7 @@
         <v>45616.58701388889</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -43899,7 +43899,7 @@
         <v>45686</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -43956,7 +43956,7 @@
         <v>45666.3237962963</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -44013,7 +44013,7 @@
         <v>45748</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -44070,7 +44070,7 @@
         <v>45799.79076388889</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -44127,7 +44127,7 @@
         <v>45799.79210648148</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -44184,7 +44184,7 @@
         <v>45799.5099537037</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -44241,7 +44241,7 @@
         <v>45799.79471064815</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
